--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8E18F7-197E-4A74-8B5C-4A6AF62054D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331F1283-4CCA-4337-BB80-A62CA03478BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="540" windowWidth="27045" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -1710,9 +1710,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1736,7 +1736,6 @@
     <xf numFmtId="0" fontId="30" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3037,7 +3036,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="BA1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH10" sqref="BH10"/>
+      <selection pane="bottomLeft" activeCell="BE8" sqref="BE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3060,7 +3059,7 @@
     <col min="54" max="54" width="10.375" style="1" customWidth="1"/>
     <col min="55" max="55" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.125" style="11" customWidth="1"/>
+    <col min="57" max="57" width="15.125" style="1" customWidth="1"/>
     <col min="58" max="58" width="25.75" style="1" customWidth="1"/>
     <col min="59" max="59" width="35.375" style="1" customWidth="1"/>
     <col min="60" max="61" width="25.5" style="1" customWidth="1"/>
@@ -3245,10 +3244,10 @@
       <c r="BG3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BH3" s="13" t="s">
+      <c r="BH3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="BI3" s="13" t="s">
+      <c r="BI3" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3774,10 +3773,10 @@
       <c r="BE6" s="5">
         <v>70000001</v>
       </c>
-      <c r="BF6" s="12" t="s">
+      <c r="BF6" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="BG6" s="14" t="s">
+      <c r="BG6" s="13" t="s">
         <v>143</v>
       </c>
       <c r="BH6" s="6" t="s">
@@ -3954,7 +3953,7 @@
       <c r="BF7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="BG7" s="14" t="s">
+      <c r="BG7" s="13" t="s">
         <v>144</v>
       </c>
       <c r="BH7" s="6" t="s">
@@ -4128,10 +4127,10 @@
       <c r="BE8" s="5">
         <v>70000001</v>
       </c>
-      <c r="BF8" s="12" t="s">
+      <c r="BF8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="BG8" s="14" t="s">
+      <c r="BG8" s="13" t="s">
         <v>145</v>
       </c>
       <c r="BH8" s="6" t="s">
@@ -4308,7 +4307,7 @@
       <c r="BF9" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BG9" s="14" t="s">
+      <c r="BG9" s="13" t="s">
         <v>146</v>
       </c>
       <c r="BH9" s="6" t="s">
@@ -4482,10 +4481,10 @@
       <c r="BE10" s="5">
         <v>70000002</v>
       </c>
-      <c r="BF10" s="12" t="s">
+      <c r="BF10" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="BG10" s="14" t="s">
+      <c r="BG10" s="13" t="s">
         <v>147</v>
       </c>
       <c r="BH10" s="6" t="s">
@@ -4662,7 +4661,7 @@
       <c r="BF11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="BG11" s="14" t="s">
+      <c r="BG11" s="13" t="s">
         <v>148</v>
       </c>
       <c r="BH11" s="6" t="s">
@@ -4836,10 +4835,10 @@
       <c r="BE12" s="5">
         <v>70000002</v>
       </c>
-      <c r="BF12" s="12" t="s">
+      <c r="BF12" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="BG12" s="14" t="s">
+      <c r="BG12" s="13" t="s">
         <v>149</v>
       </c>
       <c r="BH12" s="6" t="s">
@@ -5016,7 +5015,7 @@
       <c r="BF13" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="BG13" s="14" t="s">
+      <c r="BG13" s="13" t="s">
         <v>150</v>
       </c>
       <c r="BH13" s="6" t="s">

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331F1283-4CCA-4337-BB80-A62CA03478BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B51CCD-D731-44E9-8EE5-6AE784CCF012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
   <si>
     <t>宠物名称</t>
   </si>
@@ -588,14 +588,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>BaseSkillID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -781,13 +773,48 @@
   <si>
     <t>40,30,20,10</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法娃娃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆猪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌贼女士</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法精灵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2神兽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵麋鹿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽光晴晴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘气包</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1026,6 +1053,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1710,7 +1744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1745,6 +1779,8 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="98">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -3032,11 +3068,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP13"/>
+  <dimension ref="C1:JP27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BE8" sqref="BE8"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3098,7 +3134,7 @@
         <v>81</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>66</v>
@@ -3230,13 +3266,13 @@
         <v>28</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BD3" s="2" t="s">
         <v>100</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BF3" s="2" t="s">
         <v>29</v>
@@ -3245,10 +3281,10 @@
         <v>30</v>
       </c>
       <c r="BH3" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BI3" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3277,7 +3313,7 @@
         <v>83</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>91</v>
@@ -3409,25 +3445,25 @@
         <v>64</v>
       </c>
       <c r="BC4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BD4" s="4" t="s">
         <v>101</v>
       </c>
       <c r="BE4" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BF4" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BG4" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BH4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BI4" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3456,7 +3492,7 @@
         <v>96</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>96</v>
@@ -3588,13 +3624,13 @@
         <v>96</v>
       </c>
       <c r="BC5" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="BD5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BF5" s="2" t="s">
         <v>94</v>
@@ -3614,7 +3650,7 @@
         <v>1000101</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" s="7">
         <v>1000101</v>
@@ -3641,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N6" s="7">
         <v>0</v>
@@ -3774,16 +3810,16 @@
         <v>70000001</v>
       </c>
       <c r="BF6" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BG6" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BH6" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BI6" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3791,7 +3827,7 @@
         <v>1000201</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7" s="7">
         <v>1000201</v>
@@ -3818,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N7" s="7">
         <v>0</v>
@@ -3951,16 +3987,16 @@
         <v>70000002</v>
       </c>
       <c r="BF7" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BG7" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BH7" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="BI7" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3968,7 +4004,7 @@
         <v>1000301</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" s="7">
         <v>1000301</v>
@@ -3995,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N8" s="7">
         <v>0</v>
@@ -4128,16 +4164,16 @@
         <v>70000001</v>
       </c>
       <c r="BF8" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BG8" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BH8" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BI8" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4145,7 +4181,7 @@
         <v>1000401</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="7">
         <v>1000401</v>
@@ -4172,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="N9" s="7">
         <v>0</v>
@@ -4305,16 +4341,16 @@
         <v>70000001</v>
       </c>
       <c r="BF9" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BG9" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BH9" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BI9" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4322,7 +4358,7 @@
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" s="7">
         <v>1000501</v>
@@ -4349,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
@@ -4482,16 +4518,16 @@
         <v>70000002</v>
       </c>
       <c r="BF10" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BG10" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BH10" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BI10" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4499,7 +4535,7 @@
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="7">
         <v>1000601</v>
@@ -4526,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
@@ -4659,16 +4695,16 @@
         <v>70000001</v>
       </c>
       <c r="BF11" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="BG11" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BH11" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="BI11" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4676,7 +4712,7 @@
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" s="7">
         <v>1000701</v>
@@ -4703,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
@@ -4836,16 +4872,16 @@
         <v>70000002</v>
       </c>
       <c r="BF12" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="BG12" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BH12" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BI12" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4853,7 +4889,7 @@
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13" s="7">
         <v>1000801</v>
@@ -4880,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="N13" s="7">
         <v>0</v>
@@ -5013,16 +5049,1126 @@
         <v>70000002</v>
       </c>
       <c r="BF13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG13" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI13" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
+      <c r="C14" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>3</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S14" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U14" s="5">
+        <v>1500</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1500</v>
+      </c>
+      <c r="X14" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>1500</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>2756</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>475</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>475</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>34</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>34</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AS14" s="5">
         <v>132</v>
       </c>
-      <c r="BG13" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="BH13" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI13" s="6" t="s">
-        <v>153</v>
+      <c r="AT14" s="5">
+        <v>25</v>
+      </c>
+      <c r="AU14" s="5">
+        <v>25</v>
+      </c>
+      <c r="AV14" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AW14" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AX14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ14" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BB14" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5">
+        <v>80000008</v>
+      </c>
+      <c r="BE14" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="BF14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG14" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH14" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI14" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
+      <c r="C15" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>3</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S15" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U15" s="5">
+        <v>1500</v>
+      </c>
+      <c r="V15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W15" s="5">
+        <v>1500</v>
+      </c>
+      <c r="X15" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>1500</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>2756</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>475</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>475</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>34</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>34</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AS15" s="5">
+        <v>132</v>
+      </c>
+      <c r="AT15" s="5">
+        <v>25</v>
+      </c>
+      <c r="AU15" s="5">
+        <v>25</v>
+      </c>
+      <c r="AV15" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AW15" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AX15" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY15" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ15" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BB15" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5">
+        <v>80000008</v>
+      </c>
+      <c r="BE15" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="BF15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG15" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI15" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
+      <c r="C16" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>3</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S16" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U16" s="5">
+        <v>1500</v>
+      </c>
+      <c r="V16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W16" s="5">
+        <v>1500</v>
+      </c>
+      <c r="X16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>1500</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>2756</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>475</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>475</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>34</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>34</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AS16" s="5">
+        <v>132</v>
+      </c>
+      <c r="AT16" s="5">
+        <v>25</v>
+      </c>
+      <c r="AU16" s="5">
+        <v>25</v>
+      </c>
+      <c r="AV16" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AW16" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AX16" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY16" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ16" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BB16" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5">
+        <v>80000008</v>
+      </c>
+      <c r="BE16" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="BF16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG16" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI16" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
+      <c r="C17" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>3</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U17" s="5">
+        <v>1500</v>
+      </c>
+      <c r="V17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W17" s="5">
+        <v>1500</v>
+      </c>
+      <c r="X17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>1500</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>2756</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>475</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>475</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>34</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>34</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AS17" s="5">
+        <v>132</v>
+      </c>
+      <c r="AT17" s="5">
+        <v>25</v>
+      </c>
+      <c r="AU17" s="5">
+        <v>25</v>
+      </c>
+      <c r="AV17" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AW17" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AX17" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ17" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA17" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BB17" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5">
+        <v>80000008</v>
+      </c>
+      <c r="BE17" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="BF17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG17" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI17" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
+      <c r="C18" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>3</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S18" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T18" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U18" s="5">
+        <v>1500</v>
+      </c>
+      <c r="V18" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1500</v>
+      </c>
+      <c r="X18" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>1500</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>2756</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>475</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>475</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>34</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>34</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AM18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AS18" s="5">
+        <v>132</v>
+      </c>
+      <c r="AT18" s="5">
+        <v>25</v>
+      </c>
+      <c r="AU18" s="5">
+        <v>25</v>
+      </c>
+      <c r="AV18" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AW18" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AX18" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY18" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ18" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BB18" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5">
+        <v>80000008</v>
+      </c>
+      <c r="BE18" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="BF18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG18" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH18" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI18" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
+      <c r="C19" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1000801</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>3</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U19" s="5">
+        <v>1500</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W19" s="5">
+        <v>1500</v>
+      </c>
+      <c r="X19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>1500</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>2756</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>475</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>475</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>34</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>34</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AM19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AS19" s="5">
+        <v>132</v>
+      </c>
+      <c r="AT19" s="5">
+        <v>25</v>
+      </c>
+      <c r="AU19" s="5">
+        <v>25</v>
+      </c>
+      <c r="AV19" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AW19" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AX19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY19" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ19" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BB19" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5">
+        <v>80000008</v>
+      </c>
+      <c r="BE19" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="BF19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG19" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH19" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI19" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="3:61" ht="13.5" customHeight="1">
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="3:61" ht="13.5" customHeight="1">
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="3:61" ht="13.5" customHeight="1">
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="3:61" ht="13.5" customHeight="1">
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="3:61" ht="13.5" customHeight="1">
+      <c r="C26" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="3:61" ht="13.5" customHeight="1">
+      <c r="D27" s="15" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B51CCD-D731-44E9-8EE5-6AE784CCF012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE5DB72-2774-467C-9F6E-144A5748A40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="163">
   <si>
     <t>宠物名称</t>
   </si>
@@ -775,46 +775,47 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>魔法娃娃</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆猪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌贼女士</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法精灵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2神兽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵麋鹿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽光晴晴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>雷霆猪</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌贼女士</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法精灵</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法娃娃</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
     <t>淘气包</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明天使</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵麋鹿</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽光晴晴</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1053,13 +1054,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1744,7 +1738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1779,8 +1773,6 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="98">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -3068,11 +3060,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP27"/>
+  <dimension ref="C1:JP21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AR1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="AV16" sqref="AV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3677,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N6" s="7">
         <v>0</v>
@@ -3854,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N7" s="7">
         <v>0</v>
@@ -4031,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N8" s="7">
         <v>0</v>
@@ -4208,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N9" s="7">
         <v>0</v>
@@ -4385,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
@@ -4562,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
@@ -4739,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
@@ -4916,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N13" s="7">
         <v>0</v>
@@ -5063,16 +5055,16 @@
     </row>
     <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="7">
-        <v>1000801</v>
+        <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="E14" s="7">
-        <v>1000801</v>
+        <v>1000901</v>
       </c>
       <c r="F14" s="7">
-        <v>1000801</v>
+        <v>1000901</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -5093,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
@@ -5240,16 +5232,16 @@
     </row>
     <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="7">
-        <v>1000801</v>
+        <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="E15" s="7">
-        <v>1000801</v>
+        <v>1001001</v>
       </c>
       <c r="F15" s="7">
-        <v>1000801</v>
+        <v>1001001</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -5270,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
@@ -5417,16 +5409,16 @@
     </row>
     <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="7">
-        <v>1000801</v>
+        <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="E16" s="7">
-        <v>1000801</v>
+        <v>1001101</v>
       </c>
       <c r="F16" s="7">
-        <v>1000801</v>
+        <v>1001101</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
@@ -5447,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -5594,16 +5586,16 @@
     </row>
     <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="7">
-        <v>1000801</v>
+        <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="E17" s="7">
-        <v>1000801</v>
+        <v>1001201</v>
       </c>
       <c r="F17" s="7">
-        <v>1000801</v>
+        <v>1001201</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
@@ -5624,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
@@ -5771,16 +5763,16 @@
     </row>
     <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="7">
-        <v>1000801</v>
+        <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="E18" s="7">
-        <v>1000801</v>
+        <v>1001301</v>
       </c>
       <c r="F18" s="7">
-        <v>1000801</v>
+        <v>1001301</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
@@ -5801,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N18" s="7">
         <v>0</v>
@@ -5948,16 +5940,16 @@
     </row>
     <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="7">
-        <v>1000801</v>
+        <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E19" s="7">
-        <v>1000801</v>
+        <v>1001401</v>
       </c>
       <c r="F19" s="7">
-        <v>1000801</v>
+        <v>1001401</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -5978,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N19" s="7">
         <v>0</v>
@@ -6123,52 +6115,358 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="3:61" ht="13.5" customHeight="1">
-      <c r="C20" s="1">
+    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
+      <c r="C20" s="7">
+        <v>2000001</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2000001</v>
+      </c>
+      <c r="F20" s="7">
+        <v>2000001</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1</v>
+      </c>
+      <c r="P20" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S20" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U20" s="5">
+        <v>1500</v>
+      </c>
+      <c r="V20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W20" s="5">
+        <v>1500</v>
+      </c>
+      <c r="X20" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>1500</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>2756</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>475</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>475</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>34</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>34</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AS20" s="5">
+        <v>132</v>
+      </c>
+      <c r="AT20" s="5">
+        <v>25</v>
+      </c>
+      <c r="AU20" s="5">
+        <v>25</v>
+      </c>
+      <c r="AV20" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AW20" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AX20" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY20" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ20" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BB20" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5">
+        <v>80000008</v>
+      </c>
+      <c r="BE20" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="BF20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG20" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH20" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI20" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
+      <c r="C21" s="7">
+        <v>2000002</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="21" spans="3:61" ht="13.5" customHeight="1">
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="3:61" ht="13.5" customHeight="1">
-      <c r="C22" s="1">
+      <c r="E21" s="7">
+        <v>2000002</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2000002</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7">
         <v>3</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="3:61" ht="13.5" customHeight="1">
-      <c r="C23" s="1">
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>1</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S21" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="U21" s="5">
+        <v>1500</v>
+      </c>
+      <c r="V21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W21" s="5">
+        <v>1500</v>
+      </c>
+      <c r="X21" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>1500</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>2756</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>475</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>475</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>34</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>34</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AS21" s="5">
+        <v>132</v>
+      </c>
+      <c r="AT21" s="5">
+        <v>25</v>
+      </c>
+      <c r="AU21" s="5">
+        <v>25</v>
+      </c>
+      <c r="AV21" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AW21" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AX21" s="5">
         <v>3</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="3:61" ht="13.5" customHeight="1">
-      <c r="C26" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="3:61" ht="13.5" customHeight="1">
-      <c r="D27" s="15" t="s">
-        <v>160</v>
+      <c r="AY21" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ21" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA21" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BB21" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5">
+        <v>80000008</v>
+      </c>
+      <c r="BE21" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="BF21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG21" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI21" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE5DB72-2774-467C-9F6E-144A5748A40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885759F8-4731-4344-A987-EF740DD251E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,15 +196,111 @@
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
             <family val="2"/>
           </rPr>
-          <t>作者:
-怪物类型
-0：通用
-1：野兽
-2：人物
-3：恶魔</t>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">怪物类型
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：通用
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：野兽
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：人物
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：恶魔</t>
         </r>
       </text>
     </comment>
@@ -239,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="189">
   <si>
     <t>宠物名称</t>
   </si>
@@ -659,38 +755,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>80001001;80001011</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001002;80001012</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001003;80001013</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001004;80001014</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001005;80001015</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001006;80001016</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001007;80001017</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001008;80001018</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物皮肤</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -729,30 +793,6 @@
   <si>
     <t>10101,10102</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001009,0.25;80001010,0.25</t>
-  </si>
-  <si>
-    <t>80001011,0.25;80001019,0.25</t>
-  </si>
-  <si>
-    <t>80001012,0.25;80001020,0.25</t>
-  </si>
-  <si>
-    <t>80001013,0.25;80001015,0.25</t>
-  </si>
-  <si>
-    <t>80001016,0.25;80001002,0.25</t>
-  </si>
-  <si>
-    <t>80001001,0.25;80001002,0.25</t>
-  </si>
-  <si>
-    <t>80001007,0.25;80001015,0.25</t>
-  </si>
-  <si>
-    <t>80001009,0.25;80001011,0.25</t>
   </si>
   <si>
     <t>SkinPro</t>
@@ -803,19 +843,166 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>精灵麋鹿</t>
+    <t>90101,90102,90103,90104</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101,100102,100103,100104</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>110101,110102,110103,110104</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>130101,130102,130103,130104</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140101,140102,140103,140104</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120101,120102,120103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,30,15,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,35,35,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,30,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001004;80001018</t>
+  </si>
+  <si>
+    <t>80001005;80001019</t>
+  </si>
+  <si>
+    <t>80001007;80001005</t>
+  </si>
+  <si>
+    <t>80001008;80001020</t>
+  </si>
+  <si>
+    <t>80001009;80001002</t>
+  </si>
+  <si>
+    <t>80001010;80001001</t>
+  </si>
+  <si>
+    <t>80001011;80001003</t>
+  </si>
+  <si>
+    <t>80001012;80001017</t>
+  </si>
+  <si>
+    <t>80001006;80001018</t>
+  </si>
+  <si>
+    <t>80001014;80002008</t>
+  </si>
+  <si>
+    <t>80001018</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001015;80001010;80002006</t>
+  </si>
+  <si>
+    <t>80001006;80002018;</t>
+  </si>
+  <si>
+    <t>80001011;80002015;</t>
+  </si>
+  <si>
+    <t>80002001;80001014;</t>
+  </si>
+  <si>
+    <t>80001002;80002001;</t>
+  </si>
+  <si>
+    <t>80001015;80002002;</t>
+  </si>
+  <si>
+    <t>80002010;80002003;</t>
+  </si>
+  <si>
+    <t>80002004;80002016;</t>
+  </si>
+  <si>
+    <t>80002009;80002013;</t>
+  </si>
+  <si>
+    <t>80001004;80002007</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001017;80001008</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001010;80001014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001002;80001013</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001009</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001012;80001004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002002;80002001;80002006;80002011;80002012;80002018;80002019;80002005</t>
+  </si>
+  <si>
+    <t>80002003;80002002;80002001;80002015;80002014;80002010;80002006;80002004</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽:精灵麋鹿</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>幽光晴晴</t>
+    <t>神兽:幽光晴晴</t>
     <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽:仙界魔龙</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>200003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1054,6 +1241,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3060,11 +3254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP21"/>
+  <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV16" sqref="AV16"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3072,7 +3266,7 @@
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
     <col min="5" max="7" width="11.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
     <col min="9" max="13" width="11.875" style="1" customWidth="1"/>
     <col min="14" max="15" width="15.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.125" style="1" customWidth="1"/>
@@ -3273,10 +3467,10 @@
         <v>30</v>
       </c>
       <c r="BH3" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="BI3" s="12" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3452,10 +3646,10 @@
         <v>109</v>
       </c>
       <c r="BH4" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="BI4" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3669,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N6" s="7">
         <v>0</v>
@@ -3681,7 +3875,7 @@
         <v>1500</v>
       </c>
       <c r="Q6" s="5">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="R6" s="5">
         <v>1000</v>
@@ -3699,13 +3893,13 @@
         <v>1000</v>
       </c>
       <c r="W6" s="5">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="X6" s="5">
         <v>1000</v>
       </c>
       <c r="Y6" s="5">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="Z6" s="5">
         <v>1500</v>
@@ -3796,22 +3990,22 @@
       </c>
       <c r="BC6" s="5"/>
       <c r="BD6" s="5">
-        <v>80000001</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="5">
         <v>70000001</v>
       </c>
       <c r="BF6" s="11" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="BG6" s="13" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="BH6" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="BI6" s="6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3846,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N7" s="7">
         <v>0</v>
@@ -3858,7 +4052,7 @@
         <v>1500</v>
       </c>
       <c r="Q7" s="5">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="R7" s="5">
         <v>1000</v>
@@ -3876,13 +4070,13 @@
         <v>1000</v>
       </c>
       <c r="W7" s="5">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="X7" s="5">
         <v>1000</v>
       </c>
       <c r="Y7" s="5">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="Z7" s="5">
         <v>1500</v>
@@ -3973,22 +4167,22 @@
       </c>
       <c r="BC7" s="5"/>
       <c r="BD7" s="5">
-        <v>80000002</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="5">
         <v>70000002</v>
       </c>
       <c r="BF7" s="5" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="BG7" s="13" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="BH7" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="BI7" s="6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4023,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N8" s="7">
         <v>0</v>
@@ -4035,7 +4229,7 @@
         <v>1500</v>
       </c>
       <c r="Q8" s="5">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="R8" s="5">
         <v>1000</v>
@@ -4053,13 +4247,13 @@
         <v>1000</v>
       </c>
       <c r="W8" s="5">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="X8" s="5">
         <v>1000</v>
       </c>
       <c r="Y8" s="5">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="Z8" s="5">
         <v>1500</v>
@@ -4150,22 +4344,22 @@
       </c>
       <c r="BC8" s="5"/>
       <c r="BD8" s="5">
-        <v>80000003</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="5">
         <v>70000001</v>
       </c>
       <c r="BF8" s="11" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="BG8" s="13" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="BH8" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="BI8" s="6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4200,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N9" s="7">
         <v>0</v>
@@ -4218,13 +4412,13 @@
         <v>1000</v>
       </c>
       <c r="S9" s="5">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T9" s="5">
         <v>1000</v>
       </c>
       <c r="U9" s="5">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="V9" s="5">
         <v>1000</v>
@@ -4327,22 +4521,22 @@
       </c>
       <c r="BC9" s="5"/>
       <c r="BD9" s="5">
-        <v>80000004</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="5">
         <v>70000001</v>
       </c>
       <c r="BF9" s="5" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="BG9" s="13" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="BH9" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="BI9" s="6" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4377,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
@@ -4395,25 +4589,25 @@
         <v>1000</v>
       </c>
       <c r="S10" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T10" s="5">
         <v>1000</v>
       </c>
       <c r="U10" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="V10" s="5">
         <v>1000</v>
       </c>
       <c r="W10" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="X10" s="5">
         <v>1000</v>
       </c>
       <c r="Y10" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="Z10" s="5">
         <v>1500</v>
@@ -4504,22 +4698,22 @@
       </c>
       <c r="BC10" s="5"/>
       <c r="BD10" s="5">
-        <v>80000005</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="5">
         <v>70000002</v>
       </c>
       <c r="BF10" s="11" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="BG10" s="13" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="BH10" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="BI10" s="6" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4554,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
@@ -4572,25 +4766,25 @@
         <v>1000</v>
       </c>
       <c r="S11" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T11" s="5">
         <v>1000</v>
       </c>
       <c r="U11" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="V11" s="5">
         <v>1000</v>
       </c>
       <c r="W11" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="X11" s="5">
         <v>1000</v>
       </c>
       <c r="Y11" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="Z11" s="5">
         <v>1500</v>
@@ -4681,22 +4875,22 @@
       </c>
       <c r="BC11" s="5"/>
       <c r="BD11" s="5">
-        <v>80000006</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="5">
         <v>70000001</v>
       </c>
-      <c r="BF11" s="5" t="s">
-        <v>128</v>
+      <c r="BF11" s="5">
+        <v>80001006</v>
       </c>
       <c r="BG11" s="13" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="BH11" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="BI11" s="6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4731,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
@@ -4761,13 +4955,13 @@
         <v>1000</v>
       </c>
       <c r="W12" s="5">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="X12" s="5">
         <v>1000</v>
       </c>
       <c r="Y12" s="5">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="Z12" s="5">
         <v>1500</v>
@@ -4858,22 +5052,22 @@
       </c>
       <c r="BC12" s="5"/>
       <c r="BD12" s="5">
-        <v>80000007</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="5">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="BF12" s="11" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="BG12" s="13" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="BH12" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="BI12" s="6" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4908,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N13" s="7">
         <v>0</v>
@@ -4926,13 +5120,13 @@
         <v>1000</v>
       </c>
       <c r="S13" s="5">
-        <v>1500</v>
+        <v>1350</v>
       </c>
       <c r="T13" s="5">
         <v>1000</v>
       </c>
       <c r="U13" s="5">
-        <v>1500</v>
+        <v>1350</v>
       </c>
       <c r="V13" s="5">
         <v>1000</v>
@@ -5035,22 +5229,22 @@
       </c>
       <c r="BC13" s="5"/>
       <c r="BD13" s="5">
-        <v>80000008</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="5">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="BF13" s="5" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="BG13" s="13" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="BH13" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="BI13" s="6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5058,7 +5252,7 @@
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E14" s="7">
         <v>1000901</v>
@@ -5079,13 +5273,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="7">
         <v>1</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
@@ -5097,7 +5291,7 @@
         <v>1500</v>
       </c>
       <c r="Q14" s="5">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="R14" s="5">
         <v>1000</v>
@@ -5109,19 +5303,19 @@
         <v>1000</v>
       </c>
       <c r="U14" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="V14" s="5">
         <v>1000</v>
       </c>
       <c r="W14" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="X14" s="5">
         <v>1000</v>
       </c>
       <c r="Y14" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="Z14" s="5">
         <v>1500</v>
@@ -5212,19 +5406,19 @@
       </c>
       <c r="BC14" s="5"/>
       <c r="BD14" s="5">
-        <v>80000008</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="5">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="BF14" s="5" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="BG14" s="13" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="BH14" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="BI14" s="6" t="s">
         <v>151</v>
@@ -5235,7 +5429,7 @@
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E15" s="7">
         <v>1001001</v>
@@ -5262,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
@@ -5292,13 +5486,13 @@
         <v>1000</v>
       </c>
       <c r="W15" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="X15" s="5">
         <v>1000</v>
       </c>
       <c r="Y15" s="5">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="Z15" s="5">
         <v>1500</v>
@@ -5389,19 +5583,19 @@
       </c>
       <c r="BC15" s="5"/>
       <c r="BD15" s="5">
-        <v>80000008</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="5">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="BF15" s="5" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="BG15" s="13" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="BH15" s="6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="BI15" s="6" t="s">
         <v>151</v>
@@ -5412,7 +5606,7 @@
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E16" s="7">
         <v>1001101</v>
@@ -5439,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -5451,7 +5645,7 @@
         <v>1500</v>
       </c>
       <c r="Q16" s="5">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="R16" s="5">
         <v>1000</v>
@@ -5469,13 +5663,13 @@
         <v>1000</v>
       </c>
       <c r="W16" s="5">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="X16" s="5">
         <v>1000</v>
       </c>
       <c r="Y16" s="5">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="Z16" s="5">
         <v>1500</v>
@@ -5566,19 +5760,19 @@
       </c>
       <c r="BC16" s="5"/>
       <c r="BD16" s="5">
-        <v>80000008</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="5">
         <v>70000002</v>
       </c>
       <c r="BF16" s="5" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="BG16" s="13" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="BH16" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="BI16" s="6" t="s">
         <v>151</v>
@@ -5589,7 +5783,7 @@
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E17" s="7">
         <v>1001201</v>
@@ -5616,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
@@ -5628,7 +5822,7 @@
         <v>1500</v>
       </c>
       <c r="Q17" s="5">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="R17" s="5">
         <v>1000</v>
@@ -5646,13 +5840,13 @@
         <v>1000</v>
       </c>
       <c r="W17" s="5">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="X17" s="5">
         <v>1000</v>
       </c>
       <c r="Y17" s="5">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="Z17" s="5">
         <v>1500</v>
@@ -5743,22 +5937,22 @@
       </c>
       <c r="BC17" s="5"/>
       <c r="BD17" s="5">
-        <v>80000008</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="5">
         <v>70000002</v>
       </c>
       <c r="BF17" s="5" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="BG17" s="13" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="BH17" s="6" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="BI17" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5766,7 +5960,7 @@
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E18" s="7">
         <v>1001301</v>
@@ -5793,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N18" s="7">
         <v>0</v>
@@ -5805,7 +5999,7 @@
         <v>1500</v>
       </c>
       <c r="Q18" s="5">
-        <v>3000</v>
+        <v>2750</v>
       </c>
       <c r="R18" s="5">
         <v>1000</v>
@@ -5823,13 +6017,13 @@
         <v>1000</v>
       </c>
       <c r="W18" s="5">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="X18" s="5">
         <v>1000</v>
       </c>
       <c r="Y18" s="5">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="Z18" s="5">
         <v>1500</v>
@@ -5920,22 +6114,22 @@
       </c>
       <c r="BC18" s="5"/>
       <c r="BD18" s="5">
-        <v>80000008</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="5">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="BF18" s="5" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="BG18" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH18" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="BH18" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="BI18" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5943,7 +6137,7 @@
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E19" s="7">
         <v>1001401</v>
@@ -5970,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N19" s="7">
         <v>0</v>
@@ -6097,19 +6291,19 @@
       </c>
       <c r="BC19" s="5"/>
       <c r="BD19" s="5">
-        <v>80000008</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="5">
         <v>70000002</v>
       </c>
       <c r="BF19" s="5" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="BG19" s="13" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="BH19" s="6" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="BI19" s="6" t="s">
         <v>151</v>
@@ -6120,7 +6314,7 @@
         <v>2000001</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E20" s="7">
         <v>2000001</v>
@@ -6135,19 +6329,19 @@
         <v>84</v>
       </c>
       <c r="I20" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="5">
         <v>1</v>
       </c>
       <c r="K20" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L20" s="7">
         <v>1</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N20" s="7">
         <v>0</v>
@@ -6156,37 +6350,37 @@
         <v>1</v>
       </c>
       <c r="P20" s="5">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q20" s="5">
         <v>3000</v>
       </c>
       <c r="R20" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="S20" s="5">
         <v>1500</v>
       </c>
       <c r="T20" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U20" s="5">
         <v>1500</v>
       </c>
       <c r="V20" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="W20" s="5">
         <v>1500</v>
       </c>
       <c r="X20" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Y20" s="5">
         <v>1500</v>
       </c>
       <c r="Z20" s="5">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="AA20" s="5">
         <v>3000</v>
@@ -6195,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="AC20" s="5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD20" s="5">
         <v>2756</v>
@@ -6274,22 +6468,22 @@
       </c>
       <c r="BC20" s="5"/>
       <c r="BD20" s="5">
-        <v>80000008</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="5">
-        <v>70000002</v>
+        <v>70000001</v>
       </c>
       <c r="BF20" s="5" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="BG20" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="BH20" s="6" t="s">
-        <v>139</v>
+        <v>184</v>
+      </c>
+      <c r="BH20" s="6">
+        <v>200001</v>
       </c>
       <c r="BI20" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6297,7 +6491,7 @@
         <v>2000002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="E21" s="7">
         <v>2000002</v>
@@ -6312,19 +6506,19 @@
         <v>84</v>
       </c>
       <c r="I21" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="5">
         <v>1</v>
       </c>
       <c r="K21" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L21" s="7">
         <v>1</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="N21" s="7">
         <v>0</v>
@@ -6333,37 +6527,37 @@
         <v>1</v>
       </c>
       <c r="P21" s="5">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q21" s="5">
         <v>3000</v>
       </c>
       <c r="R21" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="S21" s="5">
         <v>1500</v>
       </c>
       <c r="T21" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="U21" s="5">
         <v>1500</v>
       </c>
       <c r="V21" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="W21" s="5">
         <v>1500</v>
       </c>
       <c r="X21" s="5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Y21" s="5">
         <v>1500</v>
       </c>
       <c r="Z21" s="5">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="AA21" s="5">
         <v>3000</v>
@@ -6372,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="AC21" s="5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD21" s="5">
         <v>2756</v>
@@ -6451,22 +6645,199 @@
       </c>
       <c r="BC21" s="5"/>
       <c r="BD21" s="5">
-        <v>80000008</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="5">
         <v>70000002</v>
       </c>
       <c r="BF21" s="5" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="BG21" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="BH21" s="6" t="s">
-        <v>139</v>
+        <v>184</v>
+      </c>
+      <c r="BH21" s="6">
+        <v>200002</v>
       </c>
       <c r="BI21" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
+      <c r="C22" s="7">
+        <v>2000003</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2000003</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2000003</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7">
+        <v>5</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R22" s="5">
+        <v>1500</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T22" s="5">
+        <v>1500</v>
+      </c>
+      <c r="U22" s="5">
+        <v>1500</v>
+      </c>
+      <c r="V22" s="5">
+        <v>1500</v>
+      </c>
+      <c r="W22" s="5">
+        <v>1500</v>
+      </c>
+      <c r="X22" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>2756</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>475</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>475</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>34</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>34</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="AL22" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AM22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AS22" s="5">
+        <v>132</v>
+      </c>
+      <c r="AT22" s="5">
+        <v>25</v>
+      </c>
+      <c r="AU22" s="5">
+        <v>25</v>
+      </c>
+      <c r="AV22" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AW22" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="AX22" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY22" s="5">
+        <v>5</v>
+      </c>
+      <c r="AZ22" s="5">
+        <v>15</v>
+      </c>
+      <c r="BA22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="BB22" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="5">
+        <v>70000002</v>
+      </c>
+      <c r="BF22" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG22" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH22" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="BI22" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885759F8-4731-4344-A987-EF740DD251E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7643EAD-B641-4181-AEAA-D2ACA1CC0B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -3258,7 +3258,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7643EAD-B641-4181-AEAA-D2ACA1CC0B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7C9D55-82CA-4806-8F6C-B53AE7CC54FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -924,30 +924,6 @@
     <t>80001015;80001010;80002006</t>
   </si>
   <si>
-    <t>80001006;80002018;</t>
-  </si>
-  <si>
-    <t>80001011;80002015;</t>
-  </si>
-  <si>
-    <t>80002001;80001014;</t>
-  </si>
-  <si>
-    <t>80001002;80002001;</t>
-  </si>
-  <si>
-    <t>80001015;80002002;</t>
-  </si>
-  <si>
-    <t>80002010;80002003;</t>
-  </si>
-  <si>
-    <t>80002004;80002016;</t>
-  </si>
-  <si>
-    <t>80002009;80002013;</t>
-  </si>
-  <si>
     <t>80001004;80002007</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -995,6 +971,38 @@
   </si>
   <si>
     <t>200003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001006;80002018</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001011;80002015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002001;80001014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001002;80002001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001015;80002002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002010;80002003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002004;80002016</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002009;80002013</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3256,9 +3264,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="BG9" sqref="BG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3999,7 +4007,7 @@
         <v>166</v>
       </c>
       <c r="BG6" s="13" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="BH6" s="6" t="s">
         <v>132</v>
@@ -4173,10 +4181,10 @@
         <v>70000002</v>
       </c>
       <c r="BF7" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="BG7" s="13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="BH7" s="6" t="s">
         <v>125</v>
@@ -4353,7 +4361,7 @@
         <v>165</v>
       </c>
       <c r="BG8" s="13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="BH8" s="6" t="s">
         <v>126</v>
@@ -4530,7 +4538,7 @@
         <v>155</v>
       </c>
       <c r="BG9" s="13" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="BH9" s="6" t="s">
         <v>127</v>
@@ -4707,7 +4715,7 @@
         <v>156</v>
       </c>
       <c r="BG10" s="13" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="BH10" s="6" t="s">
         <v>128</v>
@@ -5061,7 +5069,7 @@
         <v>157</v>
       </c>
       <c r="BG12" s="13" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="BH12" s="6" t="s">
         <v>130</v>
@@ -5238,7 +5246,7 @@
         <v>158</v>
       </c>
       <c r="BG13" s="13" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="BH13" s="6" t="s">
         <v>131</v>
@@ -5415,7 +5423,7 @@
         <v>159</v>
       </c>
       <c r="BG14" s="13" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="BH14" s="6" t="s">
         <v>145</v>
@@ -5592,7 +5600,7 @@
         <v>160</v>
       </c>
       <c r="BG15" s="13" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="BH15" s="6" t="s">
         <v>146</v>
@@ -5769,7 +5777,7 @@
         <v>161</v>
       </c>
       <c r="BG16" s="13" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="BH16" s="6" t="s">
         <v>147</v>
@@ -5946,7 +5954,7 @@
         <v>162</v>
       </c>
       <c r="BG17" s="13" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="BH17" s="6" t="s">
         <v>150</v>
@@ -6123,7 +6131,7 @@
         <v>163</v>
       </c>
       <c r="BG18" s="13" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="BH18" s="6" t="s">
         <v>148</v>
@@ -6300,7 +6308,7 @@
         <v>164</v>
       </c>
       <c r="BG19" s="13" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="BH19" s="6" t="s">
         <v>149</v>
@@ -6314,7 +6322,7 @@
         <v>2000001</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E20" s="7">
         <v>2000001</v>
@@ -6474,10 +6482,10 @@
         <v>70000001</v>
       </c>
       <c r="BF20" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="BG20" s="13" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="BH20" s="6">
         <v>200001</v>
@@ -6491,7 +6499,7 @@
         <v>2000002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E21" s="7">
         <v>2000002</v>
@@ -6651,10 +6659,10 @@
         <v>70000002</v>
       </c>
       <c r="BF21" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BG21" s="13" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="BH21" s="6">
         <v>200002</v>
@@ -6668,7 +6676,7 @@
         <v>2000003</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E22" s="7">
         <v>2000003</v>
@@ -6828,13 +6836,13 @@
         <v>70000002</v>
       </c>
       <c r="BF22" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="BG22" s="13" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="BH22" s="6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="BI22" s="6" t="s">
         <v>154</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7C9D55-82CA-4806-8F6C-B53AE7CC54FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3E74BD-F5C7-42C4-8427-BA6A21B59D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28995" yWindow="465" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="190">
   <si>
     <t>宠物名称</t>
   </si>
@@ -851,15 +851,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>110101,110102,110103,110104</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>130101,130102,130103,130104</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>140101,140102,140103,140104</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1003,6 +995,18 @@
   </si>
   <si>
     <t>80002009;80002013</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>110101,110102,110103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,35,15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>140101,140102,140103</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3264,9 +3268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BB1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG9" sqref="BG9"/>
+      <selection pane="bottomLeft" activeCell="BI20" sqref="BI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -4004,10 +4008,10 @@
         <v>70000001</v>
       </c>
       <c r="BF6" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BG6" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BH6" s="6" t="s">
         <v>132</v>
@@ -4181,10 +4185,10 @@
         <v>70000002</v>
       </c>
       <c r="BF7" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="BG7" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="BH7" s="6" t="s">
         <v>125</v>
@@ -4358,10 +4362,10 @@
         <v>70000001</v>
       </c>
       <c r="BF8" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="BG8" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="BH8" s="6" t="s">
         <v>126</v>
@@ -4535,10 +4539,10 @@
         <v>70000001</v>
       </c>
       <c r="BF9" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BG9" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BH9" s="6" t="s">
         <v>127</v>
@@ -4712,10 +4716,10 @@
         <v>70000002</v>
       </c>
       <c r="BF10" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BG10" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BH10" s="6" t="s">
         <v>128</v>
@@ -4892,7 +4896,7 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BH11" s="6" t="s">
         <v>129</v>
@@ -5066,10 +5070,10 @@
         <v>70000001</v>
       </c>
       <c r="BF12" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BG12" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BH12" s="6" t="s">
         <v>130</v>
@@ -5243,10 +5247,10 @@
         <v>70000001</v>
       </c>
       <c r="BF13" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BG13" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BH13" s="6" t="s">
         <v>131</v>
@@ -5420,16 +5424,16 @@
         <v>70000001</v>
       </c>
       <c r="BF14" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BG14" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BH14" s="6" t="s">
         <v>145</v>
       </c>
       <c r="BI14" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5597,16 +5601,16 @@
         <v>70000001</v>
       </c>
       <c r="BF15" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BG15" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BH15" s="6" t="s">
         <v>146</v>
       </c>
       <c r="BI15" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5774,16 +5778,16 @@
         <v>70000002</v>
       </c>
       <c r="BF16" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BG16" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BH16" s="6" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="BI16" s="6" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5951,16 +5955,16 @@
         <v>70000002</v>
       </c>
       <c r="BF17" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BG17" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BH17" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BI17" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6128,16 +6132,16 @@
         <v>70000001</v>
       </c>
       <c r="BF18" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BG18" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BH18" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BI18" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6305,13 +6309,13 @@
         <v>70000002</v>
       </c>
       <c r="BF19" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="BG19" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="BH19" s="6" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="BI19" s="6" t="s">
         <v>151</v>
@@ -6322,7 +6326,7 @@
         <v>2000001</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E20" s="7">
         <v>2000001</v>
@@ -6482,16 +6486,16 @@
         <v>70000001</v>
       </c>
       <c r="BF20" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG20" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="BG20" s="13" t="s">
-        <v>176</v>
       </c>
       <c r="BH20" s="6">
         <v>200001</v>
       </c>
       <c r="BI20" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6499,7 +6503,7 @@
         <v>2000002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E21" s="7">
         <v>2000002</v>
@@ -6659,16 +6663,16 @@
         <v>70000002</v>
       </c>
       <c r="BF21" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BG21" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BH21" s="6">
         <v>200002</v>
       </c>
       <c r="BI21" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6676,7 +6680,7 @@
         <v>2000003</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E22" s="7">
         <v>2000003</v>
@@ -6836,16 +6840,16 @@
         <v>70000002</v>
       </c>
       <c r="BF22" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG22" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="BG22" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="BH22" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BI22" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3E74BD-F5C7-42C4-8427-BA6A21B59D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8E767-ACA7-4F86-9441-A008CCD67C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28995" yWindow="465" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -3268,9 +3268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI20" sqref="BI20"/>
+      <selection pane="bottomLeft" activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3926,19 +3926,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD6" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE6" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF6" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG6" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH6" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI6" s="5">
         <v>0.05</v>
@@ -4103,19 +4103,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD7" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE7" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF7" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG7" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH7" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI7" s="5">
         <v>0.05</v>
@@ -4280,19 +4280,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD8" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE8" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF8" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG8" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH8" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI8" s="5">
         <v>0.05</v>
@@ -4457,19 +4457,19 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AD9" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE9" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF9" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG9" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH9" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI9" s="5">
         <v>0.05</v>
@@ -4634,19 +4634,19 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AD10" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE10" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF10" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG10" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH10" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI10" s="5">
         <v>0.05</v>
@@ -4811,19 +4811,19 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AD11" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE11" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF11" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG11" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH11" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI11" s="5">
         <v>0.05</v>
@@ -4988,19 +4988,19 @@
         <v>1.2</v>
       </c>
       <c r="AD12" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE12" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF12" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG12" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH12" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI12" s="5">
         <v>0.05</v>
@@ -5165,19 +5165,19 @@
         <v>1.2</v>
       </c>
       <c r="AD13" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE13" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF13" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG13" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH13" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI13" s="5">
         <v>0.05</v>
@@ -5342,19 +5342,19 @@
         <v>1.2</v>
       </c>
       <c r="AD14" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE14" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF14" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG14" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH14" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI14" s="5">
         <v>0.05</v>
@@ -5519,19 +5519,19 @@
         <v>1.2</v>
       </c>
       <c r="AD15" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE15" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF15" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG15" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH15" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI15" s="5">
         <v>0.05</v>
@@ -5696,19 +5696,19 @@
         <v>1.2</v>
       </c>
       <c r="AD16" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE16" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF16" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG16" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH16" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI16" s="5">
         <v>0.05</v>
@@ -5873,19 +5873,19 @@
         <v>1.2</v>
       </c>
       <c r="AD17" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE17" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF17" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG17" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH17" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI17" s="5">
         <v>0.05</v>
@@ -6050,19 +6050,19 @@
         <v>1.2</v>
       </c>
       <c r="AD18" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE18" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF18" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG18" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH18" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI18" s="5">
         <v>0.05</v>
@@ -6227,19 +6227,19 @@
         <v>1.2</v>
       </c>
       <c r="AD19" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE19" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF19" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG19" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH19" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI19" s="5">
         <v>0.05</v>
@@ -6404,19 +6404,19 @@
         <v>1.5</v>
       </c>
       <c r="AD20" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE20" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF20" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG20" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH20" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI20" s="5">
         <v>0.05</v>
@@ -6581,19 +6581,19 @@
         <v>1.5</v>
       </c>
       <c r="AD21" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE21" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF21" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG21" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH21" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI21" s="5">
         <v>0.05</v>
@@ -6758,19 +6758,19 @@
         <v>1.5</v>
       </c>
       <c r="AD22" s="5">
-        <v>2756</v>
+        <v>10000</v>
       </c>
       <c r="AE22" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AF22" s="5">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="AG22" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AH22" s="5">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AI22" s="5">
         <v>0.05</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8E767-ACA7-4F86-9441-A008CCD67C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAA4CF2-4100-4EE2-A727-4C52BEA4732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3268,9 +3268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE16" sqref="AE16"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAA4CF2-4100-4EE2-A727-4C52BEA4732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58164504-E9D2-41B3-8E39-7C7B52D5473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,6 +304,59 @@
         </r>
       </text>
     </comment>
+    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{440EF0FD-E271-47B4-AA0A-39092E23F84F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:
+当与玩家超过这个范围就返回</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{13C5ABE5-235F-443F-B5FB-B729C9B031A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{792880FD-2214-4B80-B674-84196B8E4119}">
       <text>
         <r>
@@ -409,13 +462,7 @@
     <t>攻击距离</t>
   </si>
   <si>
-    <t>监视范围</t>
-  </si>
-  <si>
     <t>追击范围</t>
-  </si>
-  <si>
-    <t>攻击范围</t>
   </si>
   <si>
     <t>抓捕狂暴概率</t>
@@ -1007,6 +1054,14 @@
   </si>
   <si>
     <t>140101,140102,140103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>监视范围(未用)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围(未用)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1014,7 +1069,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1258,6 +1313,13 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1944,7 +2006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,6 +2039,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3268,9 +3339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AU1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="BA13" sqref="BA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3287,7 +3358,7 @@
     <col min="26" max="27" width="18" style="1" customWidth="1"/>
     <col min="28" max="29" width="20" style="1" customWidth="1"/>
     <col min="30" max="49" width="15.625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="11.375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="10.375" style="1" customWidth="1"/>
     <col min="52" max="53" width="11.375" style="1" customWidth="1"/>
     <col min="54" max="54" width="10.375" style="1" customWidth="1"/>
@@ -3308,7 +3379,7 @@
     </row>
     <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -3317,28 +3388,28 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>2</v>
@@ -3395,7 +3466,7 @@
         <v>11</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>12</v>
@@ -3434,413 +3505,413 @@
         <v>23</v>
       </c>
       <c r="AS3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AV3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AX3" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AZ3" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BG3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="BC3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="BH3" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BI3" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="BE4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BC4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BG4" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="BH4" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BI4" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="AF5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="AX5" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="AZ5" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BC5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BD5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BH5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3848,7 +3919,7 @@
         <v>1000101</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" s="7">
         <v>1000101</v>
@@ -3860,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -3875,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N6" s="7">
         <v>0</v>
@@ -3985,14 +4056,14 @@
       <c r="AW6" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX6" s="5">
+      <c r="AX6" s="16">
         <v>3</v>
       </c>
       <c r="AY6" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ6" s="16">
+        <v>10</v>
       </c>
       <c r="BA6" s="5">
         <v>0.1</v>
@@ -4008,16 +4079,16 @@
         <v>70000001</v>
       </c>
       <c r="BF6" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="BG6" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BH6" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BI6" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4025,7 +4096,7 @@
         <v>1000201</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E7" s="7">
         <v>1000201</v>
@@ -4037,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -4052,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N7" s="7">
         <v>0</v>
@@ -4162,14 +4233,14 @@
       <c r="AW7" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX7" s="5">
+      <c r="AX7" s="16">
         <v>3</v>
       </c>
       <c r="AY7" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ7" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>10</v>
       </c>
       <c r="BA7" s="5">
         <v>0.1</v>
@@ -4185,16 +4256,16 @@
         <v>70000002</v>
       </c>
       <c r="BF7" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="BG7" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BH7" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BI7" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4202,7 +4273,7 @@
         <v>1000301</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8" s="7">
         <v>1000301</v>
@@ -4214,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -4229,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N8" s="7">
         <v>0</v>
@@ -4339,14 +4410,14 @@
       <c r="AW8" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX8" s="5">
+      <c r="AX8" s="16">
         <v>3</v>
       </c>
       <c r="AY8" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ8" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ8" s="16">
+        <v>10</v>
       </c>
       <c r="BA8" s="5">
         <v>0.1</v>
@@ -4362,16 +4433,16 @@
         <v>70000001</v>
       </c>
       <c r="BF8" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BG8" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="BH8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BI8" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4379,7 +4450,7 @@
         <v>1000401</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" s="7">
         <v>1000401</v>
@@ -4391,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -4406,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N9" s="7">
         <v>0</v>
@@ -4516,14 +4587,14 @@
       <c r="AW9" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX9" s="5">
+      <c r="AX9" s="16">
         <v>3</v>
       </c>
       <c r="AY9" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ9" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ9" s="16">
+        <v>10</v>
       </c>
       <c r="BA9" s="5">
         <v>0.1</v>
@@ -4539,16 +4610,16 @@
         <v>70000001</v>
       </c>
       <c r="BF9" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="BG9" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BH9" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BI9" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4556,7 +4627,7 @@
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10" s="7">
         <v>1000501</v>
@@ -4568,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -4583,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
@@ -4693,14 +4764,14 @@
       <c r="AW10" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX10" s="5">
+      <c r="AX10" s="16">
         <v>3</v>
       </c>
       <c r="AY10" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ10" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ10" s="16">
+        <v>10</v>
       </c>
       <c r="BA10" s="5">
         <v>0.1</v>
@@ -4716,16 +4787,16 @@
         <v>70000002</v>
       </c>
       <c r="BF10" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BG10" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BH10" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BI10" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4733,7 +4804,7 @@
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" s="7">
         <v>1000601</v>
@@ -4745,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -4760,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
@@ -4870,14 +4941,14 @@
       <c r="AW11" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX11" s="5">
+      <c r="AX11" s="16">
         <v>3</v>
       </c>
       <c r="AY11" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ11" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ11" s="16">
+        <v>10</v>
       </c>
       <c r="BA11" s="5">
         <v>0.1</v>
@@ -4896,13 +4967,13 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="BH11" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BI11" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4910,7 +4981,7 @@
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12" s="7">
         <v>1000701</v>
@@ -4922,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -4937,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
@@ -5047,14 +5118,14 @@
       <c r="AW12" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX12" s="5">
+      <c r="AX12" s="16">
         <v>3</v>
       </c>
       <c r="AY12" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ12" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ12" s="16">
+        <v>10</v>
       </c>
       <c r="BA12" s="5">
         <v>0.1</v>
@@ -5070,16 +5141,16 @@
         <v>70000001</v>
       </c>
       <c r="BF12" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BG12" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BH12" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="BI12" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5087,7 +5158,7 @@
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E13" s="7">
         <v>1000801</v>
@@ -5099,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
@@ -5114,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N13" s="7">
         <v>0</v>
@@ -5224,14 +5295,14 @@
       <c r="AW13" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX13" s="5">
+      <c r="AX13" s="16">
         <v>3</v>
       </c>
       <c r="AY13" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ13" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ13" s="16">
+        <v>10</v>
       </c>
       <c r="BA13" s="5">
         <v>0.1</v>
@@ -5247,16 +5318,16 @@
         <v>70000001</v>
       </c>
       <c r="BF13" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BG13" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BH13" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="BI13" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5264,7 +5335,7 @@
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14" s="7">
         <v>1000901</v>
@@ -5276,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
@@ -5291,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
@@ -5401,14 +5472,14 @@
       <c r="AW14" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="AX14" s="16">
         <v>3</v>
       </c>
       <c r="AY14" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ14" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ14" s="16">
+        <v>10</v>
       </c>
       <c r="BA14" s="5">
         <v>0.1</v>
@@ -5424,16 +5495,16 @@
         <v>70000001</v>
       </c>
       <c r="BF14" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BG14" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BH14" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BI14" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5441,7 +5512,7 @@
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15" s="7">
         <v>1001001</v>
@@ -5453,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -5468,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
@@ -5578,14 +5649,14 @@
       <c r="AW15" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX15" s="5">
+      <c r="AX15" s="16">
         <v>3</v>
       </c>
       <c r="AY15" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ15" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ15" s="16">
+        <v>10</v>
       </c>
       <c r="BA15" s="5">
         <v>0.1</v>
@@ -5601,16 +5672,16 @@
         <v>70000001</v>
       </c>
       <c r="BF15" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BG15" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BH15" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BI15" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5618,7 +5689,7 @@
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E16" s="7">
         <v>1001101</v>
@@ -5630,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I16" s="5">
         <v>0</v>
@@ -5645,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -5755,14 +5826,14 @@
       <c r="AW16" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX16" s="5">
+      <c r="AX16" s="16">
         <v>3</v>
       </c>
       <c r="AY16" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ16" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ16" s="16">
+        <v>10</v>
       </c>
       <c r="BA16" s="5">
         <v>0.1</v>
@@ -5778,16 +5849,16 @@
         <v>70000002</v>
       </c>
       <c r="BF16" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BG16" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BH16" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BI16" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5795,7 +5866,7 @@
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E17" s="7">
         <v>1001201</v>
@@ -5807,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I17" s="5">
         <v>0</v>
@@ -5822,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
@@ -5932,14 +6003,14 @@
       <c r="AW17" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX17" s="5">
+      <c r="AX17" s="16">
         <v>3</v>
       </c>
       <c r="AY17" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ17" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ17" s="16">
+        <v>10</v>
       </c>
       <c r="BA17" s="5">
         <v>0.1</v>
@@ -5955,16 +6026,16 @@
         <v>70000002</v>
       </c>
       <c r="BF17" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BG17" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BH17" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BI17" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5972,7 +6043,7 @@
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E18" s="7">
         <v>1001301</v>
@@ -5984,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -5999,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N18" s="7">
         <v>0</v>
@@ -6109,14 +6180,14 @@
       <c r="AW18" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX18" s="5">
+      <c r="AX18" s="16">
         <v>3</v>
       </c>
       <c r="AY18" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ18" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ18" s="16">
+        <v>10</v>
       </c>
       <c r="BA18" s="5">
         <v>0.1</v>
@@ -6132,16 +6203,16 @@
         <v>70000001</v>
       </c>
       <c r="BF18" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BG18" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BH18" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BI18" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6149,7 +6220,7 @@
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" s="7">
         <v>1001401</v>
@@ -6161,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I19" s="5">
         <v>0</v>
@@ -6176,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N19" s="7">
         <v>0</v>
@@ -6286,14 +6357,14 @@
       <c r="AW19" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX19" s="5">
+      <c r="AX19" s="16">
         <v>3</v>
       </c>
       <c r="AY19" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ19" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ19" s="16">
+        <v>10</v>
       </c>
       <c r="BA19" s="5">
         <v>0.1</v>
@@ -6309,16 +6380,16 @@
         <v>70000002</v>
       </c>
       <c r="BF19" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BG19" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BH19" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="BI19" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6326,7 +6397,7 @@
         <v>2000001</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E20" s="7">
         <v>2000001</v>
@@ -6338,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I20" s="5">
         <v>2</v>
@@ -6353,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N20" s="7">
         <v>0</v>
@@ -6463,14 +6534,14 @@
       <c r="AW20" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX20" s="5">
+      <c r="AX20" s="16">
         <v>3</v>
       </c>
       <c r="AY20" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ20" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ20" s="16">
+        <v>10</v>
       </c>
       <c r="BA20" s="5">
         <v>0.1</v>
@@ -6486,16 +6557,16 @@
         <v>70000001</v>
       </c>
       <c r="BF20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG20" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="BG20" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="BH20" s="6">
         <v>200001</v>
       </c>
       <c r="BI20" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6503,7 +6574,7 @@
         <v>2000002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E21" s="7">
         <v>2000002</v>
@@ -6515,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I21" s="5">
         <v>2</v>
@@ -6530,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N21" s="7">
         <v>0</v>
@@ -6640,14 +6711,14 @@
       <c r="AW21" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX21" s="5">
+      <c r="AX21" s="16">
         <v>3</v>
       </c>
       <c r="AY21" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ21" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ21" s="16">
+        <v>10</v>
       </c>
       <c r="BA21" s="5">
         <v>0.1</v>
@@ -6663,16 +6734,16 @@
         <v>70000002</v>
       </c>
       <c r="BF21" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="BG21" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="BH21" s="6">
         <v>200002</v>
       </c>
       <c r="BI21" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6680,7 +6751,7 @@
         <v>2000003</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E22" s="7">
         <v>2000003</v>
@@ -6692,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I22" s="5">
         <v>2</v>
@@ -6707,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N22" s="7">
         <v>0</v>
@@ -6817,14 +6888,14 @@
       <c r="AW22" s="5">
         <v>7.5</v>
       </c>
-      <c r="AX22" s="5">
+      <c r="AX22" s="16">
         <v>3</v>
       </c>
       <c r="AY22" s="5">
-        <v>5</v>
-      </c>
-      <c r="AZ22" s="5">
         <v>15</v>
+      </c>
+      <c r="AZ22" s="16">
+        <v>10</v>
       </c>
       <c r="BA22" s="5">
         <v>0.1</v>
@@ -6840,16 +6911,16 @@
         <v>70000002</v>
       </c>
       <c r="BF22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG22" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="BG22" s="13" t="s">
-        <v>174</v>
-      </c>
       <c r="BH22" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BI22" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58164504-E9D2-41B3-8E39-7C7B52D5473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344BD37B-D21D-49A4-9577-3B6E58DA6F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -3339,9 +3339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BA13" sqref="BA13"/>
+      <selection pane="bottomLeft" activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3997,7 +3997,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD6" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE6" s="5">
         <v>1000</v>
@@ -4174,7 +4174,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD7" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE7" s="5">
         <v>1000</v>
@@ -4351,7 +4351,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD8" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE8" s="5">
         <v>1000</v>
@@ -4528,7 +4528,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AD9" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE9" s="5">
         <v>1000</v>
@@ -4705,7 +4705,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AD10" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE10" s="5">
         <v>1000</v>
@@ -4882,7 +4882,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AD11" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE11" s="5">
         <v>1000</v>
@@ -5059,7 +5059,7 @@
         <v>1.2</v>
       </c>
       <c r="AD12" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE12" s="5">
         <v>1000</v>
@@ -5236,7 +5236,7 @@
         <v>1.2</v>
       </c>
       <c r="AD13" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE13" s="5">
         <v>1000</v>
@@ -5413,7 +5413,7 @@
         <v>1.2</v>
       </c>
       <c r="AD14" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE14" s="5">
         <v>1000</v>
@@ -5590,7 +5590,7 @@
         <v>1.2</v>
       </c>
       <c r="AD15" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE15" s="5">
         <v>1000</v>
@@ -5767,7 +5767,7 @@
         <v>1.2</v>
       </c>
       <c r="AD16" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE16" s="5">
         <v>1000</v>
@@ -5944,7 +5944,7 @@
         <v>1.2</v>
       </c>
       <c r="AD17" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE17" s="5">
         <v>1000</v>
@@ -6121,7 +6121,7 @@
         <v>1.2</v>
       </c>
       <c r="AD18" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE18" s="5">
         <v>1000</v>
@@ -6298,7 +6298,7 @@
         <v>1.2</v>
       </c>
       <c r="AD19" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE19" s="5">
         <v>1000</v>
@@ -6475,7 +6475,7 @@
         <v>1.5</v>
       </c>
       <c r="AD20" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE20" s="5">
         <v>1000</v>
@@ -6652,7 +6652,7 @@
         <v>1.5</v>
       </c>
       <c r="AD21" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE21" s="5">
         <v>1000</v>
@@ -6829,7 +6829,7 @@
         <v>1.5</v>
       </c>
       <c r="AD22" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AE22" s="5">
         <v>1000</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,34 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43968C60-BACD-4F9B-9F70-DEB57FE4328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13665"/>
+    <workbookView xWindow="29805" yWindow="975" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -36,6 +52,132 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>用于宠物界面展示的位置</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">在摄像机前修正位置
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：普通
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：变异
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：神兽</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>51Gamer_D01:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,138 +187,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>用于宠物界面展示的位置</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">在摄像机前修正位置
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：普通
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：变异
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：神兽</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>51Gamer_D01:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -186,7 +211,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -196,6 +221,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -206,7 +232,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0</t>
         </r>
@@ -215,6 +241,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -225,7 +252,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -234,6 +261,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -244,7 +272,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -253,6 +281,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -263,7 +292,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -272,19 +301,21 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0">
+    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -295,6 +326,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -303,6 +335,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -310,13 +343,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0">
+    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -325,6 +359,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -334,19 +369,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1">
+    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -355,6 +392,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -364,6 +402,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -375,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="185">
   <si>
     <t>Id</t>
   </si>
@@ -935,14 +974,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -953,6 +986,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -960,185 +994,82 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1165,187 +1096,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,7 +1173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1447,35 +1264,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1490,379 +1278,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1903,118 +1484,71 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="58">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="21"/>
-    <cellStyle name="标题" xfId="22" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="25"/>
-    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
-    <cellStyle name="输出" xfId="30" builtinId="21"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
-    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="37"/>
-    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
-    <cellStyle name="汇总" xfId="40" builtinId="25"/>
-    <cellStyle name="好" xfId="41" builtinId="26"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
-    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
-    <cellStyle name="常规 2 3 2 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
-    <cellStyle name="常规 3" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
-    <cellStyle name="常规 4" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
-    <cellStyle name="常规 2" xfId="92"/>
-    <cellStyle name="常规 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3" xfId="94"/>
-    <cellStyle name="常规 2 3 2" xfId="95"/>
-    <cellStyle name="常规 2 3 2 2" xfId="96"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
-    <cellStyle name="常规 2 3 3" xfId="98"/>
-    <cellStyle name="常规 2 3 3 2" xfId="99"/>
-    <cellStyle name="常规 2 3 4" xfId="100"/>
-    <cellStyle name="常规 5" xfId="101"/>
-    <cellStyle name="常规 5 3" xfId="102"/>
-    <cellStyle name="注释 2" xfId="103"/>
-    <cellStyle name="注释 2 2" xfId="104"/>
-    <cellStyle name="注释 2 2 2" xfId="105"/>
+    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -2084,6 +1618,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3152,18 +2694,17 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:BI22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="AL18" sqref="AL18"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3192,13 +2733,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
+    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="4:4">
+    <row r="2" spans="3:61" ht="13.5" customHeight="1">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:61">
+    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3377,7 +2918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:61">
+    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3556,7 +3097,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:61">
+    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3735,7 +3276,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:61">
+    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3815,7 +3356,7 @@
         <v>0.9</v>
       </c>
       <c r="AC6" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD6" s="8">
         <v>5000</v>
@@ -3912,7 +3453,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:61">
+    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
@@ -3992,7 +3533,7 @@
         <v>0.9</v>
       </c>
       <c r="AC7" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD7" s="8">
         <v>5000</v>
@@ -4089,7 +3630,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:61">
+    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
@@ -4169,7 +3710,7 @@
         <v>0.9</v>
       </c>
       <c r="AC8" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD8" s="8">
         <v>5000</v>
@@ -4266,7 +3807,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:61">
+    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
@@ -4346,7 +3887,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -4443,7 +3984,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:61">
+    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
@@ -4523,7 +4064,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4620,7 +4161,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:61">
+    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
@@ -4700,7 +4241,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4797,7 +4338,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:61">
+    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
@@ -4974,7 +4515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:61">
+    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
@@ -5151,7 +4692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:61">
+    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
@@ -5328,7 +4869,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:61">
+    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
@@ -5505,7 +5046,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:61">
+    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
@@ -5682,7 +5223,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:61">
+    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
@@ -5859,7 +5400,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:61">
+    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
@@ -6036,7 +5577,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:61">
+    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
@@ -6213,7 +5754,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:61">
+    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
@@ -6390,7 +5931,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:61">
+    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
@@ -6567,7 +6108,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:61">
+    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
@@ -6745,8 +6286,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,50 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43968C60-BACD-4F9B-9F70-DEB57FE4328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29805" yWindow="975" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="13665"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -52,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -61,7 +45,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用于宠物界面展示的位置</t>
@@ -70,7 +53,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -78,7 +61,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">在摄像机前修正位置
@@ -86,14 +68,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -101,7 +83,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -110,7 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -118,7 +100,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：普通
@@ -128,7 +109,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -136,7 +117,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：变异
@@ -146,7 +126,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -154,21 +134,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：神兽</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -177,7 +155,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -187,21 +164,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -211,7 +186,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -221,7 +196,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -232,7 +206,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -241,7 +215,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -252,7 +225,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -261,7 +234,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -272,7 +244,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -281,7 +253,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -292,7 +263,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -301,21 +272,19 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AY3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -326,7 +295,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -335,7 +303,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -343,14 +310,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AZ3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -359,7 +325,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -369,21 +334,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="BF3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -392,7 +355,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -402,7 +364,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -414,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
   <si>
     <t>Id</t>
   </si>
@@ -806,7 +767,7 @@
     <t>80001004;80001018</t>
   </si>
   <si>
-    <t>80001004;80002007</t>
+    <t>80001006;80002007</t>
   </si>
   <si>
     <t>40101,40102,40103,40104</t>
@@ -974,8 +935,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -986,7 +953,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -994,82 +960,192 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,73 +1172,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,8 +1260,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1265,6 +1527,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1278,172 +1579,360 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1484,71 +1973,118 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+  <cellStyles count="106">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="常规 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8"/>
+    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="常规 5 2" xfId="21"/>
+    <cellStyle name="标题" xfId="22" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
+    <cellStyle name="常规 5 2 2" xfId="25"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
+    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
+    <cellStyle name="注释 2 3" xfId="37"/>
+    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
+    <cellStyle name="汇总" xfId="40" builtinId="25"/>
+    <cellStyle name="好" xfId="41" builtinId="26"/>
+    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
+    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
+    <cellStyle name="常规 2 3 2 3" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
+    <cellStyle name="常规 3" xfId="66"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
+    <cellStyle name="常规 4" xfId="68"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
+    <cellStyle name="常规 2" xfId="92"/>
+    <cellStyle name="常规 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3" xfId="94"/>
+    <cellStyle name="常规 2 3 2" xfId="95"/>
+    <cellStyle name="常规 2 3 2 2" xfId="96"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
+    <cellStyle name="常规 2 3 3" xfId="98"/>
+    <cellStyle name="常规 2 3 3 2" xfId="99"/>
+    <cellStyle name="常规 2 3 4" xfId="100"/>
+    <cellStyle name="常规 5" xfId="101"/>
+    <cellStyle name="常规 5 3" xfId="102"/>
+    <cellStyle name="注释 2" xfId="103"/>
+    <cellStyle name="注释 2 2" xfId="104"/>
+    <cellStyle name="注释 2 2 2" xfId="105"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -1618,14 +2154,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2694,17 +3222,18 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C1:BI22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BC1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="BG10" sqref="BG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2733,13 +3262,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="3:61" ht="13.5" customHeight="1">
+    <row r="2" customHeight="1" spans="4:4">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="3" ht="20.1" customHeight="1" spans="3:61">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2918,7 +3447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="4" ht="20.1" customHeight="1" spans="3:61">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3097,7 +3626,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="5" ht="20.1" customHeight="1" spans="3:61">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3276,7 +3805,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="6" ht="20.1" customHeight="1" spans="3:61">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3356,7 +3885,7 @@
         <v>0.9</v>
       </c>
       <c r="AC6" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD6" s="8">
         <v>5000</v>
@@ -3453,7 +3982,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="7" ht="20.1" customHeight="1" spans="3:61">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
@@ -3533,7 +4062,7 @@
         <v>0.9</v>
       </c>
       <c r="AC7" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD7" s="8">
         <v>5000</v>
@@ -3630,7 +4159,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="8" ht="20.1" customHeight="1" spans="3:61">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
@@ -3710,7 +4239,7 @@
         <v>0.9</v>
       </c>
       <c r="AC8" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD8" s="8">
         <v>5000</v>
@@ -3807,7 +4336,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="9" ht="20.1" customHeight="1" spans="3:61">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
@@ -3887,7 +4416,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -3984,7 +4513,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="10" ht="20.1" customHeight="1" spans="3:61">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
@@ -4064,7 +4593,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4161,7 +4690,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="11" ht="20.1" customHeight="1" spans="3:61">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
@@ -4241,7 +4770,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4338,7 +4867,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="12" ht="20.1" customHeight="1" spans="3:61">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
@@ -4515,7 +5044,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="13" ht="20.1" customHeight="1" spans="3:61">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
@@ -4692,7 +5221,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="14" ht="20.1" customHeight="1" spans="3:61">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
@@ -4869,7 +5398,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="15" ht="20.1" customHeight="1" spans="3:61">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
@@ -5046,7 +5575,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="16" ht="20.1" customHeight="1" spans="3:61">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
@@ -5223,7 +5752,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="17" ht="20.1" customHeight="1" spans="3:61">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
@@ -5400,7 +5929,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="18" ht="20.1" customHeight="1" spans="3:61">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
@@ -5577,7 +6106,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="19" ht="20.1" customHeight="1" spans="3:61">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
@@ -5754,7 +6283,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="20" ht="20.1" customHeight="1" spans="3:61">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
@@ -5931,7 +6460,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="3:61">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
@@ -6108,7 +6637,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="22" ht="20.1" customHeight="1" spans="3:61">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
@@ -6286,9 +6815,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC3150B-1822-44CD-9F59-A49D8CCC47A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13665"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -36,6 +42,132 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>用于宠物界面展示的位置</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">在摄像机前修正位置
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：普通
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：变异
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：神兽</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>51Gamer_D01:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,138 +177,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>用于宠物界面展示的位置</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">在摄像机前修正位置
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：普通
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：变异
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：神兽</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>51Gamer_D01:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -186,7 +201,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -196,6 +211,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -206,7 +222,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0</t>
         </r>
@@ -215,6 +231,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -225,7 +242,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -234,6 +251,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -244,7 +262,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -253,6 +271,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -263,7 +282,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -272,19 +291,21 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0">
+    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -295,6 +316,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -303,6 +325,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -310,13 +333,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0">
+    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -325,6 +349,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -334,19 +359,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1">
+    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -355,6 +382,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -364,6 +392,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -375,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="185">
   <si>
     <t>Id</t>
   </si>
@@ -935,14 +964,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -953,6 +976,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -960,192 +984,82 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="49">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1172,270 +1086,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1527,45 +1255,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1579,360 +1268,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1973,118 +1474,71 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="58">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="21"/>
-    <cellStyle name="标题" xfId="22" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="25"/>
-    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
-    <cellStyle name="输出" xfId="30" builtinId="21"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
-    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="37"/>
-    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
-    <cellStyle name="汇总" xfId="40" builtinId="25"/>
-    <cellStyle name="好" xfId="41" builtinId="26"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
-    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
-    <cellStyle name="常规 2 3 2 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
-    <cellStyle name="常规 3" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
-    <cellStyle name="常规 4" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
-    <cellStyle name="常规 2" xfId="92"/>
-    <cellStyle name="常规 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3" xfId="94"/>
-    <cellStyle name="常规 2 3 2" xfId="95"/>
-    <cellStyle name="常规 2 3 2 2" xfId="96"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
-    <cellStyle name="常规 2 3 3" xfId="98"/>
-    <cellStyle name="常规 2 3 3 2" xfId="99"/>
-    <cellStyle name="常规 2 3 4" xfId="100"/>
-    <cellStyle name="常规 5" xfId="101"/>
-    <cellStyle name="常规 5 3" xfId="102"/>
-    <cellStyle name="注释 2" xfId="103"/>
-    <cellStyle name="注释 2 2" xfId="104"/>
-    <cellStyle name="注释 2 2 2" xfId="105"/>
+    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -2154,6 +1608,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3222,18 +2684,17 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:BI22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AW1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="BG10" sqref="BG10"/>
+      <selection pane="bottomLeft" activeCell="BF15" sqref="BF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3262,13 +2723,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
+    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="4:4">
+    <row r="2" spans="3:61" ht="13.5" customHeight="1">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:61">
+    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3447,7 +2908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:61">
+    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3626,7 +3087,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:61">
+    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3805,7 +3266,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:61">
+    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3885,7 +3346,7 @@
         <v>0.9</v>
       </c>
       <c r="AC6" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD6" s="8">
         <v>5000</v>
@@ -3967,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="8">
-        <v>70000001</v>
+        <v>70000011</v>
       </c>
       <c r="BF6" s="16" t="s">
         <v>116</v>
@@ -3982,7 +3443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:61">
+    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
@@ -4062,7 +3523,7 @@
         <v>0.9</v>
       </c>
       <c r="AC7" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD7" s="8">
         <v>5000</v>
@@ -4144,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="8">
-        <v>70000002</v>
+        <v>70000012</v>
       </c>
       <c r="BF7" s="8" t="s">
         <v>121</v>
@@ -4159,7 +3620,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:61">
+    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
@@ -4239,7 +3700,7 @@
         <v>0.9</v>
       </c>
       <c r="AC8" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD8" s="8">
         <v>5000</v>
@@ -4321,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="8">
-        <v>70000001</v>
+        <v>70000011</v>
       </c>
       <c r="BF8" s="16" t="s">
         <v>125</v>
@@ -4336,7 +3797,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:61">
+    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
@@ -4416,7 +3877,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -4498,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="BE9" s="8">
-        <v>70000001</v>
+        <v>70000011</v>
       </c>
       <c r="BF9" s="8" t="s">
         <v>129</v>
@@ -4513,7 +3974,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:61">
+    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
@@ -4593,7 +4054,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4675,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="8">
-        <v>70000002</v>
+        <v>70000012</v>
       </c>
       <c r="BF10" s="16" t="s">
         <v>134</v>
@@ -4690,7 +4151,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:61">
+    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
@@ -4770,7 +4231,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4852,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="8">
-        <v>70000001</v>
+        <v>70000011</v>
       </c>
       <c r="BF11" s="8">
         <v>80001006</v>
@@ -4867,7 +4328,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:61">
+    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
@@ -5029,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="BE12" s="8">
-        <v>70000001</v>
+        <v>70000011</v>
       </c>
       <c r="BF12" s="16" t="s">
         <v>142</v>
@@ -5044,7 +4505,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:61">
+    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
@@ -5206,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="BE13" s="8">
-        <v>70000001</v>
+        <v>70000011</v>
       </c>
       <c r="BF13" s="8" t="s">
         <v>146</v>
@@ -5221,7 +4682,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:61">
+    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
@@ -5383,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="BE14" s="8">
-        <v>70000001</v>
+        <v>70000011</v>
       </c>
       <c r="BF14" s="8" t="s">
         <v>150</v>
@@ -5398,7 +4859,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:61">
+    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
@@ -5560,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="BE15" s="8">
-        <v>70000001</v>
+        <v>70000011</v>
       </c>
       <c r="BF15" s="8" t="s">
         <v>155</v>
@@ -5575,7 +5036,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:61">
+    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
@@ -5737,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="8">
-        <v>70000002</v>
+        <v>70000012</v>
       </c>
       <c r="BF16" s="8" t="s">
         <v>159</v>
@@ -5752,7 +5213,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:61">
+    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
@@ -5914,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="BE17" s="8">
-        <v>70000002</v>
+        <v>70000012</v>
       </c>
       <c r="BF17" s="8" t="s">
         <v>164</v>
@@ -5929,7 +5390,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:61">
+    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
@@ -6091,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="8">
-        <v>70000001</v>
+        <v>70000011</v>
       </c>
       <c r="BF18" s="8" t="s">
         <v>169</v>
@@ -6106,7 +5567,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:61">
+    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
@@ -6268,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="8">
-        <v>70000002</v>
+        <v>70000012</v>
       </c>
       <c r="BF19" s="8" t="s">
         <v>174</v>
@@ -6283,7 +5744,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:61">
+    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
@@ -6445,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="8">
-        <v>70000001</v>
+        <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
         <v>178</v>
@@ -6460,7 +5921,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:61">
+    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
@@ -6622,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="8">
-        <v>70000002</v>
+        <v>70000012</v>
       </c>
       <c r="BF21" s="8" t="s">
         <v>182</v>
@@ -6637,7 +6098,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:61">
+    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
@@ -6799,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="BE22" s="8">
-        <v>70000002</v>
+        <v>70000012</v>
       </c>
       <c r="BF22" s="8" t="s">
         <v>178</v>
@@ -6815,11 +6276,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC3150B-1822-44CD-9F59-A49D8CCC47A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A010CB-9E66-40FE-B25E-F7BA8650BF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -793,9 +793,6 @@
     <t>仙人掌</t>
   </si>
   <si>
-    <t>80001004;80001018</t>
-  </si>
-  <si>
     <t>80001006;80002007</t>
   </si>
   <si>
@@ -940,9 +937,6 @@
     <t>神兽:精灵麋鹿</t>
   </si>
   <si>
-    <t>80002002;80002001;80002006;80002011;80002012;80002018;80002019;80002005</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -952,13 +946,23 @@
     <t>神兽:幽光晴晴</t>
   </si>
   <si>
-    <t>80002003;80002002;80002001;80002015;80002014;80002010;80002006;80002004</t>
-  </si>
-  <si>
     <t>神兽:仙界魔龙</t>
   </si>
   <si>
     <t>200003</t>
+  </si>
+  <si>
+    <t>80002019;80002017;80002016;80002014;80002010;80002023;80002009;80002008</t>
+  </si>
+  <si>
+    <t>80004002;80002002;80002002;80002001;80002015;80002014;80002024;80002027</t>
+  </si>
+  <si>
+    <t>80004003;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
+  </si>
+  <si>
+    <t>80001004;80001023</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2692,9 +2696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AV1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BF15" sqref="BF15"/>
+      <selection pane="bottomLeft" activeCell="BG15" sqref="BG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3370,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="8">
         <v>0.05</v>
@@ -3547,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="8">
         <v>0.05</v>
@@ -3724,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="8">
         <v>0.05</v>
@@ -3901,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="8">
         <v>0.05</v>
@@ -3962,16 +3966,16 @@
         <v>70000011</v>
       </c>
       <c r="BF9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG9" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="BG9" s="14" t="s">
+      <c r="BH9" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="BH9" s="15" t="s">
+      <c r="BI9" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="BI9" s="15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3979,7 +3983,7 @@
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="7">
         <v>1000501</v>
@@ -4078,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="8">
         <v>0.05</v>
@@ -4139,16 +4143,16 @@
         <v>70000012</v>
       </c>
       <c r="BF10" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG10" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="BG10" s="14" t="s">
+      <c r="BH10" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="BH10" s="15" t="s">
-        <v>136</v>
-      </c>
       <c r="BI10" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4156,7 +4160,7 @@
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="7">
         <v>1000601</v>
@@ -4255,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="8">
         <v>0.05</v>
@@ -4319,13 +4323,13 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH11" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="BH11" s="15" t="s">
+      <c r="BI11" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="BI11" s="15" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4333,7 +4337,7 @@
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="7">
         <v>1000701</v>
@@ -4432,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="8">
         <v>0.05</v>
@@ -4493,16 +4497,16 @@
         <v>70000011</v>
       </c>
       <c r="BF12" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG12" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="BG12" s="14" t="s">
+      <c r="BH12" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="BH12" s="15" t="s">
-        <v>144</v>
-      </c>
       <c r="BI12" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4510,7 +4514,7 @@
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="7">
         <v>1000801</v>
@@ -4609,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="8">
         <v>0.05</v>
@@ -4670,13 +4674,13 @@
         <v>70000011</v>
       </c>
       <c r="BF13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG13" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="BG13" s="14" t="s">
+      <c r="BH13" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="BH13" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="BI13" s="15" t="s">
         <v>119</v>
@@ -4687,7 +4691,7 @@
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="7">
         <v>1000901</v>
@@ -4786,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="8">
         <v>0.05</v>
@@ -4847,16 +4851,16 @@
         <v>70000011</v>
       </c>
       <c r="BF14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG14" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="BG14" s="14" t="s">
+      <c r="BH14" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="BH14" s="15" t="s">
+      <c r="BI14" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="BI14" s="15" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4864,7 +4868,7 @@
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="7">
         <v>1001001</v>
@@ -4963,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="8">
         <v>0.05</v>
@@ -5024,16 +5028,16 @@
         <v>70000011</v>
       </c>
       <c r="BF15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BG15" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="BG15" s="14" t="s">
+      <c r="BH15" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="BH15" s="15" t="s">
-        <v>157</v>
-      </c>
       <c r="BI15" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5041,7 +5045,7 @@
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E16" s="7">
         <v>1001101</v>
@@ -5140,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="8">
         <v>0.05</v>
@@ -5201,16 +5205,16 @@
         <v>70000012</v>
       </c>
       <c r="BF16" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG16" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="BG16" s="14" t="s">
+      <c r="BH16" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="BH16" s="15" t="s">
+      <c r="BI16" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="BI16" s="15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5218,7 +5222,7 @@
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="7">
         <v>1001201</v>
@@ -5317,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="8">
         <v>0.05</v>
@@ -5378,16 +5382,16 @@
         <v>70000012</v>
       </c>
       <c r="BF17" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG17" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="BG17" s="14" t="s">
+      <c r="BH17" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="BH17" s="15" t="s">
+      <c r="BI17" s="15" t="s">
         <v>166</v>
-      </c>
-      <c r="BI17" s="15" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5395,7 +5399,7 @@
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="7">
         <v>1001301</v>
@@ -5494,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="8">
         <v>0.05</v>
@@ -5555,16 +5559,16 @@
         <v>70000011</v>
       </c>
       <c r="BF18" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BG18" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="BG18" s="14" t="s">
+      <c r="BH18" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="BH18" s="15" t="s">
+      <c r="BI18" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="BI18" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5572,7 +5576,7 @@
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19" s="7">
         <v>1001401</v>
@@ -5671,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="8">
         <v>0.05</v>
@@ -5732,16 +5736,16 @@
         <v>70000012</v>
       </c>
       <c r="BF19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG19" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="BG19" s="14" t="s">
+      <c r="BH19" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="BH19" s="15" t="s">
-        <v>176</v>
-      </c>
       <c r="BI19" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5749,7 +5753,7 @@
         <v>2000001</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E20" s="7">
         <v>2000001</v>
@@ -5785,34 +5789,34 @@
         <v>1</v>
       </c>
       <c r="P20" s="8">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="Q20" s="8">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="R20" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="S20" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="T20" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="U20" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="V20" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="W20" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="X20" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="Y20" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="Z20" s="8">
         <v>3000</v>
@@ -5848,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="8">
         <v>0.05</v>
@@ -5909,16 +5913,16 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="BG20" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BH20" s="15">
         <v>200001</v>
       </c>
       <c r="BI20" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5926,7 +5930,7 @@
         <v>2000002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E21" s="7">
         <v>2000002</v>
@@ -5962,34 +5966,34 @@
         <v>1</v>
       </c>
       <c r="P21" s="8">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="Q21" s="8">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="R21" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="S21" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="T21" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="U21" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="V21" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="W21" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="X21" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="Y21" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="Z21" s="8">
         <v>3000</v>
@@ -6025,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="8">
         <v>0.05</v>
@@ -6086,16 +6090,16 @@
         <v>70000012</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BG21" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BH21" s="15">
         <v>200002</v>
       </c>
       <c r="BI21" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6103,7 +6107,7 @@
         <v>2000003</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E22" s="7">
         <v>2000003</v>
@@ -6139,34 +6143,34 @@
         <v>1</v>
       </c>
       <c r="P22" s="8">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="Q22" s="8">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="R22" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="S22" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="T22" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="U22" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="V22" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="W22" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="X22" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="Y22" s="8">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="Z22" s="8">
         <v>3000</v>
@@ -6202,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="8">
         <v>0.05</v>
@@ -6260,19 +6264,19 @@
         <v>0</v>
       </c>
       <c r="BE22" s="8">
-        <v>70000012</v>
+        <v>70000011</v>
       </c>
       <c r="BF22" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG22" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="BH22" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="BI22" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="BG22" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="BH22" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI22" s="15" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A010CB-9E66-40FE-B25E-F7BA8650BF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320B583C-D913-4025-9D8A-498CBD6620E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -955,13 +955,14 @@
     <t>80002019;80002017;80002016;80002014;80002010;80002023;80002009;80002008</t>
   </si>
   <si>
-    <t>80004002;80002002;80002002;80002001;80002015;80002014;80002024;80002027</t>
-  </si>
-  <si>
     <t>80004003;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
   </si>
   <si>
     <t>80001004;80001023</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80004002;80002002;80002003;80002001;80002015;80002014;80002024;80002027</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2696,9 +2697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG15" sqref="BG15"/>
+      <selection pane="bottomLeft" activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3966,7 +3967,7 @@
         <v>70000011</v>
       </c>
       <c r="BF9" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BG9" s="14" t="s">
         <v>129</v>
@@ -5825,7 +5826,7 @@
         <v>3000</v>
       </c>
       <c r="AB20" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AC20" s="8">
         <v>1.5</v>
@@ -6002,7 +6003,7 @@
         <v>3000</v>
       </c>
       <c r="AB21" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AC21" s="8">
         <v>1.5</v>
@@ -6090,7 +6091,7 @@
         <v>70000012</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BG21" s="14" t="s">
         <v>177</v>
@@ -6179,7 +6180,7 @@
         <v>3000</v>
       </c>
       <c r="AB22" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AC22" s="8">
         <v>1.5</v>
@@ -6267,7 +6268,7 @@
         <v>70000011</v>
       </c>
       <c r="BF22" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BG22" s="14" t="s">
         <v>177</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320B583C-D913-4025-9D8A-498CBD6620E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5426EC1-7634-432C-A764-7FFA45A7C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -962,8 +962,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>80004002;80002002;80002003;80002001;80002015;80002014;80002024;80002027</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>80004002;80002021;80002002;80002003;80002025;80002014;80002024;80002027</t>
   </si>
 </sst>
 </file>
@@ -2697,9 +2696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AV1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB22" sqref="AB22"/>
+      <selection pane="bottomLeft" activeCell="BF24" sqref="BF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5426EC1-7634-432C-A764-7FFA45A7C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -42,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -51,7 +45,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用于宠物界面展示的位置</t>
@@ -60,7 +53,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -68,7 +61,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">在摄像机前修正位置
@@ -76,14 +68,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -91,7 +83,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -100,7 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -108,7 +100,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：普通
@@ -118,7 +109,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -126,7 +117,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：变异
@@ -136,7 +126,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -144,21 +134,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：神兽</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -167,7 +155,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -177,21 +164,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -201,7 +186,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -211,7 +196,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -222,7 +206,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -231,7 +215,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -242,7 +225,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -251,7 +234,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -262,7 +244,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -271,7 +253,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -282,7 +263,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -291,21 +272,19 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AY3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -316,7 +295,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -325,7 +303,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -333,14 +310,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AZ3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -349,7 +325,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -359,21 +334,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="BF3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -382,7 +355,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -392,7 +364,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -404,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
   <si>
     <t>Id</t>
   </si>
@@ -793,6 +764,9 @@
     <t>仙人掌</t>
   </si>
   <si>
+    <t>80001004;80001023</t>
+  </si>
+  <si>
     <t>80001006;80002007</t>
   </si>
   <si>
@@ -937,6 +911,9 @@
     <t>神兽:精灵麋鹿</t>
   </si>
   <si>
+    <t>80002019;80002017;80002016;80002014;80002010;80002023;80002009;80002008</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -946,30 +923,29 @@
     <t>神兽:幽光晴晴</t>
   </si>
   <si>
+    <t>80004002;80002021;80002002;80002003;80002025;80002014;80002024;80002027</t>
+  </si>
+  <si>
     <t>神兽:仙界魔龙</t>
   </si>
   <si>
+    <t>80004003;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
+  </si>
+  <si>
     <t>200003</t>
-  </si>
-  <si>
-    <t>80002019;80002017;80002016;80002014;80002010;80002023;80002009;80002008</t>
-  </si>
-  <si>
-    <t>80004003;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
-  </si>
-  <si>
-    <t>80001004;80001023</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80004002;80002021;80002002;80002003;80002025;80002014;80002024;80002027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -980,7 +956,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -988,82 +963,192 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,84 +1175,270 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79992065187536243"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79992065187536243"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79992065187536243"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79992065187536243"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1258,6 +1529,60 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1272,172 +1597,345 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1478,71 +1976,118 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+  <cellStyles count="106">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="常规 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8"/>
+    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="常规 5 2" xfId="21"/>
+    <cellStyle name="标题" xfId="22" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
+    <cellStyle name="常规 5 2 2" xfId="25"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
+    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
+    <cellStyle name="注释 2 3" xfId="37"/>
+    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
+    <cellStyle name="汇总" xfId="40" builtinId="25"/>
+    <cellStyle name="好" xfId="41" builtinId="26"/>
+    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
+    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
+    <cellStyle name="常规 2 3 2 3" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
+    <cellStyle name="常规 3" xfId="66"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
+    <cellStyle name="常规 4" xfId="68"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
+    <cellStyle name="常规 2" xfId="92"/>
+    <cellStyle name="常规 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3" xfId="94"/>
+    <cellStyle name="常规 2 3 2" xfId="95"/>
+    <cellStyle name="常规 2 3 2 2" xfId="96"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
+    <cellStyle name="常规 2 3 3" xfId="98"/>
+    <cellStyle name="常规 2 3 3 2" xfId="99"/>
+    <cellStyle name="常规 2 3 4" xfId="100"/>
+    <cellStyle name="常规 5" xfId="101"/>
+    <cellStyle name="常规 5 3" xfId="102"/>
+    <cellStyle name="注释 2" xfId="103"/>
+    <cellStyle name="注释 2 2" xfId="104"/>
+    <cellStyle name="注释 2 2 2" xfId="105"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -1612,14 +2157,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2688,17 +3225,18 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C1:BI22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BF24" sqref="BF24"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2727,13 +3265,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="3:61" ht="13.5" customHeight="1">
+    <row r="2" customHeight="1" spans="4:4">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="3" ht="20.1" customHeight="1" spans="3:61">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2912,7 +3450,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="4" ht="20.1" customHeight="1" spans="3:61">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3091,7 +3629,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="5" ht="20.1" customHeight="1" spans="3:61">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3270,7 +3808,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="6" ht="20.1" customHeight="1" spans="3:61">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3350,7 +3888,7 @@
         <v>0.9</v>
       </c>
       <c r="AC6" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD6" s="8">
         <v>5000</v>
@@ -3447,7 +3985,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="7" ht="20.1" customHeight="1" spans="3:61">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
@@ -3527,7 +4065,7 @@
         <v>0.9</v>
       </c>
       <c r="AC7" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD7" s="8">
         <v>5000</v>
@@ -3624,7 +4162,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="8" ht="20.1" customHeight="1" spans="3:61">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
@@ -3704,7 +4242,7 @@
         <v>0.9</v>
       </c>
       <c r="AC8" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD8" s="8">
         <v>5000</v>
@@ -3801,7 +4339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="9" ht="20.1" customHeight="1" spans="3:61">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
@@ -3881,7 +4419,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -3966,24 +4504,24 @@
         <v>70000011</v>
       </c>
       <c r="BF9" s="8" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BH9" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BI9" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="10" ht="20.1" customHeight="1" spans="3:61">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="7">
         <v>1000501</v>
@@ -4058,7 +4596,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4143,24 +4681,24 @@
         <v>70000012</v>
       </c>
       <c r="BF10" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BH10" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="11" ht="20.1" customHeight="1" spans="3:61">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E11" s="7">
         <v>1000601</v>
@@ -4235,7 +4773,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4323,21 +4861,21 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BH11" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BI11" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="12" ht="20.1" customHeight="1" spans="3:61">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E12" s="7">
         <v>1000701</v>
@@ -4497,24 +5035,24 @@
         <v>70000011</v>
       </c>
       <c r="BF12" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BH12" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BI12" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="13" ht="20.1" customHeight="1" spans="3:61">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E13" s="7">
         <v>1000801</v>
@@ -4674,24 +5212,24 @@
         <v>70000011</v>
       </c>
       <c r="BF13" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BH13" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BI13" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="14" ht="20.1" customHeight="1" spans="3:61">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E14" s="7">
         <v>1000901</v>
@@ -4851,24 +5389,24 @@
         <v>70000011</v>
       </c>
       <c r="BF14" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BH14" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BI14" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="15" ht="20.1" customHeight="1" spans="3:61">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E15" s="7">
         <v>1001001</v>
@@ -5028,24 +5566,24 @@
         <v>70000011</v>
       </c>
       <c r="BF15" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BH15" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BI15" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="16" ht="20.1" customHeight="1" spans="3:61">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E16" s="7">
         <v>1001101</v>
@@ -5205,24 +5743,24 @@
         <v>70000012</v>
       </c>
       <c r="BF16" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BH16" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BI16" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="17" ht="20.1" customHeight="1" spans="3:61">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E17" s="7">
         <v>1001201</v>
@@ -5382,24 +5920,24 @@
         <v>70000012</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BH17" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BI17" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="18" ht="20.1" customHeight="1" spans="3:61">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E18" s="7">
         <v>1001301</v>
@@ -5559,24 +6097,24 @@
         <v>70000011</v>
       </c>
       <c r="BF18" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BH18" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BI18" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="19" ht="20.1" customHeight="1" spans="3:61">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E19" s="7">
         <v>1001401</v>
@@ -5736,24 +6274,24 @@
         <v>70000012</v>
       </c>
       <c r="BF19" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BH19" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BI19" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="20" ht="20.1" customHeight="1" spans="3:61">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E20" s="7">
         <v>2000001</v>
@@ -5913,24 +6451,24 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="BG20" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BH20" s="15">
         <v>200001</v>
       </c>
       <c r="BI20" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="3:61">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E21" s="7">
         <v>2000002</v>
@@ -6090,24 +6628,24 @@
         <v>70000012</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="BG21" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BH21" s="15">
         <v>200002</v>
       </c>
       <c r="BI21" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="22" ht="20.1" customHeight="1" spans="3:61">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E22" s="7">
         <v>2000003</v>
@@ -6267,25 +6805,24 @@
         <v>70000011</v>
       </c>
       <c r="BF22" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BG22" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BH22" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="BI22" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE3DA2-1E38-4747-83C4-4774AC4E0D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -14,21 +20,21 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -36,6 +42,132 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>用于宠物界面展示的位置</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">在摄像机前修正位置
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：普通
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：变异
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：神兽</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>51Gamer_D01:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,138 +177,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>用于宠物界面展示的位置</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">在摄像机前修正位置
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：普通
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：变异
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：神兽</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>51Gamer_D01:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -186,7 +201,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -196,6 +211,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -206,7 +222,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0</t>
         </r>
@@ -215,6 +231,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -225,7 +242,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -234,6 +251,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -244,7 +262,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -253,6 +271,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -263,7 +282,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -272,19 +291,21 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0">
+    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -295,6 +316,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -303,6 +325,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -310,13 +333,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0">
+    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -325,6 +349,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -334,19 +359,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1">
+    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -355,6 +382,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -364,6 +392,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -375,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -938,14 +967,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -956,6 +979,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -963,192 +987,82 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="49">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1175,97 +1089,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
+        <fgColor theme="8" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,168 +1125,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1529,60 +1257,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1597,345 +1271,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1976,118 +1477,71 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="58">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="21"/>
-    <cellStyle name="标题" xfId="22" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="25"/>
-    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
-    <cellStyle name="输出" xfId="30" builtinId="21"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
-    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="37"/>
-    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
-    <cellStyle name="汇总" xfId="40" builtinId="25"/>
-    <cellStyle name="好" xfId="41" builtinId="26"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
-    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
-    <cellStyle name="常规 2 3 2 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
-    <cellStyle name="常规 3" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
-    <cellStyle name="常规 4" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
-    <cellStyle name="常规 2" xfId="92"/>
-    <cellStyle name="常规 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3" xfId="94"/>
-    <cellStyle name="常规 2 3 2" xfId="95"/>
-    <cellStyle name="常规 2 3 2 2" xfId="96"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
-    <cellStyle name="常规 2 3 3" xfId="98"/>
-    <cellStyle name="常规 2 3 3 2" xfId="99"/>
-    <cellStyle name="常规 2 3 4" xfId="100"/>
-    <cellStyle name="常规 5" xfId="101"/>
-    <cellStyle name="常规 5 3" xfId="102"/>
-    <cellStyle name="注释 2" xfId="103"/>
-    <cellStyle name="注释 2 2" xfId="104"/>
-    <cellStyle name="注释 2 2 2" xfId="105"/>
+    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -2157,6 +1611,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3225,18 +2687,17 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:BI22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:JP22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3265,13 +2726,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
+    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="4:4">
+    <row r="2" spans="3:61" ht="13.5" customHeight="1">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:61">
+    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3450,7 +2911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:61">
+    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3629,7 +3090,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:61">
+    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3808,7 +3269,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:61">
+    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3888,7 +3349,7 @@
         <v>0.9</v>
       </c>
       <c r="AC6" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD6" s="8">
         <v>5000</v>
@@ -3985,7 +3446,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:61">
+    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
@@ -4065,7 +3526,7 @@
         <v>0.9</v>
       </c>
       <c r="AC7" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD7" s="8">
         <v>5000</v>
@@ -4162,7 +3623,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:61">
+    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
@@ -4242,7 +3703,7 @@
         <v>0.9</v>
       </c>
       <c r="AC8" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD8" s="8">
         <v>5000</v>
@@ -4339,7 +3800,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:61">
+    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
@@ -4419,7 +3880,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -4516,7 +3977,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:61">
+    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
@@ -4596,7 +4057,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4693,7 +4154,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:61">
+    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
@@ -4773,7 +4234,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4870,7 +4331,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:61">
+    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
@@ -4896,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="7">
         <v>1</v>
@@ -5047,7 +4508,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:61">
+    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
@@ -5073,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="7">
         <v>1</v>
@@ -5224,7 +4685,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:61">
+    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
@@ -5401,7 +4862,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:61">
+    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
@@ -5481,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="8">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AD15" s="8">
         <v>5000</v>
@@ -5578,7 +5039,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:61">
+    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
@@ -5658,7 +5119,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="8">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AD16" s="8">
         <v>5000</v>
@@ -5755,7 +5216,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:61">
+    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
@@ -5835,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="AC17" s="8">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AD17" s="8">
         <v>5000</v>
@@ -5932,7 +5393,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:61">
+    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
@@ -6012,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="AC18" s="8">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AD18" s="8">
         <v>5000</v>
@@ -6109,7 +5570,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:61">
+    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
@@ -6189,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="AC19" s="8">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AD19" s="8">
         <v>5000</v>
@@ -6286,7 +5747,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:61">
+    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
@@ -6463,7 +5924,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:61">
+    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
@@ -6640,7 +6101,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:61">
+    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
@@ -6818,11 +6279,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE3DA2-1E38-4747-83C4-4774AC4E0D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9145E3B2-DC29-44A5-8F5F-789DBACEFC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="187">
   <si>
     <t>Id</t>
   </si>
@@ -962,6 +962,10 @@
   </si>
   <si>
     <t>200003</t>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2697,7 +2701,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="C6:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5071,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9145E3B2-DC29-44A5-8F5F-789DBACEFC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1C587B-CB99-45F2-9A4F-7A8C25DC8BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2701,7 +2701,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="C6:D22"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1C587B-CB99-45F2-9A4F-7A8C25DC8BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987C7E48-21B1-44E5-8B84-2D649166C315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,9 +757,6 @@
     <t>80001001</t>
   </si>
   <si>
-    <t>80001010;80001014</t>
-  </si>
-  <si>
     <t>10101,10102</t>
   </si>
   <si>
@@ -772,9 +769,6 @@
     <t>80001002;80001013</t>
   </si>
   <si>
-    <t>80001009</t>
-  </si>
-  <si>
     <t>20101,20102</t>
   </si>
   <si>
@@ -784,9 +778,6 @@
     <t>80001018</t>
   </si>
   <si>
-    <t>80001012;80001004</t>
-  </si>
-  <si>
     <t>30101,30102</t>
   </si>
   <si>
@@ -796,9 +787,6 @@
     <t>80001004;80001023</t>
   </si>
   <si>
-    <t>80001006;80002007</t>
-  </si>
-  <si>
     <t>40101,40102,40103,40104</t>
   </si>
   <si>
@@ -811,18 +799,12 @@
     <t>80001005;80001019</t>
   </si>
   <si>
-    <t>80001017;80001008</t>
-  </si>
-  <si>
     <t>50101,50102,50103,50104</t>
   </si>
   <si>
     <t>企鹅</t>
   </si>
   <si>
-    <t>80001015;80001010;80002006</t>
-  </si>
-  <si>
     <t>60101,60102,60103</t>
   </si>
   <si>
@@ -847,9 +829,6 @@
     <t>80001008;80001020</t>
   </si>
   <si>
-    <t>80001011;80002015</t>
-  </si>
-  <si>
     <t>80101,80102</t>
   </si>
   <si>
@@ -859,9 +838,6 @@
     <t>80001009;80001002</t>
   </si>
   <si>
-    <t>80002001;80001014</t>
-  </si>
-  <si>
     <t>90101,90102,90103,90104</t>
   </si>
   <si>
@@ -874,9 +850,6 @@
     <t>80001010;80001001</t>
   </si>
   <si>
-    <t>80001002;80002001</t>
-  </si>
-  <si>
     <t>100101,100102,100103,100104</t>
   </si>
   <si>
@@ -886,9 +859,6 @@
     <t>80001011;80001003</t>
   </si>
   <si>
-    <t>80001015;80002002</t>
-  </si>
-  <si>
     <t>110101,110102,110103</t>
   </si>
   <si>
@@ -898,12 +868,6 @@
     <t>魔法娃娃</t>
   </si>
   <si>
-    <t>80001012;80001017</t>
-  </si>
-  <si>
-    <t>80002010;80002003</t>
-  </si>
-  <si>
     <t>120101,120102,120103</t>
   </si>
   <si>
@@ -913,12 +877,6 @@
     <t>淘气包</t>
   </si>
   <si>
-    <t>80001006;80001018</t>
-  </si>
-  <si>
-    <t>80002004;80002016</t>
-  </si>
-  <si>
     <t>130101,130102,130103,130104</t>
   </si>
   <si>
@@ -926,12 +884,6 @@
   </si>
   <si>
     <t>光明天使</t>
-  </si>
-  <si>
-    <t>80001014;80002008</t>
-  </si>
-  <si>
-    <t>80002009;80002013</t>
   </si>
   <si>
     <t>140101,140102,140103</t>
@@ -966,6 +918,62 @@
   <si>
     <t>1,1</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002001;80001014;80001028;80002022</t>
+  </si>
+  <si>
+    <t>80001002;80002001;80001023;80002019</t>
+  </si>
+  <si>
+    <t>80001015;80002002;80001027;80002021</t>
+  </si>
+  <si>
+    <t>80002010;80002003;80001026;80002027</t>
+  </si>
+  <si>
+    <t>80002004;80002016;80001028;80002023</t>
+  </si>
+  <si>
+    <t>80002009;80002013;80001025;80002003</t>
+  </si>
+  <si>
+    <t>80001010;80001014;80001015</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001009;80001018</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001012;80001004;80001007</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001004;80002007;80001023</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001017;80001008;80001021</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001015;80001010;80002006</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001006;80002018;80001022</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001011;80002015;80001024</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001012;80002025</t>
+  </si>
+  <si>
+    <t>80001014;80002021</t>
   </si>
 </sst>
 </file>
@@ -2699,9 +2707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AU1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="BF17" sqref="BF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3353,7 +3361,7 @@
         <v>0.9</v>
       </c>
       <c r="AC6" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AD6" s="8">
         <v>5000</v>
@@ -3441,13 +3449,13 @@
         <v>116</v>
       </c>
       <c r="BG6" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="BH6" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="BH6" s="15" t="s">
+      <c r="BI6" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="BI6" s="15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3455,7 +3463,7 @@
         <v>1000201</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="7">
         <v>1000201</v>
@@ -3530,7 +3538,7 @@
         <v>0.9</v>
       </c>
       <c r="AC7" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AD7" s="8">
         <v>5000</v>
@@ -3615,16 +3623,16 @@
         <v>70000012</v>
       </c>
       <c r="BF7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG7" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH7" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="BG7" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="BH7" s="15" t="s">
-        <v>123</v>
-      </c>
       <c r="BI7" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3632,7 +3640,7 @@
         <v>1000301</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="7">
         <v>1000301</v>
@@ -3707,7 +3715,7 @@
         <v>0.9</v>
       </c>
       <c r="AC8" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AD8" s="8">
         <v>5000</v>
@@ -3792,16 +3800,16 @@
         <v>70000011</v>
       </c>
       <c r="BF8" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BG8" s="14" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="BH8" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BI8" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3809,7 +3817,7 @@
         <v>1000401</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E9" s="7">
         <v>1000401</v>
@@ -3884,7 +3892,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -3969,16 +3977,16 @@
         <v>70000011</v>
       </c>
       <c r="BF9" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="BH9" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="BI9" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3986,7 +3994,7 @@
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E10" s="7">
         <v>1000501</v>
@@ -4061,7 +4069,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4146,16 +4154,16 @@
         <v>70000012</v>
       </c>
       <c r="BF10" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="BH10" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4163,7 +4171,7 @@
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E11" s="7">
         <v>1000601</v>
@@ -4238,7 +4246,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4326,13 +4334,13 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="BH11" s="15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="BI11" s="15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4340,7 +4348,7 @@
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E12" s="7">
         <v>1000701</v>
@@ -4415,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD12" s="8">
         <v>5000</v>
@@ -4500,16 +4508,16 @@
         <v>70000011</v>
       </c>
       <c r="BF12" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="BH12" s="15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="BI12" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4517,7 +4525,7 @@
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E13" s="7">
         <v>1000801</v>
@@ -4592,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="8">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD13" s="8">
         <v>5000</v>
@@ -4677,16 +4685,16 @@
         <v>70000011</v>
       </c>
       <c r="BF13" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="BH13" s="15" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="BI13" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4694,7 +4702,7 @@
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E14" s="7">
         <v>1000901</v>
@@ -4769,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD14" s="8">
         <v>5000</v>
@@ -4854,16 +4862,16 @@
         <v>70000011</v>
       </c>
       <c r="BF14" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="BH14" s="15" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="BI14" s="15" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4871,7 +4879,7 @@
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E15" s="7">
         <v>1001001</v>
@@ -4946,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="8">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AD15" s="8">
         <v>5000</v>
@@ -5031,16 +5039,16 @@
         <v>70000011</v>
       </c>
       <c r="BF15" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="BH15" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="BI15" s="15" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5048,7 +5056,7 @@
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E16" s="7">
         <v>1001101</v>
@@ -5075,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -5123,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="AC16" s="8">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AD16" s="8">
         <v>5000</v>
@@ -5208,16 +5216,16 @@
         <v>70000012</v>
       </c>
       <c r="BF16" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="BH16" s="15" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BI16" s="15" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5225,7 +5233,7 @@
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E17" s="7">
         <v>1001201</v>
@@ -5385,16 +5393,16 @@
         <v>70000012</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="BH17" s="15" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="BI17" s="15" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5402,7 +5410,7 @@
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E18" s="7">
         <v>1001301</v>
@@ -5562,16 +5570,16 @@
         <v>70000011</v>
       </c>
       <c r="BF18" s="8" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="BH18" s="15" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="BI18" s="15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5579,7 +5587,7 @@
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E19" s="7">
         <v>1001401</v>
@@ -5739,16 +5747,16 @@
         <v>70000012</v>
       </c>
       <c r="BF19" s="8" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BH19" s="15" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="BI19" s="15" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5756,7 +5764,7 @@
         <v>2000001</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E20" s="7">
         <v>2000001</v>
@@ -5916,16 +5924,16 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="BG20" s="14" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="BH20" s="15">
         <v>200001</v>
       </c>
       <c r="BI20" s="15" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5933,7 +5941,7 @@
         <v>2000002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E21" s="7">
         <v>2000002</v>
@@ -6093,16 +6101,16 @@
         <v>70000012</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="BG21" s="14" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="BH21" s="15">
         <v>200002</v>
       </c>
       <c r="BI21" s="15" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6110,7 +6118,7 @@
         <v>2000003</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E22" s="7">
         <v>2000003</v>
@@ -6270,25 +6278,25 @@
         <v>70000011</v>
       </c>
       <c r="BF22" s="8" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="BG22" s="14" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="BH22" s="15" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="BI22" s="15" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987C7E48-21B1-44E5-8B84-2D649166C315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B513AB7F-5F24-42E1-9CEC-617B78944506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2707,9 +2707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BF17" sqref="BF17"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B513AB7F-5F24-42E1-9CEC-617B78944506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B61C113-EBEF-4EEB-812D-9C4B89D371F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="184">
   <si>
     <t>Id</t>
   </si>
@@ -895,12 +895,6 @@
     <t>80002019;80002017;80002016;80002014;80002010;80002023;80002009;80002008</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>神兽:幽光晴晴</t>
   </si>
   <si>
@@ -911,9 +905,6 @@
   </si>
   <si>
     <t>80004003;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
-  </si>
-  <si>
-    <t>200003</t>
   </si>
   <si>
     <t>1,1</t>
@@ -1448,7 +1439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1491,6 +1482,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -2707,9 +2701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="BG12" sqref="BG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3449,7 +3443,7 @@
         <v>116</v>
       </c>
       <c r="BG6" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="BH6" s="15" t="s">
         <v>117</v>
@@ -3626,7 +3620,7 @@
         <v>120</v>
       </c>
       <c r="BG7" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BH7" s="15" t="s">
         <v>121</v>
@@ -3803,7 +3797,7 @@
         <v>123</v>
       </c>
       <c r="BG8" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BH8" s="15" t="s">
         <v>124</v>
@@ -3980,7 +3974,7 @@
         <v>126</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="BH9" s="15" t="s">
         <v>127</v>
@@ -4157,7 +4151,7 @@
         <v>130</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BH10" s="15" t="s">
         <v>131</v>
@@ -4334,7 +4328,7 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="BH11" s="15" t="s">
         <v>133</v>
@@ -4511,7 +4505,7 @@
         <v>136</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="BH12" s="15" t="s">
         <v>138</v>
@@ -4688,7 +4682,7 @@
         <v>140</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="BH13" s="15" t="s">
         <v>141</v>
@@ -4865,7 +4859,7 @@
         <v>143</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BH14" s="15" t="s">
         <v>144</v>
@@ -5042,7 +5036,7 @@
         <v>147</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="BH15" s="15" t="s">
         <v>148</v>
@@ -5083,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -5219,7 +5213,7 @@
         <v>150</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="BH16" s="15" t="s">
         <v>151</v>
@@ -5393,10 +5387,10 @@
         <v>70000012</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="BH17" s="15" t="s">
         <v>154</v>
@@ -5573,7 +5567,7 @@
         <v>137</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="BH18" s="15" t="s">
         <v>157</v>
@@ -5747,10 +5741,10 @@
         <v>70000012</v>
       </c>
       <c r="BF19" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="BH19" s="15" t="s">
         <v>160</v>
@@ -5926,14 +5920,14 @@
       <c r="BF20" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="BG20" s="14" t="s">
-        <v>163</v>
+      <c r="BG20" s="8">
+        <v>0</v>
       </c>
       <c r="BH20" s="15">
         <v>200001</v>
       </c>
-      <c r="BI20" s="15" t="s">
-        <v>164</v>
+      <c r="BI20" s="17">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5941,7 +5935,7 @@
         <v>2000002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E21" s="7">
         <v>2000002</v>
@@ -6101,16 +6095,16 @@
         <v>70000012</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="BG21" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="BG21" s="8">
+        <v>0</v>
       </c>
       <c r="BH21" s="15">
         <v>200002</v>
       </c>
-      <c r="BI21" s="15" t="s">
-        <v>164</v>
+      <c r="BI21" s="17">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6118,7 +6112,7 @@
         <v>2000003</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E22" s="7">
         <v>2000003</v>
@@ -6278,16 +6272,16 @@
         <v>70000011</v>
       </c>
       <c r="BF22" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="BG22" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BH22" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="BI22" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="BG22" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="17">
+        <v>200003</v>
+      </c>
+      <c r="BI22" s="17">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B61C113-EBEF-4EEB-812D-9C4B89D371F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCB74BA-DA27-44A5-AD43-E818834C4CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2701,9 +2701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG12" sqref="BG12"/>
+      <selection pane="bottomLeft" activeCell="BG16" sqref="BG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCB74BA-DA27-44A5-AD43-E818834C4CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7006C7D6-091D-4B1E-BE86-FC911825236F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2701,9 +2701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG16" sqref="BG16"/>
+      <selection pane="bottomLeft" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7006C7D6-091D-4B1E-BE86-FC911825236F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E1DEE4-0366-4E67-9BDD-83093E2DFCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2701,9 +2701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V11" sqref="V11"/>
+      <selection pane="bottomLeft" activeCell="AP10" sqref="AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ6" s="8">
         <v>1</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ7" s="8">
         <v>1</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ8" s="8">
         <v>1</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ9" s="8">
         <v>1</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="AP10" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ10" s="8">
         <v>1</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ11" s="8">
         <v>1</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ12" s="8">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ13" s="8">
         <v>1</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ14" s="8">
         <v>1</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ15" s="8">
         <v>1</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ16" s="8">
         <v>1</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ17" s="8">
         <v>1</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ18" s="8">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ19" s="8">
         <v>1</v>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ20" s="8">
         <v>1</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ21" s="8">
         <v>1</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ22" s="8">
         <v>1</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E1DEE4-0366-4E67-9BDD-83093E2DFCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -42,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -51,7 +45,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用于宠物界面展示的位置</t>
@@ -60,7 +53,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -68,7 +61,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">在摄像机前修正位置
@@ -76,14 +68,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -91,7 +83,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -100,7 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -108,7 +100,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：普通
@@ -118,7 +109,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -126,7 +117,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：变异
@@ -136,7 +126,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -144,21 +134,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：神兽</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -167,7 +155,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -177,21 +164,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -201,7 +186,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -211,7 +196,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -222,7 +206,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -231,7 +215,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -242,7 +225,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -251,7 +234,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -262,7 +244,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -271,7 +253,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -282,7 +263,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -291,21 +272,19 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AY3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -316,7 +295,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -325,7 +303,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -333,14 +310,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AZ3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -349,7 +325,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -359,21 +334,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="BF3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -382,7 +355,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -392,7 +364,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -404,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
   <si>
     <t>Id</t>
   </si>
@@ -757,6 +728,9 @@
     <t>80001001</t>
   </si>
   <si>
+    <t>80001010;80001014;80001015</t>
+  </si>
+  <si>
     <t>10101,10102</t>
   </si>
   <si>
@@ -769,6 +743,9 @@
     <t>80001002;80001013</t>
   </si>
   <si>
+    <t>80001009;80001018</t>
+  </si>
+  <si>
     <t>20101,20102</t>
   </si>
   <si>
@@ -778,6 +755,9 @@
     <t>80001018</t>
   </si>
   <si>
+    <t>80001012;80001004;80001007</t>
+  </si>
+  <si>
     <t>30101,30102</t>
   </si>
   <si>
@@ -787,6 +767,9 @@
     <t>80001004;80001023</t>
   </si>
   <si>
+    <t>80001004;80002007;80001008</t>
+  </si>
+  <si>
     <t>40101,40102,40103,40104</t>
   </si>
   <si>
@@ -799,12 +782,18 @@
     <t>80001005;80001019</t>
   </si>
   <si>
+    <t>80001017;80001008;80001021</t>
+  </si>
+  <si>
     <t>50101,50102,50103,50104</t>
   </si>
   <si>
     <t>企鹅</t>
   </si>
   <si>
+    <t>80001015;80001010;80002006</t>
+  </si>
+  <si>
     <t>60101,60102,60103</t>
   </si>
   <si>
@@ -817,64 +806,88 @@
     <t>80001007;80001005</t>
   </si>
   <si>
+    <t>80001006;80002018;80001022</t>
+  </si>
+  <si>
+    <t>70101,70102,70103,70104</t>
+  </si>
+  <si>
+    <t>萝卜头</t>
+  </si>
+  <si>
+    <t>80001008;80001020</t>
+  </si>
+  <si>
+    <t>80001011;80002015;80001024</t>
+  </si>
+  <si>
+    <t>80101,80102</t>
+  </si>
+  <si>
+    <t>雷霆猪</t>
+  </si>
+  <si>
+    <t>80001009;80001002</t>
+  </si>
+  <si>
+    <t>80002001;80001014;80001028;80002022</t>
+  </si>
+  <si>
+    <t>90101,90102,90103,90104</t>
+  </si>
+  <si>
+    <t>50,30,15,5</t>
+  </si>
+  <si>
+    <t>乌贼女士</t>
+  </si>
+  <si>
+    <t>80001010;80001001</t>
+  </si>
+  <si>
+    <t>80001002;80002001;80001023;80002019</t>
+  </si>
+  <si>
+    <t>100101,100102,100103,100104</t>
+  </si>
+  <si>
+    <t>魔法精灵</t>
+  </si>
+  <si>
+    <t>80001011;80001003</t>
+  </si>
+  <si>
+    <t>80001015;80002002;80001027;80002021</t>
+  </si>
+  <si>
+    <t>110101,110102,110103</t>
+  </si>
+  <si>
+    <t>50,35,15</t>
+  </si>
+  <si>
+    <t>魔法娃娃</t>
+  </si>
+  <si>
+    <t>80001012;80002025</t>
+  </si>
+  <si>
+    <t>80002010;80002003;80001026;80002027</t>
+  </si>
+  <si>
+    <t>120101,120102,120103</t>
+  </si>
+  <si>
+    <t>60,30,10</t>
+  </si>
+  <si>
+    <t>淘气包</t>
+  </si>
+  <si>
     <t>80001006;80002018</t>
   </si>
   <si>
-    <t>70101,70102,70103,70104</t>
-  </si>
-  <si>
-    <t>萝卜头</t>
-  </si>
-  <si>
-    <t>80001008;80001020</t>
-  </si>
-  <si>
-    <t>80101,80102</t>
-  </si>
-  <si>
-    <t>雷霆猪</t>
-  </si>
-  <si>
-    <t>80001009;80001002</t>
-  </si>
-  <si>
-    <t>90101,90102,90103,90104</t>
-  </si>
-  <si>
-    <t>50,30,15,5</t>
-  </si>
-  <si>
-    <t>乌贼女士</t>
-  </si>
-  <si>
-    <t>80001010;80001001</t>
-  </si>
-  <si>
-    <t>100101,100102,100103,100104</t>
-  </si>
-  <si>
-    <t>魔法精灵</t>
-  </si>
-  <si>
-    <t>80001011;80001003</t>
-  </si>
-  <si>
-    <t>110101,110102,110103</t>
-  </si>
-  <si>
-    <t>50,35,15</t>
-  </si>
-  <si>
-    <t>魔法娃娃</t>
-  </si>
-  <si>
-    <t>120101,120102,120103</t>
-  </si>
-  <si>
-    <t>60,30,10</t>
-  </si>
-  <si>
-    <t>淘气包</t>
+    <t>80002004;80002016;80001028;80002023</t>
   </si>
   <si>
     <t>130101,130102,130103,130104</t>
@@ -886,6 +899,12 @@
     <t>光明天使</t>
   </si>
   <si>
+    <t>80001014;80002021</t>
+  </si>
+  <si>
+    <t>80002009;80002013;80001025;80002003</t>
+  </si>
+  <si>
     <t>140101,140102,140103</t>
   </si>
   <si>
@@ -905,73 +924,19 @@
   </si>
   <si>
     <t>80004003;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80002001;80001014;80001028;80002022</t>
-  </si>
-  <si>
-    <t>80001002;80002001;80001023;80002019</t>
-  </si>
-  <si>
-    <t>80001015;80002002;80001027;80002021</t>
-  </si>
-  <si>
-    <t>80002010;80002003;80001026;80002027</t>
-  </si>
-  <si>
-    <t>80002004;80002016;80001028;80002023</t>
-  </si>
-  <si>
-    <t>80002009;80002013;80001025;80002003</t>
-  </si>
-  <si>
-    <t>80001010;80001014;80001015</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001009;80001018</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001012;80001004;80001007</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001004;80002007;80001023</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001017;80001008;80001021</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001015;80001010;80002006</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001006;80002018;80001022</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001011;80002015;80001024</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80001012;80002025</t>
-  </si>
-  <si>
-    <t>80001014;80002021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -982,7 +947,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -990,82 +954,192 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,31 +1166,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79989013336588644"/>
+        <fgColor theme="6" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79989013336588644"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79989013336588644"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79989013336588644"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,48 +1286,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79989013336588644"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79989013336588644"/>
+        <fgColor theme="4" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1260,6 +1520,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1274,130 +1576,315 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1429,17 +1916,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1480,74 +1967,121 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="58">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+  <cellStyles count="106">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="常规 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8"/>
+    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="常规 5 2" xfId="21"/>
+    <cellStyle name="标题" xfId="22" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
+    <cellStyle name="常规 5 2 2" xfId="25"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
+    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
+    <cellStyle name="注释 2 3" xfId="37"/>
+    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
+    <cellStyle name="汇总" xfId="40" builtinId="25"/>
+    <cellStyle name="好" xfId="41" builtinId="26"/>
+    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
+    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
+    <cellStyle name="常规 2 3 2 3" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
+    <cellStyle name="常规 3" xfId="66"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
+    <cellStyle name="常规 4" xfId="68"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
+    <cellStyle name="常规 2" xfId="92"/>
+    <cellStyle name="常规 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3" xfId="94"/>
+    <cellStyle name="常规 2 3 2" xfId="95"/>
+    <cellStyle name="常规 2 3 2 2" xfId="96"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
+    <cellStyle name="常规 2 3 3" xfId="98"/>
+    <cellStyle name="常规 2 3 3 2" xfId="99"/>
+    <cellStyle name="常规 2 3 4" xfId="100"/>
+    <cellStyle name="常规 5" xfId="101"/>
+    <cellStyle name="常规 5 3" xfId="102"/>
+    <cellStyle name="注释 2" xfId="103"/>
+    <cellStyle name="注释 2 2" xfId="104"/>
+    <cellStyle name="注释 2 2 2" xfId="105"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -1617,14 +2151,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2693,17 +3219,18 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C1:BI22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP10" sqref="AP10"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="BG9" sqref="BG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2732,13 +3259,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="3:61" ht="13.5" customHeight="1">
+    <row r="2" customHeight="1" spans="4:4">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="3" ht="20.1" customHeight="1" spans="3:61">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2917,7 +3444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="4" ht="20.1" customHeight="1" spans="3:61">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3096,7 +3623,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="5" ht="20.1" customHeight="1" spans="3:61">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3275,7 +3802,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="6" ht="20.1" customHeight="1" spans="3:61">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3439,25 +3966,25 @@
       <c r="BE6" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF6" s="16" t="s">
+      <c r="BF6" s="17" t="s">
         <v>116</v>
       </c>
       <c r="BG6" s="14" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="BH6" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BI6" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="7" ht="20.1" customHeight="1" spans="3:61">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="7">
         <v>1000201</v>
@@ -3617,24 +4144,24 @@
         <v>70000012</v>
       </c>
       <c r="BF7" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BG7" s="14" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="BH7" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BI7" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="8" ht="20.1" customHeight="1" spans="3:61">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E8" s="7">
         <v>1000301</v>
@@ -3793,25 +4320,25 @@
       <c r="BE8" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF8" s="16" t="s">
-        <v>123</v>
+      <c r="BF8" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="BG8" s="14" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="BH8" s="15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="BI8" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="9" ht="20.1" customHeight="1" spans="3:61">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E9" s="7">
         <v>1000401</v>
@@ -3886,7 +4413,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -3971,24 +4498,24 @@
         <v>70000011</v>
       </c>
       <c r="BF9" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="BH9" s="15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BI9" s="15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="10" ht="20.1" customHeight="1" spans="3:61">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E10" s="7">
         <v>1000501</v>
@@ -4063,7 +4590,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4147,25 +4674,25 @@
       <c r="BE10" s="8">
         <v>70000012</v>
       </c>
-      <c r="BF10" s="16" t="s">
-        <v>130</v>
+      <c r="BF10" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="BH10" s="15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="11" ht="20.1" customHeight="1" spans="3:61">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E11" s="7">
         <v>1000601</v>
@@ -4240,7 +4767,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4328,21 +4855,21 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="BH11" s="15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="BI11" s="15" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="12" ht="20.1" customHeight="1" spans="3:61">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E12" s="7">
         <v>1000701</v>
@@ -4417,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD12" s="8">
         <v>5000</v>
@@ -4501,25 +5028,25 @@
       <c r="BE12" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF12" s="16" t="s">
-        <v>136</v>
+      <c r="BF12" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="BH12" s="15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="BI12" s="15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="13" ht="20.1" customHeight="1" spans="3:61">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E13" s="7">
         <v>1000801</v>
@@ -4594,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD13" s="8">
         <v>5000</v>
@@ -4679,24 +5206,24 @@
         <v>70000011</v>
       </c>
       <c r="BF13" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="BH13" s="15" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="BI13" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="14" ht="20.1" customHeight="1" spans="3:61">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E14" s="7">
         <v>1000901</v>
@@ -4771,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD14" s="8">
         <v>5000</v>
@@ -4856,24 +5383,24 @@
         <v>70000011</v>
       </c>
       <c r="BF14" s="8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="BH14" s="15" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="BI14" s="15" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="15" ht="20.1" customHeight="1" spans="3:61">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E15" s="7">
         <v>1001001</v>
@@ -5033,24 +5560,24 @@
         <v>70000011</v>
       </c>
       <c r="BF15" s="8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="BH15" s="15" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="BI15" s="15" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="16" ht="20.1" customHeight="1" spans="3:61">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E16" s="7">
         <v>1001101</v>
@@ -5077,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -5210,24 +5737,24 @@
         <v>70000012</v>
       </c>
       <c r="BF16" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="BH16" s="15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="BI16" s="15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="17" ht="20.1" customHeight="1" spans="3:61">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E17" s="7">
         <v>1001201</v>
@@ -5387,24 +5914,24 @@
         <v>70000012</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="BH17" s="15" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="BI17" s="15" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="18" ht="20.1" customHeight="1" spans="3:61">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E18" s="7">
         <v>1001301</v>
@@ -5564,24 +6091,24 @@
         <v>70000011</v>
       </c>
       <c r="BF18" s="8" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="BG18" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH18" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="BI18" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="BH18" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="BI18" s="15" t="s">
-        <v>158</v>
-      </c>
     </row>
-    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="19" ht="20.1" customHeight="1" spans="3:61">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="E19" s="7">
         <v>1001401</v>
@@ -5741,24 +6268,24 @@
         <v>70000012</v>
       </c>
       <c r="BF19" s="8" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BH19" s="15" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="BI19" s="15" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="20" ht="20.1" customHeight="1" spans="3:61">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E20" s="7">
         <v>2000001</v>
@@ -5918,7 +6445,7 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="BG20" s="8">
         <v>0</v>
@@ -5926,16 +6453,16 @@
       <c r="BH20" s="15">
         <v>200001</v>
       </c>
-      <c r="BI20" s="17">
+      <c r="BI20" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="3:61">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E21" s="7">
         <v>2000002</v>
@@ -6095,7 +6622,7 @@
         <v>70000012</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="BG21" s="8">
         <v>0</v>
@@ -6103,16 +6630,16 @@
       <c r="BH21" s="15">
         <v>200002</v>
       </c>
-      <c r="BI21" s="17">
+      <c r="BI21" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="22" ht="20.1" customHeight="1" spans="3:61">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E22" s="7">
         <v>2000003</v>
@@ -6272,22 +6799,21 @@
         <v>70000011</v>
       </c>
       <c r="BF22" s="8" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="BG22" s="8">
         <v>0</v>
       </c>
-      <c r="BH22" s="17">
+      <c r="BH22" s="16">
         <v>200003</v>
       </c>
-      <c r="BI22" s="17">
+      <c r="BI22" s="16">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -931,12 +931,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -976,37 +976,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1026,6 +998,111 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -1041,93 +1118,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,7 +1132,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1166,31 +1159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,7 +1183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,7 +1201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,13 +1213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,7 +1225,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,49 +1333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,55 +1345,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,49 +1369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,9 +1506,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1577,13 +1530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1603,326 +1560,320 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1991,29 +1942,29 @@
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
     <cellStyle name="标题 4" xfId="19" builtinId="19"/>
     <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="21"/>
-    <cellStyle name="标题" xfId="22" builtinId="15"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="22"/>
     <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
     <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="25"/>
-    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="26"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
     <cellStyle name="标题 3" xfId="28" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
     <cellStyle name="输出" xfId="30" builtinId="21"/>
     <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
-    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="37"/>
-    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="34"/>
+    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
+    <cellStyle name="注释 2 3" xfId="36"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="37" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="38" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
     <cellStyle name="汇总" xfId="40" builtinId="25"/>
     <cellStyle name="好" xfId="41" builtinId="26"/>
@@ -2037,14 +1988,14 @@
     <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
-    <cellStyle name="常规 2 3 2 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
+    <cellStyle name="常规 2 3 2 3" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="64"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
-    <cellStyle name="常规 3" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
-    <cellStyle name="常规 4" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="66"/>
+    <cellStyle name="常规 3" xfId="67"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="68"/>
+    <cellStyle name="常规 4" xfId="69"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
@@ -3227,10 +3178,10 @@
   <sheetPr/>
   <dimension ref="C1:BI22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BG9" sqref="BG9"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96890E38-C6D5-4B48-BAA2-195F52B8C2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -14,21 +20,21 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -36,6 +42,132 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>用于宠物界面展示的位置</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">在摄像机前修正位置
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：普通
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：变异
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：神兽</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>51Gamer_D01:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,138 +177,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>用于宠物界面展示的位置</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">在摄像机前修正位置
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：普通
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：变异
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：神兽</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>51Gamer_D01:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -186,7 +201,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -196,6 +211,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -206,7 +222,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0</t>
         </r>
@@ -215,6 +231,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -225,7 +242,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -234,6 +251,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -244,7 +262,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -253,6 +271,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -263,7 +282,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -272,19 +291,21 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0">
+    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -295,6 +316,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -303,6 +325,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -310,13 +333,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0">
+    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -325,6 +349,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -334,19 +359,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1">
+    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -355,6 +382,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -364,6 +392,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -375,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -924,19 +953,25 @@
   </si>
   <si>
     <t>80004003;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
+  </si>
+  <si>
+    <t>10000131,2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000131,5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000131,10</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -947,6 +982,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -954,185 +990,82 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,103 +1092,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,120 +1116,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
+        <fgColor theme="7" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799890133365886"/>
+        <fgColor theme="9" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1471,50 +1260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1529,355 +1274,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1921,118 +1483,71 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="58">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="常规 5 2" xfId="22"/>
-    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="常规 5 2 2" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
-    <cellStyle name="输出" xfId="30" builtinId="21"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="34"/>
-    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
-    <cellStyle name="注释 2 3" xfId="36"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="37" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="38" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
-    <cellStyle name="汇总" xfId="40" builtinId="25"/>
-    <cellStyle name="好" xfId="41" builtinId="26"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
-    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="62"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="66"/>
-    <cellStyle name="常规 3" xfId="67"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="68"/>
-    <cellStyle name="常规 4" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
-    <cellStyle name="常规 2" xfId="92"/>
-    <cellStyle name="常规 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3" xfId="94"/>
-    <cellStyle name="常规 2 3 2" xfId="95"/>
-    <cellStyle name="常规 2 3 2 2" xfId="96"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
-    <cellStyle name="常规 2 3 3" xfId="98"/>
-    <cellStyle name="常规 2 3 3 2" xfId="99"/>
-    <cellStyle name="常规 2 3 4" xfId="100"/>
-    <cellStyle name="常规 5" xfId="101"/>
-    <cellStyle name="常规 5 3" xfId="102"/>
-    <cellStyle name="注释 2" xfId="103"/>
-    <cellStyle name="注释 2 2" xfId="104"/>
-    <cellStyle name="注释 2 2 2" xfId="105"/>
+    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="常规 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -2102,6 +1617,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3170,18 +2693,17 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:BI22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:JP22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="BC10" sqref="BC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3190,18 +2712,19 @@
     <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
     <col min="5" max="7" width="11.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="20" style="2" customWidth="1"/>
-    <col min="9" max="13" width="11.875" style="2" customWidth="1"/>
-    <col min="14" max="15" width="15.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="2" customWidth="1"/>
-    <col min="18" max="25" width="13.125" style="2" customWidth="1"/>
-    <col min="26" max="27" width="18" style="2" customWidth="1"/>
-    <col min="28" max="29" width="20" style="2" customWidth="1"/>
-    <col min="30" max="49" width="15.625" style="2" customWidth="1"/>
-    <col min="50" max="50" width="13.375" style="2" customWidth="1"/>
-    <col min="51" max="51" width="10.375" style="2" customWidth="1"/>
-    <col min="52" max="53" width="11.375" style="2" customWidth="1"/>
-    <col min="54" max="54" width="10.375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="11.875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="11.875" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="25" width="13.125" style="2" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="18" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="20" style="2" hidden="1" customWidth="1"/>
+    <col min="30" max="49" width="15.625" style="2" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="13.375" style="2" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="10.375" style="2" hidden="1" customWidth="1"/>
+    <col min="52" max="53" width="11.375" style="2" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="10.375" style="2" hidden="1" customWidth="1"/>
     <col min="55" max="55" width="13.125" style="2" customWidth="1"/>
     <col min="56" max="57" width="15.125" style="2" customWidth="1"/>
     <col min="58" max="58" width="25.75" style="2" customWidth="1"/>
@@ -3210,13 +2733,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
+    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="4:4">
+    <row r="2" spans="3:61" ht="13.5" customHeight="1">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:61">
+    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3395,7 +2918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:61">
+    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3574,7 +3097,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:61">
+    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3753,7 +3276,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:61">
+    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3910,7 +3433,9 @@
       <c r="BB6" s="8">
         <v>1</v>
       </c>
-      <c r="BC6" s="8"/>
+      <c r="BC6" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="BD6" s="8">
         <v>0</v>
       </c>
@@ -3930,7 +3455,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:61">
+    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
@@ -4087,7 +3612,9 @@
       <c r="BB7" s="8">
         <v>1</v>
       </c>
-      <c r="BC7" s="8"/>
+      <c r="BC7" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="BD7" s="8">
         <v>0</v>
       </c>
@@ -4107,7 +3634,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:61">
+    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
@@ -4264,7 +3791,9 @@
       <c r="BB8" s="8">
         <v>1</v>
       </c>
-      <c r="BC8" s="8"/>
+      <c r="BC8" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="BD8" s="8">
         <v>0</v>
       </c>
@@ -4284,7 +3813,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:61">
+    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
@@ -4364,7 +3893,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -4441,7 +3970,9 @@
       <c r="BB9" s="8">
         <v>1</v>
       </c>
-      <c r="BC9" s="8"/>
+      <c r="BC9" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="BD9" s="8">
         <v>0</v>
       </c>
@@ -4461,7 +3992,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:61">
+    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
@@ -4541,7 +4072,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4618,7 +4149,9 @@
       <c r="BB10" s="8">
         <v>1</v>
       </c>
-      <c r="BC10" s="8"/>
+      <c r="BC10" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="BD10" s="8">
         <v>0</v>
       </c>
@@ -4638,7 +4171,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:61">
+    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
@@ -4718,7 +4251,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4795,7 +4328,9 @@
       <c r="BB11" s="8">
         <v>1</v>
       </c>
-      <c r="BC11" s="8"/>
+      <c r="BC11" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="BD11" s="8">
         <v>0</v>
       </c>
@@ -4815,7 +4350,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:61">
+    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
@@ -4895,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD12" s="8">
         <v>5000</v>
@@ -4972,7 +4507,9 @@
       <c r="BB12" s="8">
         <v>1</v>
       </c>
-      <c r="BC12" s="8"/>
+      <c r="BC12" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="BD12" s="8">
         <v>0</v>
       </c>
@@ -4992,7 +4529,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:61">
+    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
@@ -5072,7 +4609,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD13" s="8">
         <v>5000</v>
@@ -5149,7 +4686,9 @@
       <c r="BB13" s="8">
         <v>1</v>
       </c>
-      <c r="BC13" s="8"/>
+      <c r="BC13" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="BD13" s="8">
         <v>0</v>
       </c>
@@ -5169,7 +4708,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:61">
+    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
@@ -5249,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD14" s="8">
         <v>5000</v>
@@ -5326,7 +4865,9 @@
       <c r="BB14" s="8">
         <v>1</v>
       </c>
-      <c r="BC14" s="8"/>
+      <c r="BC14" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="BD14" s="8">
         <v>0</v>
       </c>
@@ -5346,7 +4887,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:61">
+    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
@@ -5503,7 +5044,9 @@
       <c r="BB15" s="8">
         <v>1</v>
       </c>
-      <c r="BC15" s="8"/>
+      <c r="BC15" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="BD15" s="8">
         <v>0</v>
       </c>
@@ -5523,7 +5066,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:61">
+    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
@@ -5680,7 +5223,9 @@
       <c r="BB16" s="8">
         <v>1</v>
       </c>
-      <c r="BC16" s="8"/>
+      <c r="BC16" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="BD16" s="8">
         <v>0</v>
       </c>
@@ -5700,7 +5245,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:61">
+    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
@@ -5857,7 +5402,9 @@
       <c r="BB17" s="8">
         <v>1</v>
       </c>
-      <c r="BC17" s="8"/>
+      <c r="BC17" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="BD17" s="8">
         <v>0</v>
       </c>
@@ -5877,7 +5424,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:61">
+    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
@@ -6034,7 +5581,9 @@
       <c r="BB18" s="8">
         <v>1</v>
       </c>
-      <c r="BC18" s="8"/>
+      <c r="BC18" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="BD18" s="8">
         <v>0</v>
       </c>
@@ -6054,7 +5603,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:61">
+    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
@@ -6211,7 +5760,9 @@
       <c r="BB19" s="8">
         <v>1</v>
       </c>
-      <c r="BC19" s="8"/>
+      <c r="BC19" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="BD19" s="8">
         <v>0</v>
       </c>
@@ -6231,7 +5782,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:61">
+    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
@@ -6408,7 +5959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:61">
+    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
@@ -6585,7 +6136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:61">
+    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
@@ -6763,8 +6314,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96890E38-C6D5-4B48-BAA2-195F52B8C2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854F4237-1CF3-4013-9910-AE71FFDFBFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32790" yWindow="1260" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -940,9 +940,6 @@
     <t>神兽:精灵麋鹿</t>
   </si>
   <si>
-    <t>80002019;80002017;80002016;80002014;80002010;80002023;80002009;80002008</t>
-  </si>
-  <si>
     <t>神兽:幽光晴晴</t>
   </si>
   <si>
@@ -964,6 +961,10 @@
   </si>
   <si>
     <t>10000131,10</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002019;80002017;80002016;80002014;80002010;80002023;80002009;80002008</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2701,9 +2702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC10" sqref="BC10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BF20" sqref="BF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3434,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="BC6" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BD6" s="8">
         <v>0</v>
@@ -3613,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="BC7" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BD7" s="8">
         <v>0</v>
@@ -3792,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="BC8" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BD8" s="8">
         <v>0</v>
@@ -3971,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="BC9" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BD9" s="8">
         <v>0</v>
@@ -4150,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BD10" s="8">
         <v>0</v>
@@ -4329,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="BC11" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BD11" s="8">
         <v>0</v>
@@ -4508,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BD12" s="8">
         <v>0</v>
@@ -4687,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="BC13" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BD13" s="8">
         <v>0</v>
@@ -4866,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="BC14" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BD14" s="8">
         <v>0</v>
@@ -5045,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="BC15" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BD15" s="8">
         <v>0</v>
@@ -5224,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="BC16" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BD16" s="8">
         <v>0</v>
@@ -5403,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="BC17" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BD17" s="8">
         <v>0</v>
@@ -5582,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="BC18" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BD18" s="8">
         <v>0</v>
@@ -5761,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="BC19" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BD19" s="8">
         <v>0</v>
@@ -5947,7 +5948,7 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="BG20" s="8">
         <v>0</v>
@@ -5964,7 +5965,7 @@
         <v>2000002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="7">
         <v>2000002</v>
@@ -6124,7 +6125,7 @@
         <v>70000012</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BG21" s="8">
         <v>0</v>
@@ -6141,7 +6142,7 @@
         <v>2000003</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E22" s="7">
         <v>2000003</v>
@@ -6301,7 +6302,7 @@
         <v>70000011</v>
       </c>
       <c r="BF22" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BG22" s="8">
         <v>0</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854F4237-1CF3-4013-9910-AE71FFDFBFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAFFB74-7982-4579-ADC9-4978C520C9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32790" yWindow="1260" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2702,9 +2702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BF20" sqref="BF20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2713,19 +2713,18 @@
     <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
     <col min="5" max="7" width="11.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="20" style="2" customWidth="1"/>
-    <col min="9" max="11" width="11.875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="11.875" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="15.625" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="25" width="13.125" style="2" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="18" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="20" style="2" hidden="1" customWidth="1"/>
-    <col min="30" max="49" width="15.625" style="2" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="13.375" style="2" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="10.375" style="2" hidden="1" customWidth="1"/>
-    <col min="52" max="53" width="11.375" style="2" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="10.375" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="13" width="11.875" style="2" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="2" customWidth="1"/>
+    <col min="18" max="25" width="13.125" style="2" customWidth="1"/>
+    <col min="26" max="27" width="18" style="2" customWidth="1"/>
+    <col min="28" max="29" width="20" style="2" customWidth="1"/>
+    <col min="30" max="49" width="15.625" style="2" customWidth="1"/>
+    <col min="50" max="50" width="13.375" style="2" customWidth="1"/>
+    <col min="51" max="51" width="10.375" style="2" customWidth="1"/>
+    <col min="52" max="53" width="11.375" style="2" customWidth="1"/>
+    <col min="54" max="54" width="10.375" style="2" customWidth="1"/>
     <col min="55" max="55" width="13.125" style="2" customWidth="1"/>
     <col min="56" max="57" width="15.125" style="2" customWidth="1"/>
     <col min="58" max="58" width="25.75" style="2" customWidth="1"/>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAFFB74-7982-4579-ADC9-4978C520C9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -20,21 +14,21 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -42,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -51,7 +45,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用于宠物界面展示的位置</t>
@@ -60,7 +53,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -68,7 +61,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">在摄像机前修正位置
@@ -76,14 +68,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -91,7 +83,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -100,7 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -108,7 +100,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：普通
@@ -118,7 +109,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -126,7 +117,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：变异
@@ -136,7 +126,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -144,21 +134,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：神兽</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -167,7 +155,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -177,21 +164,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -201,7 +186,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -211,7 +196,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -222,7 +206,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -231,7 +215,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -242,7 +225,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -251,7 +234,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -262,7 +244,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -271,7 +253,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -282,7 +263,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -291,21 +272,19 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AY3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -316,7 +295,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -325,7 +303,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -333,14 +310,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AZ3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -349,7 +325,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -359,21 +334,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="BF3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -382,7 +355,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -392,7 +364,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -404,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
   <si>
     <t>Id</t>
   </si>
@@ -754,6 +725,9 @@
     <t>1,1</t>
   </si>
   <si>
+    <t>10000131,2</t>
+  </si>
+  <si>
     <t>80001001</t>
   </si>
   <si>
@@ -808,6 +782,9 @@
     <t>团团</t>
   </si>
   <si>
+    <t>10000131,5</t>
+  </si>
+  <si>
     <t>80001005;80001019</t>
   </si>
   <si>
@@ -871,6 +848,9 @@
     <t>乌贼女士</t>
   </si>
   <si>
+    <t>10000131,10</t>
+  </si>
+  <si>
     <t>80001010;80001001</t>
   </si>
   <si>
@@ -940,6 +920,9 @@
     <t>神兽:精灵麋鹿</t>
   </si>
   <si>
+    <t>80002019;80002017;80002016;80002014;80002010;80002023;80002009;80002008</t>
+  </si>
+  <si>
     <t>神兽:幽光晴晴</t>
   </si>
   <si>
@@ -950,29 +933,19 @@
   </si>
   <si>
     <t>80004003;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
-  </si>
-  <si>
-    <t>10000131,2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000131,5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000131,10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80002019;80002017;80002016;80002014;80002010;80002023;80002009;80002008</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -983,7 +956,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -991,82 +963,192 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,19 +1175,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,60 +1337,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641044"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641044"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641044"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641044"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641044"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641044"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1261,6 +1529,74 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1275,172 +1611,331 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1484,71 +1979,118 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+  <cellStyles count="106">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="常规 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8"/>
+    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="常规 5 2" xfId="21"/>
+    <cellStyle name="标题" xfId="22" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
+    <cellStyle name="常规 5 2 2" xfId="25"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
+    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
+    <cellStyle name="注释 2 3" xfId="37"/>
+    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
+    <cellStyle name="汇总" xfId="40" builtinId="25"/>
+    <cellStyle name="好" xfId="41" builtinId="26"/>
+    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
+    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
+    <cellStyle name="常规 2 3 2 3" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
+    <cellStyle name="常规 3" xfId="66"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
+    <cellStyle name="常规 4" xfId="68"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
+    <cellStyle name="常规 2" xfId="92"/>
+    <cellStyle name="常规 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3" xfId="94"/>
+    <cellStyle name="常规 2 3 2" xfId="95"/>
+    <cellStyle name="常规 2 3 2 2" xfId="96"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
+    <cellStyle name="常规 2 3 3" xfId="98"/>
+    <cellStyle name="常规 2 3 3 2" xfId="99"/>
+    <cellStyle name="常规 2 3 4" xfId="100"/>
+    <cellStyle name="常规 5" xfId="101"/>
+    <cellStyle name="常规 5 3" xfId="102"/>
+    <cellStyle name="注释 2" xfId="103"/>
+    <cellStyle name="注释 2 2" xfId="104"/>
+    <cellStyle name="注释 2 2 2" xfId="105"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -1618,14 +2160,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2694,17 +3228,18 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C1:BI22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AO1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="AR22" sqref="AR22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2733,13 +3268,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="3:61" ht="13.5" customHeight="1">
+    <row r="2" customHeight="1" spans="4:4">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="3" ht="20.1" customHeight="1" spans="3:61">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2918,7 +3453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="4" ht="20.1" customHeight="1" spans="3:61">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3097,7 +3632,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="5" ht="20.1" customHeight="1" spans="3:61">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3276,7 +3811,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="6" ht="20.1" customHeight="1" spans="3:61">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3401,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="AR6" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AS6" s="8">
         <v>132</v>
@@ -3434,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="BC6" s="8" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="BD6" s="8">
         <v>0</v>
@@ -3443,24 +3978,24 @@
         <v>70000011</v>
       </c>
       <c r="BF6" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BG6" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BH6" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BI6" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="7" ht="20.1" customHeight="1" spans="3:61">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7" s="7">
         <v>1000201</v>
@@ -3613,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="BC7" s="8" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="BD7" s="8">
         <v>0</v>
@@ -3622,24 +4157,24 @@
         <v>70000012</v>
       </c>
       <c r="BF7" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BG7" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BH7" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BI7" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="8" ht="20.1" customHeight="1" spans="3:61">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="7">
         <v>1000301</v>
@@ -3759,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="AR8" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AS8" s="8">
         <v>132</v>
@@ -3792,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="BC8" s="8" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="BD8" s="8">
         <v>0</v>
@@ -3801,24 +4336,24 @@
         <v>70000011</v>
       </c>
       <c r="BF8" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BG8" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BH8" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BI8" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="9" ht="20.1" customHeight="1" spans="3:61">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="7">
         <v>1000401</v>
@@ -3893,7 +4428,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -3938,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="AR9" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AS9" s="8">
         <v>132</v>
@@ -3971,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="BC9" s="8" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="BD9" s="8">
         <v>0</v>
@@ -3980,24 +4515,24 @@
         <v>70000011</v>
       </c>
       <c r="BF9" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BH9" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BI9" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="10" ht="20.1" customHeight="1" spans="3:61">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10" s="7">
         <v>1000501</v>
@@ -4072,7 +4607,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4150,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="BD10" s="8">
         <v>0</v>
@@ -4159,24 +4694,24 @@
         <v>70000012</v>
       </c>
       <c r="BF10" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="BH10" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="11" ht="20.1" customHeight="1" spans="3:61">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E11" s="7">
         <v>1000601</v>
@@ -4251,7 +4786,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4296,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="AR11" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AS11" s="8">
         <v>132</v>
@@ -4329,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="BC11" s="8" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="BD11" s="8">
         <v>0</v>
@@ -4341,21 +4876,21 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BH11" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BI11" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="12" ht="20.1" customHeight="1" spans="3:61">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E12" s="7">
         <v>1000701</v>
@@ -4430,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD12" s="8">
         <v>5000</v>
@@ -4475,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="AR12" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AS12" s="8">
         <v>132</v>
@@ -4508,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="BD12" s="8">
         <v>0</v>
@@ -4517,24 +5052,24 @@
         <v>70000011</v>
       </c>
       <c r="BF12" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="BH12" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BI12" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="13" ht="20.1" customHeight="1" spans="3:61">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E13" s="7">
         <v>1000801</v>
@@ -4609,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD13" s="8">
         <v>5000</v>
@@ -4654,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="AR13" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AS13" s="8">
         <v>132</v>
@@ -4687,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="BC13" s="8" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="BD13" s="8">
         <v>0</v>
@@ -4696,24 +5231,24 @@
         <v>70000011</v>
       </c>
       <c r="BF13" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BH13" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BI13" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="14" ht="20.1" customHeight="1" spans="3:61">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E14" s="7">
         <v>1000901</v>
@@ -4788,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD14" s="8">
         <v>5000</v>
@@ -4833,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="AR14" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AS14" s="8">
         <v>132</v>
@@ -4866,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="BC14" s="8" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="BD14" s="8">
         <v>0</v>
@@ -4875,24 +5410,24 @@
         <v>70000011</v>
       </c>
       <c r="BF14" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="BH14" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="BI14" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="15" ht="20.1" customHeight="1" spans="3:61">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E15" s="7">
         <v>1001001</v>
@@ -5012,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="AR15" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AS15" s="8">
         <v>132</v>
@@ -5045,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="BC15" s="8" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="BD15" s="8">
         <v>0</v>
@@ -5054,24 +5589,24 @@
         <v>70000011</v>
       </c>
       <c r="BF15" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG15" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH15" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="BI15" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="BG15" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="BH15" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="BI15" s="15" t="s">
-        <v>153</v>
-      </c>
     </row>
-    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="16" ht="20.1" customHeight="1" spans="3:61">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E16" s="7">
         <v>1001101</v>
@@ -5224,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="BC16" s="8" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="BD16" s="8">
         <v>0</v>
@@ -5233,24 +5768,24 @@
         <v>70000012</v>
       </c>
       <c r="BF16" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="BH16" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BI16" s="15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="17" ht="20.1" customHeight="1" spans="3:61">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E17" s="7">
         <v>1001201</v>
@@ -5403,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="BC17" s="8" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="BD17" s="8">
         <v>0</v>
@@ -5412,24 +5947,24 @@
         <v>70000012</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="BH17" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BI17" s="15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="18" ht="20.1" customHeight="1" spans="3:61">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E18" s="7">
         <v>1001301</v>
@@ -5549,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="AR18" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AS18" s="8">
         <v>132</v>
@@ -5582,7 +6117,7 @@
         <v>1</v>
       </c>
       <c r="BC18" s="8" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="BD18" s="8">
         <v>0</v>
@@ -5591,24 +6126,24 @@
         <v>70000011</v>
       </c>
       <c r="BF18" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BH18" s="15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="BI18" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="19" ht="20.1" customHeight="1" spans="3:61">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E19" s="7">
         <v>1001401</v>
@@ -5761,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="BC19" s="8" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="BD19" s="8">
         <v>0</v>
@@ -5770,24 +6305,24 @@
         <v>70000012</v>
       </c>
       <c r="BF19" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BH19" s="15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="BI19" s="15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="20" ht="20.1" customHeight="1" spans="3:61">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E20" s="7">
         <v>2000001</v>
@@ -5907,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="AR20" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AS20" s="8">
         <v>132</v>
@@ -5947,7 +6482,7 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BG20" s="8">
         <v>0</v>
@@ -5959,12 +6494,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="3:61">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E21" s="7">
         <v>2000002</v>
@@ -6124,7 +6659,7 @@
         <v>70000012</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="BG21" s="8">
         <v>0</v>
@@ -6136,12 +6671,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="22" ht="20.1" customHeight="1" spans="3:61">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E22" s="7">
         <v>2000003</v>
@@ -6301,7 +6836,7 @@
         <v>70000011</v>
       </c>
       <c r="BF22" s="8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="BG22" s="8">
         <v>0</v>
@@ -6314,9 +6849,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -940,12 +940,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -985,6 +985,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -999,21 +1006,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,15 +1021,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,21 +1077,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1081,8 +1096,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1096,11 +1127,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1109,46 +1140,8 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="49">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1175,7 +1168,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,61 +1354,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,187 +1378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,8 +1483,64 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1542,7 +1549,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1562,376 +1569,320 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2000,29 +1951,29 @@
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
     <cellStyle name="标题 4" xfId="19" builtinId="19"/>
     <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="21"/>
-    <cellStyle name="标题" xfId="22" builtinId="15"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="22"/>
     <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
     <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="25"/>
-    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="26"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
     <cellStyle name="标题 3" xfId="28" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
     <cellStyle name="输出" xfId="30" builtinId="21"/>
     <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
-    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="37"/>
-    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="34"/>
+    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
+    <cellStyle name="注释 2 3" xfId="36"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="37" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="38" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
     <cellStyle name="汇总" xfId="40" builtinId="25"/>
     <cellStyle name="好" xfId="41" builtinId="26"/>
@@ -2046,14 +1997,14 @@
     <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
-    <cellStyle name="常规 2 3 2 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
+    <cellStyle name="常规 2 3 2 3" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="64"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
-    <cellStyle name="常规 3" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
-    <cellStyle name="常规 4" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="66"/>
+    <cellStyle name="常规 3" xfId="67"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="68"/>
+    <cellStyle name="常规 4" xfId="69"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
@@ -3236,10 +3187,10 @@
   <sheetPr/>
   <dimension ref="C1:BI22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AR22" sqref="AR22"/>
+      <selection pane="bottomLeft" activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3930,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ6" s="8">
         <v>1</v>
@@ -4109,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ7" s="8">
         <v>1</v>
@@ -4288,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ8" s="8">
         <v>1</v>
@@ -4467,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ9" s="8">
         <v>1</v>
@@ -4646,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="AP10" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ10" s="8">
         <v>1</v>
@@ -4825,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ11" s="8">
         <v>1</v>
@@ -5004,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ12" s="8">
         <v>1</v>
@@ -5183,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ13" s="8">
         <v>1</v>
@@ -5362,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ14" s="8">
         <v>1</v>
@@ -5541,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ15" s="8">
         <v>1</v>
@@ -5720,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ16" s="8">
         <v>1</v>
@@ -5899,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ17" s="8">
         <v>1</v>
@@ -6078,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ18" s="8">
         <v>1</v>
@@ -6257,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ19" s="8">
         <v>1</v>
@@ -6436,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ20" s="8">
         <v>1</v>
@@ -6613,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ21" s="8">
         <v>1</v>
@@ -6790,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ22" s="8">
         <v>1</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB58897A-CCF6-4292-BAC6-B01925F7B3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="2340" yWindow="1905" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -14,21 +20,21 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -36,6 +42,132 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>用于宠物界面展示的位置</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">在摄像机前修正位置
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：普通
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：变异
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：神兽</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>51Gamer_D01:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,138 +177,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>用于宠物界面展示的位置</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">在摄像机前修正位置
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：普通
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：变异
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：神兽</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>51Gamer_D01:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -186,7 +201,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -196,6 +211,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -206,7 +222,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0</t>
         </r>
@@ -215,6 +231,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -225,7 +242,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -234,6 +251,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -244,7 +262,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -253,6 +271,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -263,7 +282,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -272,19 +291,21 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0">
+    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -295,6 +316,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -303,6 +325,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -310,13 +333,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0">
+    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -325,6 +349,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -334,19 +359,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1">
+    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -355,6 +382,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -364,6 +392,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -375,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -938,14 +967,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -956,6 +979,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -963,185 +987,82 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,73 +1089,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79985961485641"/>
+        <fgColor theme="5" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641"/>
+        <fgColor theme="9" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
+        <fgColor theme="4" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,150 +1119,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79985961485641"/>
+        <fgColor theme="6" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79985961485641"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1480,30 +1257,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1518,273 +1271,70 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1796,55 +1346,55 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1876,17 +1426,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1930,118 +1480,71 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="58">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="常规 5 2" xfId="22"/>
-    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="常规 5 2 2" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
-    <cellStyle name="输出" xfId="30" builtinId="21"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="34"/>
-    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
-    <cellStyle name="注释 2 3" xfId="36"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="37" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="38" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
-    <cellStyle name="汇总" xfId="40" builtinId="25"/>
-    <cellStyle name="好" xfId="41" builtinId="26"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
-    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="62"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="66"/>
-    <cellStyle name="常规 3" xfId="67"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="68"/>
-    <cellStyle name="常规 4" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
-    <cellStyle name="常规 2" xfId="92"/>
-    <cellStyle name="常规 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3" xfId="94"/>
-    <cellStyle name="常规 2 3 2" xfId="95"/>
-    <cellStyle name="常规 2 3 2 2" xfId="96"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
-    <cellStyle name="常规 2 3 3" xfId="98"/>
-    <cellStyle name="常规 2 3 3 2" xfId="99"/>
-    <cellStyle name="常规 2 3 4" xfId="100"/>
-    <cellStyle name="常规 5" xfId="101"/>
-    <cellStyle name="常规 5 3" xfId="102"/>
-    <cellStyle name="注释 2" xfId="103"/>
-    <cellStyle name="注释 2 2" xfId="104"/>
-    <cellStyle name="注释 2 2 2" xfId="105"/>
+    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="常规 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -2111,6 +1614,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3179,17 +2690,16 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:BI22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:JP22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
@@ -3219,13 +2729,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
+    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="4:4">
+    <row r="2" spans="3:61" ht="13.5" customHeight="1">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:61">
+    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3404,7 +2914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:61">
+    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3583,7 +3093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:61">
+    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3762,7 +3272,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:61">
+    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3881,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ6" s="8">
         <v>1</v>
@@ -3941,7 +3451,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:61">
+    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
@@ -4060,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ7" s="8">
         <v>1</v>
@@ -4120,7 +3630,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:61">
+    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
@@ -4239,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ8" s="8">
         <v>1</v>
@@ -4299,7 +3809,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:61">
+    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
@@ -4379,7 +3889,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -4418,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ9" s="8">
         <v>1</v>
@@ -4478,7 +3988,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:61">
+    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
@@ -4558,7 +4068,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4597,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="AP10" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ10" s="8">
         <v>1</v>
@@ -4657,7 +4167,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:61">
+    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
@@ -4737,7 +4247,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4776,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ11" s="8">
         <v>1</v>
@@ -4836,7 +4346,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:61">
+    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
@@ -4916,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD12" s="8">
         <v>5000</v>
@@ -4955,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ12" s="8">
         <v>1</v>
@@ -5015,7 +4525,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:61">
+    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
@@ -5095,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD13" s="8">
         <v>5000</v>
@@ -5134,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ13" s="8">
         <v>1</v>
@@ -5194,7 +4704,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:61">
+    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
@@ -5274,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD14" s="8">
         <v>5000</v>
@@ -5313,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ14" s="8">
         <v>1</v>
@@ -5373,7 +4883,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:61">
+    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
@@ -5492,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ15" s="8">
         <v>1</v>
@@ -5552,7 +5062,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:61">
+    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
@@ -5671,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ16" s="8">
         <v>1</v>
@@ -5731,7 +5241,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:61">
+    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
@@ -5850,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ17" s="8">
         <v>1</v>
@@ -5910,7 +5420,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:61">
+    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
@@ -6029,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ18" s="8">
         <v>1</v>
@@ -6089,7 +5599,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:61">
+    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
@@ -6208,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ19" s="8">
         <v>1</v>
@@ -6268,7 +5778,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:61">
+    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
@@ -6387,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ20" s="8">
         <v>1</v>
@@ -6445,7 +5955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:61">
+    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
@@ -6564,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ21" s="8">
         <v>1</v>
@@ -6622,7 +6132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:61">
+    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
@@ -6741,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ22" s="8">
         <v>1</v>
@@ -6800,11 +6310,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB58897A-CCF6-4292-BAC6-B01925F7B3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1905" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -20,21 +14,21 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -42,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -51,7 +45,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用于宠物界面展示的位置</t>
@@ -60,7 +53,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -68,7 +61,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">在摄像机前修正位置
@@ -76,14 +68,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -91,7 +83,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -100,7 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -108,7 +100,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：普通
@@ -118,7 +109,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -126,7 +117,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：变异
@@ -136,7 +126,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -144,21 +134,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：神兽</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -167,7 +155,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -177,21 +164,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -201,7 +186,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -211,7 +196,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -222,7 +206,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -231,7 +215,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -242,7 +225,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -251,7 +234,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -262,7 +244,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -271,7 +253,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -282,7 +263,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -291,21 +272,19 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AY3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -316,7 +295,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -325,7 +303,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -333,14 +310,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AZ3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -349,7 +325,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -359,21 +334,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="BF3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -382,7 +355,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -392,7 +364,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -404,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
   <si>
     <t>Id</t>
   </si>
@@ -949,7 +920,7 @@
     <t>神兽:精灵麋鹿</t>
   </si>
   <si>
-    <t>80002019;80002017;80002016;80002014;80002010;80002023;80002009;80002008</t>
+    <t>80004001;80002019;80002016;80002014;80002010;80002023;80002009;80002008</t>
   </si>
   <si>
     <t>神兽:幽光晴晴</t>
@@ -967,8 +938,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -979,7 +956,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -987,82 +963,192 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1089,25 +1175,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79982909634693444"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79982909634693444"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79982909634693444"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,54 +1241,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79982909634693444"/>
+        <fgColor theme="6" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79982909634693444"/>
+        <fgColor theme="8" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79982909634693444"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1257,6 +1529,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1271,172 +1587,355 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1480,71 +1979,118 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+  <cellStyles count="106">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="常规 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8"/>
+    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="常规 5 2" xfId="21"/>
+    <cellStyle name="标题" xfId="22" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
+    <cellStyle name="常规 5 2 2" xfId="25"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
+    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
+    <cellStyle name="注释 2 3" xfId="37"/>
+    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
+    <cellStyle name="汇总" xfId="40" builtinId="25"/>
+    <cellStyle name="好" xfId="41" builtinId="26"/>
+    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
+    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
+    <cellStyle name="常规 2 3 2 3" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
+    <cellStyle name="常规 3" xfId="66"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
+    <cellStyle name="常规 4" xfId="68"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
+    <cellStyle name="常规 2" xfId="92"/>
+    <cellStyle name="常规 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3" xfId="94"/>
+    <cellStyle name="常规 2 3 2" xfId="95"/>
+    <cellStyle name="常规 2 3 2 2" xfId="96"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
+    <cellStyle name="常规 2 3 3" xfId="98"/>
+    <cellStyle name="常规 2 3 3 2" xfId="99"/>
+    <cellStyle name="常规 2 3 4" xfId="100"/>
+    <cellStyle name="常规 5" xfId="101"/>
+    <cellStyle name="常规 5 3" xfId="102"/>
+    <cellStyle name="注释 2" xfId="103"/>
+    <cellStyle name="注释 2 2" xfId="104"/>
+    <cellStyle name="注释 2 2 2" xfId="105"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -1614,14 +2160,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2690,17 +3228,18 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C1:BI22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP9" sqref="AP9"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="BF20" sqref="BF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2729,13 +3268,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="3:61" ht="13.5" customHeight="1">
+    <row r="2" customHeight="1" spans="4:4">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="3" ht="20.1" customHeight="1" spans="3:61">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2914,7 +3453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="4" ht="20.1" customHeight="1" spans="3:61">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3093,7 +3632,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="5" ht="20.1" customHeight="1" spans="3:61">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3272,7 +3811,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="6" ht="20.1" customHeight="1" spans="3:61">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3451,7 +3990,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="7" ht="20.1" customHeight="1" spans="3:61">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
@@ -3630,7 +4169,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="8" ht="20.1" customHeight="1" spans="3:61">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
@@ -3809,7 +4348,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="9" ht="20.1" customHeight="1" spans="3:61">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
@@ -3889,7 +4428,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -3988,7 +4527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="10" ht="20.1" customHeight="1" spans="3:61">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
@@ -4068,7 +4607,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4167,7 +4706,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="11" ht="20.1" customHeight="1" spans="3:61">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
@@ -4247,7 +4786,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4346,7 +4885,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="12" ht="20.1" customHeight="1" spans="3:61">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
@@ -4426,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD12" s="8">
         <v>5000</v>
@@ -4525,7 +5064,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="13" ht="20.1" customHeight="1" spans="3:61">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
@@ -4605,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD13" s="8">
         <v>5000</v>
@@ -4704,7 +5243,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="14" ht="20.1" customHeight="1" spans="3:61">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
@@ -4784,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD14" s="8">
         <v>5000</v>
@@ -4883,7 +5422,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="15" ht="20.1" customHeight="1" spans="3:61">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
@@ -5062,7 +5601,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="16" ht="20.1" customHeight="1" spans="3:61">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
@@ -5241,7 +5780,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="17" ht="20.1" customHeight="1" spans="3:61">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
@@ -5420,7 +5959,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="18" ht="20.1" customHeight="1" spans="3:61">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
@@ -5599,7 +6138,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="19" ht="20.1" customHeight="1" spans="3:61">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
@@ -5778,7 +6317,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="20" ht="20.1" customHeight="1" spans="3:61">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
@@ -5955,7 +6494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="3:61">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
@@ -6132,7 +6671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="22" ht="20.1" customHeight="1" spans="3:61">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
@@ -6310,12 +6849,11 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -940,12 +940,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -985,10 +985,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1006,9 +1013,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,6 +1056,52 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1038,46 +1121,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1090,65 +1136,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1175,61 +1168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,79 +1186,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,7 +1210,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,7 +1324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,25 +1336,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,13 +1360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,37 +1378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799829096346934"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,26 +1480,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1564,15 +1495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1584,6 +1506,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1611,327 +1577,312 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2000,29 +1951,29 @@
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
     <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
     <cellStyle name="标题 4" xfId="19" builtinId="19"/>
     <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="21"/>
-    <cellStyle name="标题" xfId="22" builtinId="15"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="22"/>
     <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
     <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="25"/>
-    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="常规 5 2 2" xfId="26"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
     <cellStyle name="标题 3" xfId="28" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
     <cellStyle name="输出" xfId="30" builtinId="21"/>
     <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
-    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="37"/>
-    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="34"/>
+    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
+    <cellStyle name="注释 2 3" xfId="36"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="37" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="38" builtinId="33"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
     <cellStyle name="汇总" xfId="40" builtinId="25"/>
     <cellStyle name="好" xfId="41" builtinId="26"/>
@@ -2046,14 +1997,14 @@
     <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
-    <cellStyle name="常规 2 3 2 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
+    <cellStyle name="常规 2 3 2 3" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="64"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
-    <cellStyle name="常规 3" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
-    <cellStyle name="常规 4" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="66"/>
+    <cellStyle name="常规 3" xfId="67"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="68"/>
+    <cellStyle name="常规 4" xfId="69"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
@@ -3236,10 +3187,10 @@
   <sheetPr/>
   <dimension ref="C1:BI22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BF20" sqref="BF20"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C95C25-CA4B-4916-9B8E-B012369C6D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -14,21 +20,21 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -36,6 +42,132 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>用于宠物界面展示的位置</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">在摄像机前修正位置
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：普通
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：变异
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：神兽</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>51Gamer_D01:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,138 +177,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>用于宠物界面展示的位置</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">在摄像机前修正位置
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：普通
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：变异
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：神兽</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>51Gamer_D01:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -186,7 +201,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -196,6 +211,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -206,7 +222,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0</t>
         </r>
@@ -215,6 +231,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -225,7 +242,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -234,6 +251,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -244,7 +262,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -253,6 +271,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -263,7 +282,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -272,19 +291,21 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0">
+    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -295,6 +316,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -303,6 +325,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -310,13 +333,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0">
+    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -325,6 +349,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -334,19 +359,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1">
+    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -355,6 +382,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -364,6 +392,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -375,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -938,14 +967,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -956,6 +979,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -963,185 +987,82 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,228 +1089,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799829096346934"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799829096346934"/>
+        <fgColor theme="9" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1481,21 +1258,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1509,384 +1271,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1930,118 +1480,71 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="58">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="常规 5 2" xfId="22"/>
-    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="常规 5 2 2" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
-    <cellStyle name="输出" xfId="30" builtinId="21"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="34"/>
-    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
-    <cellStyle name="注释 2 3" xfId="36"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="37" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="38" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
-    <cellStyle name="汇总" xfId="40" builtinId="25"/>
-    <cellStyle name="好" xfId="41" builtinId="26"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
-    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="常规 2 3 2 3" xfId="62"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="66"/>
-    <cellStyle name="常规 3" xfId="67"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="68"/>
-    <cellStyle name="常规 4" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
-    <cellStyle name="常规 2" xfId="92"/>
-    <cellStyle name="常规 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3" xfId="94"/>
-    <cellStyle name="常规 2 3 2" xfId="95"/>
-    <cellStyle name="常规 2 3 2 2" xfId="96"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
-    <cellStyle name="常规 2 3 3" xfId="98"/>
-    <cellStyle name="常规 2 3 3 2" xfId="99"/>
-    <cellStyle name="常规 2 3 4" xfId="100"/>
-    <cellStyle name="常规 5" xfId="101"/>
-    <cellStyle name="常规 5 3" xfId="102"/>
-    <cellStyle name="注释 2" xfId="103"/>
-    <cellStyle name="注释 2 2" xfId="104"/>
-    <cellStyle name="注释 2 2 2" xfId="105"/>
+    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="常规 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -2111,6 +1614,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3179,18 +2690,17 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:BI22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3219,13 +2729,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
+    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="4:4">
+    <row r="2" spans="3:61" ht="13.5" customHeight="1">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:61">
+    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3404,7 +2914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:61">
+    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3583,7 +3093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:61">
+    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3762,7 +3272,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:61">
+    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3881,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ6" s="8">
         <v>1</v>
@@ -3941,7 +3451,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:61">
+    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
@@ -4060,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ7" s="8">
         <v>1</v>
@@ -4120,7 +3630,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:61">
+    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
@@ -4239,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ8" s="8">
         <v>1</v>
@@ -4299,7 +3809,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:61">
+    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
@@ -4379,7 +3889,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -4418,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ9" s="8">
         <v>1</v>
@@ -4478,7 +3988,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:61">
+    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
@@ -4558,7 +4068,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4597,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="AP10" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ10" s="8">
         <v>1</v>
@@ -4657,7 +4167,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:61">
+    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
@@ -4737,7 +4247,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4776,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ11" s="8">
         <v>1</v>
@@ -4836,7 +4346,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:61">
+    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
@@ -4916,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD12" s="8">
         <v>5000</v>
@@ -4955,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="AP12" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" s="8">
         <v>1</v>
@@ -5015,7 +4525,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:61">
+    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
@@ -5095,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD13" s="8">
         <v>5000</v>
@@ -5134,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ13" s="8">
         <v>1</v>
@@ -5194,7 +4704,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:61">
+    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
@@ -5274,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD14" s="8">
         <v>5000</v>
@@ -5313,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ14" s="8">
         <v>1</v>
@@ -5373,7 +4883,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:61">
+    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
@@ -5492,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ15" s="8">
         <v>1</v>
@@ -5552,7 +5062,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:61">
+    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
@@ -5671,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ16" s="8">
         <v>1</v>
@@ -5731,7 +5241,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:61">
+    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
@@ -5850,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ17" s="8">
         <v>1</v>
@@ -5910,7 +5420,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:61">
+    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
@@ -6029,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ18" s="8">
         <v>1</v>
@@ -6089,7 +5599,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:61">
+    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
@@ -6208,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ19" s="8">
         <v>1</v>
@@ -6268,7 +5778,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:61">
+    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
@@ -6387,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ20" s="8">
         <v>1</v>
@@ -6445,7 +5955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:61">
+    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
@@ -6564,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ21" s="8">
         <v>1</v>
@@ -6622,7 +6132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:61">
+    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
@@ -6741,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ22" s="8">
         <v>1</v>
@@ -6800,11 +6310,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C95C25-CA4B-4916-9B8E-B012369C6D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -20,21 +14,21 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -42,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -51,7 +45,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>用于宠物界面展示的位置</t>
@@ -60,7 +53,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -68,7 +61,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">在摄像机前修正位置
@@ -76,14 +68,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -91,7 +83,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -100,7 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -108,7 +100,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：普通
@@ -118,7 +109,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -126,7 +117,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：变异
@@ -136,7 +126,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -144,21 +134,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：神兽</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -167,7 +155,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -177,21 +164,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O3" authorId="2">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -201,7 +186,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -211,7 +196,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -222,7 +206,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0</t>
         </r>
@@ -231,7 +215,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -242,7 +225,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -251,7 +234,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -262,7 +244,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -271,7 +253,6 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -282,7 +263,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -291,21 +272,19 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AY3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -316,7 +295,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -325,7 +303,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -333,14 +310,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AZ3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -349,7 +325,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -359,21 +334,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="BF3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -382,7 +355,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -392,7 +364,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -404,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
   <si>
     <t>Id</t>
   </si>
@@ -967,8 +938,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -979,7 +956,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -987,82 +963,192 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1089,84 +1175,270 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79979857783745845"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79979857783745845"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79979857783745845"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79979857783745845"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79979857783745845"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79979857783745845"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799798577837458"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1271,172 +1543,399 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1480,71 +1979,118 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+  <cellStyles count="106">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="常规 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="常规 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8"/>
+    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="常规 5 2" xfId="21"/>
+    <cellStyle name="标题" xfId="22" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
+    <cellStyle name="常规 5 2 2" xfId="25"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
+    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
+    <cellStyle name="注释 2 3" xfId="37"/>
+    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
+    <cellStyle name="汇总" xfId="40" builtinId="25"/>
+    <cellStyle name="好" xfId="41" builtinId="26"/>
+    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
+    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
+    <cellStyle name="常规 2 3 2 3" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
+    <cellStyle name="常规 3" xfId="66"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
+    <cellStyle name="常规 4" xfId="68"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
+    <cellStyle name="常规 2" xfId="92"/>
+    <cellStyle name="常规 2 2" xfId="93"/>
+    <cellStyle name="常规 2 3" xfId="94"/>
+    <cellStyle name="常规 2 3 2" xfId="95"/>
+    <cellStyle name="常规 2 3 2 2" xfId="96"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
+    <cellStyle name="常规 2 3 3" xfId="98"/>
+    <cellStyle name="常规 2 3 3 2" xfId="99"/>
+    <cellStyle name="常规 2 3 4" xfId="100"/>
+    <cellStyle name="常规 5" xfId="101"/>
+    <cellStyle name="常规 5 3" xfId="102"/>
+    <cellStyle name="注释 2" xfId="103"/>
+    <cellStyle name="注释 2 2" xfId="104"/>
+    <cellStyle name="注释 2 2 2" xfId="105"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -1614,14 +2160,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2690,17 +3228,18 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C1:BI22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP16" sqref="AP16"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2729,13 +3268,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="3:61" ht="13.5" customHeight="1">
+    <row r="2" customHeight="1" spans="4:4">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="3" ht="20.1" customHeight="1" spans="3:61">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2914,7 +3453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="4" ht="20.1" customHeight="1" spans="3:61">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3093,7 +3632,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="5" ht="20.1" customHeight="1" spans="3:61">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3272,7 +3811,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="6" ht="20.1" customHeight="1" spans="3:61">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3451,7 +3990,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="7" ht="20.1" customHeight="1" spans="3:61">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
@@ -3630,7 +4169,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="8" ht="20.1" customHeight="1" spans="3:61">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
@@ -3809,7 +4348,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="9" ht="20.1" customHeight="1" spans="3:61">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
@@ -3889,7 +4428,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -3988,7 +4527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="10" ht="20.1" customHeight="1" spans="3:61">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
@@ -4068,7 +4607,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4167,7 +4706,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="11" ht="20.1" customHeight="1" spans="3:61">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
@@ -4247,7 +4786,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4346,7 +4885,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="12" ht="20.1" customHeight="1" spans="3:61">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
@@ -4426,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD12" s="8">
         <v>5000</v>
@@ -4525,7 +5064,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="13" ht="20.1" customHeight="1" spans="3:61">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
@@ -4605,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD13" s="8">
         <v>5000</v>
@@ -4704,7 +5243,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="14" ht="20.1" customHeight="1" spans="3:61">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
@@ -4784,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AD14" s="8">
         <v>5000</v>
@@ -4883,7 +5422,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="15" ht="20.1" customHeight="1" spans="3:61">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
@@ -5062,7 +5601,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="16" ht="20.1" customHeight="1" spans="3:61">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
@@ -5241,7 +5780,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="17" ht="20.1" customHeight="1" spans="3:61">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
@@ -5420,7 +5959,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="18" ht="20.1" customHeight="1" spans="3:61">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
@@ -5599,7 +6138,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="19" ht="20.1" customHeight="1" spans="3:61">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
@@ -5778,7 +6317,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="20" ht="20.1" customHeight="1" spans="3:61">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
@@ -5955,7 +6494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="3:61">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
@@ -6132,7 +6671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
+    <row r="22" ht="20.1" customHeight="1" spans="3:61">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
@@ -6310,12 +6849,11 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0F6DD1-39EE-4EBE-A3B6-8EF0130F3843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -14,21 +20,21 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>51Gamer_D01</author>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Administrator:</t>
         </r>
@@ -36,6 +42,132 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>用于宠物界面展示的位置</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">在摄像机前修正位置
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：普通
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：变异
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：神兽</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>51Gamer_D01:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,138 +177,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>用于宠物界面展示的位置</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">在摄像机前修正位置
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：普通
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：变异
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：神兽</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>51Gamer_D01:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>此字段是玩家用来召唤宠物时,宠物的当前等级</t>
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -186,7 +201,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -196,6 +211,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物类型
@@ -206,7 +222,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0</t>
         </r>
@@ -215,6 +231,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：通用
@@ -225,7 +242,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -234,6 +251,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：野兽
@@ -244,7 +262,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2</t>
         </r>
@@ -253,6 +271,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：人物
@@ -263,7 +282,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>3</t>
         </r>
@@ -272,19 +291,21 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：恶魔</t>
         </r>
       </text>
     </comment>
-    <comment ref="AY3" authorId="0">
+    <comment ref="AY3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Administrator:
@@ -295,6 +316,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>当与玩家超过这个范围就返回</t>
@@ -303,6 +325,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -310,13 +333,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ3" authorId="0">
+    <comment ref="AZ3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -325,6 +349,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -334,19 +359,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以后改宠物主动攻击模式和被动攻击模式可能会用到</t>
         </r>
       </text>
     </comment>
-    <comment ref="BF3" authorId="1">
+    <comment ref="BF3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>51Gamer_D01:</t>
@@ -355,6 +382,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -364,6 +392,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ; 号间隔符</t>
@@ -375,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -938,14 +967,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -956,6 +979,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -963,192 +987,82 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="49">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1175,25 +1089,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,240 +1125,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799798577837458"/>
+        <fgColor theme="9" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1543,399 +1271,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1979,118 +1480,71 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="58">
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="10"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="14"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="注释" xfId="17" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="常规 5 2" xfId="21"/>
-    <cellStyle name="标题" xfId="22" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
-    <cellStyle name="常规 5 2 2" xfId="25"/>
-    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
-    <cellStyle name="输出" xfId="30" builtinId="21"/>
-    <cellStyle name="计算" xfId="31" builtinId="22"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="32"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="33"/>
-    <cellStyle name="检查单元格" xfId="34" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
-    <cellStyle name="注释 2 3" xfId="37"/>
-    <cellStyle name="链接单元格" xfId="38" builtinId="24"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="39"/>
-    <cellStyle name="汇总" xfId="40" builtinId="25"/>
-    <cellStyle name="好" xfId="41" builtinId="26"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="49" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="50" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="51"/>
-    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="54" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="55" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="56" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="57" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="58" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="59" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="62"/>
-    <cellStyle name="常规 2 3 2 3" xfId="63"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="64"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="65"/>
-    <cellStyle name="常规 3" xfId="66"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="67"/>
-    <cellStyle name="常规 4" xfId="68"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="69"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="70"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="71"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="72"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="73"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="74"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="75"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="76"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="77"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="78"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="79"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="80"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="81"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="82"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="83"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="84"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="85"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="86"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="87"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="88"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="89"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="90"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="91"/>
-    <cellStyle name="常规 2" xfId="92"/>
-    <cellStyle name="常规 2 2" xfId="93"/>
-    <cellStyle name="常规 2 3" xfId="94"/>
-    <cellStyle name="常规 2 3 2" xfId="95"/>
-    <cellStyle name="常规 2 3 2 2" xfId="96"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="97"/>
-    <cellStyle name="常规 2 3 3" xfId="98"/>
-    <cellStyle name="常规 2 3 3 2" xfId="99"/>
-    <cellStyle name="常规 2 3 4" xfId="100"/>
-    <cellStyle name="常规 5" xfId="101"/>
-    <cellStyle name="常规 5 3" xfId="102"/>
-    <cellStyle name="注释 2" xfId="103"/>
-    <cellStyle name="注释 2 2" xfId="104"/>
-    <cellStyle name="注释 2 2 2" xfId="105"/>
+    <cellStyle name="常规 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 2 3 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 2 3 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 2 3 3 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="常规 5" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 5 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="注释 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="注释 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="注释 2 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="注释 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -2160,6 +1614,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3228,18 +2690,17 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:BI22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="AR22" sqref="AR22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3268,13 +2729,13 @@
     <col min="62" max="276" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="3:3">
+    <row r="1" spans="3:61" s="1" customFormat="1" ht="14.25">
       <c r="C1" s="3"/>
     </row>
-    <row r="2" customHeight="1" spans="4:4">
+    <row r="2" spans="3:61" ht="13.5" customHeight="1">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:61">
+    <row r="3" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3453,7 +2914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:61">
+    <row r="4" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3632,7 +3093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:61">
+    <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
@@ -3811,7 +3272,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:61">
+    <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="7">
         <v>1000101</v>
       </c>
@@ -3990,7 +3451,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:61">
+    <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="7">
         <v>1000201</v>
       </c>
@@ -4169,7 +3630,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:61">
+    <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="7">
         <v>1000301</v>
       </c>
@@ -4348,7 +3809,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:61">
+    <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="7">
         <v>1000401</v>
       </c>
@@ -4428,7 +3889,7 @@
         <v>0.95</v>
       </c>
       <c r="AC9" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD9" s="8">
         <v>5000</v>
@@ -4527,7 +3988,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:61">
+    <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="7">
         <v>1000501</v>
       </c>
@@ -4607,7 +4068,7 @@
         <v>0.95</v>
       </c>
       <c r="AC10" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD10" s="8">
         <v>5000</v>
@@ -4706,7 +4167,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:61">
+    <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="7">
         <v>1000601</v>
       </c>
@@ -4786,7 +4247,7 @@
         <v>0.95</v>
       </c>
       <c r="AC11" s="8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD11" s="8">
         <v>5000</v>
@@ -4885,7 +4346,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:61">
+    <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="7">
         <v>1000701</v>
       </c>
@@ -4965,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD12" s="8">
         <v>5000</v>
@@ -5064,7 +4525,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:61">
+    <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="7">
         <v>1000801</v>
       </c>
@@ -5144,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD13" s="8">
         <v>5000</v>
@@ -5243,7 +4704,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:61">
+    <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="7">
         <v>1000901</v>
       </c>
@@ -5323,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="AC14" s="8">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AD14" s="8">
         <v>5000</v>
@@ -5422,7 +4883,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:61">
+    <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="7">
         <v>1001001</v>
       </c>
@@ -5601,7 +5062,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:61">
+    <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="7">
         <v>1001101</v>
       </c>
@@ -5780,7 +5241,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:61">
+    <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="7">
         <v>1001201</v>
       </c>
@@ -5959,7 +5420,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:61">
+    <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="7">
         <v>1001301</v>
       </c>
@@ -6138,7 +5599,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:61">
+    <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C19" s="7">
         <v>1001401</v>
       </c>
@@ -6317,7 +5778,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:61">
+    <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7">
         <v>2000001</v>
       </c>
@@ -6494,7 +5955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:61">
+    <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="7">
         <v>2000002</v>
       </c>
@@ -6671,7 +6132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:61">
+    <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="7">
         <v>2000003</v>
       </c>
@@ -6796,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="AR22" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AS22" s="8">
         <v>132</v>
@@ -6849,11 +6310,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0F6DD1-39EE-4EBE-A3B6-8EF0130F3843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC7D464-15DE-416E-A3A4-76F684D3FDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="187">
   <si>
     <t>Id</t>
   </si>
@@ -676,292 +676,297 @@
     <t>Base_MoveSpeed</t>
   </si>
   <si>
+    <t>ActDistance</t>
+  </si>
+  <si>
+    <t>Lv_Hp</t>
+  </si>
+  <si>
+    <t>Lv_Act</t>
+  </si>
+  <si>
+    <t>Lv_MageAct</t>
+  </si>
+  <si>
+    <t>Lv_Def</t>
+  </si>
+  <si>
+    <t>Lv_Adf</t>
+  </si>
+  <si>
+    <t>PatrolRange</t>
+  </si>
+  <si>
+    <t>ChaseRange</t>
+  </si>
+  <si>
+    <t>ActRunRange</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>SelectSize</t>
+  </si>
+  <si>
+    <t>ReleaseReward</t>
+  </si>
+  <si>
+    <t>ZhuanZhuSkillID</t>
+  </si>
+  <si>
+    <t>ActSkillID</t>
+  </si>
+  <si>
+    <t>BaseSkillID</t>
+  </si>
+  <si>
+    <t>RandomSkillID</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>SkinPro</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>小鸭鸭</t>
+  </si>
+  <si>
+    <t>0,0,0,-45</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>10000131,2</t>
+  </si>
+  <si>
+    <t>80001001</t>
+  </si>
+  <si>
+    <t>80001010;80001014;80001015</t>
+  </si>
+  <si>
+    <t>10101,10102</t>
+  </si>
+  <si>
+    <t>75,25</t>
+  </si>
+  <si>
+    <t>小松鼠</t>
+  </si>
+  <si>
+    <t>80001002;80001013</t>
+  </si>
+  <si>
+    <t>80001009;80001018</t>
+  </si>
+  <si>
+    <t>20101,20102</t>
+  </si>
+  <si>
+    <t>小灰狼</t>
+  </si>
+  <si>
+    <t>80001018</t>
+  </si>
+  <si>
+    <t>80001012;80001004;80001007</t>
+  </si>
+  <si>
+    <t>30101,30102</t>
+  </si>
+  <si>
+    <t>仙人掌</t>
+  </si>
+  <si>
+    <t>80001004;80001023</t>
+  </si>
+  <si>
+    <t>80001004;80002007;80001008</t>
+  </si>
+  <si>
+    <t>40101,40102,40103,40104</t>
+  </si>
+  <si>
+    <t>40,30,20,10</t>
+  </si>
+  <si>
+    <t>团团</t>
+  </si>
+  <si>
+    <t>10000131,5</t>
+  </si>
+  <si>
+    <t>80001005;80001019</t>
+  </si>
+  <si>
+    <t>80001017;80001008;80001021</t>
+  </si>
+  <si>
+    <t>50101,50102,50103,50104</t>
+  </si>
+  <si>
+    <t>企鹅</t>
+  </si>
+  <si>
+    <t>80001015;80001010;80002006</t>
+  </si>
+  <si>
+    <t>60101,60102,60103</t>
+  </si>
+  <si>
+    <t>60,20,20</t>
+  </si>
+  <si>
+    <t>蛇蛇</t>
+  </si>
+  <si>
+    <t>80001007;80001005</t>
+  </si>
+  <si>
+    <t>80001006;80002018;80001022</t>
+  </si>
+  <si>
+    <t>70101,70102,70103,70104</t>
+  </si>
+  <si>
+    <t>萝卜头</t>
+  </si>
+  <si>
+    <t>80001008;80001020</t>
+  </si>
+  <si>
+    <t>80001011;80002015;80001024</t>
+  </si>
+  <si>
+    <t>80101,80102</t>
+  </si>
+  <si>
+    <t>雷霆猪</t>
+  </si>
+  <si>
+    <t>80001009;80001002</t>
+  </si>
+  <si>
+    <t>80002001;80001014;80001028;80002022</t>
+  </si>
+  <si>
+    <t>90101,90102,90103,90104</t>
+  </si>
+  <si>
+    <t>50,30,15,5</t>
+  </si>
+  <si>
+    <t>乌贼女士</t>
+  </si>
+  <si>
+    <t>10000131,10</t>
+  </si>
+  <si>
+    <t>80001010;80001001</t>
+  </si>
+  <si>
+    <t>80001002;80002001;80001023;80002019</t>
+  </si>
+  <si>
+    <t>100101,100102,100103,100104</t>
+  </si>
+  <si>
+    <t>魔法精灵</t>
+  </si>
+  <si>
+    <t>80001011;80001003</t>
+  </si>
+  <si>
+    <t>80001015;80002002;80001027;80002021</t>
+  </si>
+  <si>
+    <t>110101,110102,110103</t>
+  </si>
+  <si>
+    <t>50,35,15</t>
+  </si>
+  <si>
+    <t>魔法娃娃</t>
+  </si>
+  <si>
+    <t>80001012;80002025</t>
+  </si>
+  <si>
+    <t>80002010;80002003;80001026;80002027</t>
+  </si>
+  <si>
+    <t>120101,120102,120103</t>
+  </si>
+  <si>
+    <t>60,30,10</t>
+  </si>
+  <si>
+    <t>淘气包</t>
+  </si>
+  <si>
+    <t>80001006;80002018</t>
+  </si>
+  <si>
+    <t>80002004;80002016;80001028;80002023</t>
+  </si>
+  <si>
+    <t>130101,130102,130103,130104</t>
+  </si>
+  <si>
+    <t>20,35,35,10</t>
+  </si>
+  <si>
+    <t>光明天使</t>
+  </si>
+  <si>
+    <t>80001014;80002021</t>
+  </si>
+  <si>
+    <t>80002009;80002013;80001025;80002003</t>
+  </si>
+  <si>
+    <t>140101,140102,140103</t>
+  </si>
+  <si>
+    <t>神兽:精灵麋鹿</t>
+  </si>
+  <si>
+    <t>80004001;80002019;80002016;80002014;80002010;80002023;80002009;80002008</t>
+  </si>
+  <si>
+    <t>神兽:幽光晴晴</t>
+  </si>
+  <si>
+    <t>80004002;80002021;80002002;80002003;80002025;80002014;80002024;80002027</t>
+  </si>
+  <si>
+    <t>神兽:仙界魔龙</t>
+  </si>
+  <si>
+    <t>80004003;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>Base_ActSpeed</t>
-  </si>
-  <si>
-    <t>ActDistance</t>
-  </si>
-  <si>
-    <t>Lv_Hp</t>
-  </si>
-  <si>
-    <t>Lv_Act</t>
-  </si>
-  <si>
-    <t>Lv_MageAct</t>
-  </si>
-  <si>
-    <t>Lv_Def</t>
-  </si>
-  <si>
-    <t>Lv_Adf</t>
-  </si>
-  <si>
-    <t>PatrolRange</t>
-  </si>
-  <si>
-    <t>ChaseRange</t>
-  </si>
-  <si>
-    <t>ActRunRange</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>SelectSize</t>
-  </si>
-  <si>
-    <t>ReleaseReward</t>
-  </si>
-  <si>
-    <t>ZhuanZhuSkillID</t>
-  </si>
-  <si>
-    <t>ActSkillID</t>
-  </si>
-  <si>
-    <t>BaseSkillID</t>
-  </si>
-  <si>
-    <t>RandomSkillID</t>
-  </si>
-  <si>
-    <t>Skin</t>
-  </si>
-  <si>
-    <t>SkinPro</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>小鸭鸭</t>
-  </si>
-  <si>
-    <t>0,0,0,-45</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>10000131,2</t>
-  </si>
-  <si>
-    <t>80001001</t>
-  </si>
-  <si>
-    <t>80001010;80001014;80001015</t>
-  </si>
-  <si>
-    <t>10101,10102</t>
-  </si>
-  <si>
-    <t>75,25</t>
-  </si>
-  <si>
-    <t>小松鼠</t>
-  </si>
-  <si>
-    <t>80001002;80001013</t>
-  </si>
-  <si>
-    <t>80001009;80001018</t>
-  </si>
-  <si>
-    <t>20101,20102</t>
-  </si>
-  <si>
-    <t>小灰狼</t>
-  </si>
-  <si>
-    <t>80001018</t>
-  </si>
-  <si>
-    <t>80001012;80001004;80001007</t>
-  </si>
-  <si>
-    <t>30101,30102</t>
-  </si>
-  <si>
-    <t>仙人掌</t>
-  </si>
-  <si>
-    <t>80001004;80001023</t>
-  </si>
-  <si>
-    <t>80001004;80002007;80001008</t>
-  </si>
-  <si>
-    <t>40101,40102,40103,40104</t>
-  </si>
-  <si>
-    <t>40,30,20,10</t>
-  </si>
-  <si>
-    <t>团团</t>
-  </si>
-  <si>
-    <t>10000131,5</t>
-  </si>
-  <si>
-    <t>80001005;80001019</t>
-  </si>
-  <si>
-    <t>80001017;80001008;80001021</t>
-  </si>
-  <si>
-    <t>50101,50102,50103,50104</t>
-  </si>
-  <si>
-    <t>企鹅</t>
-  </si>
-  <si>
-    <t>80001015;80001010;80002006</t>
-  </si>
-  <si>
-    <t>60101,60102,60103</t>
-  </si>
-  <si>
-    <t>60,20,20</t>
-  </si>
-  <si>
-    <t>蛇蛇</t>
-  </si>
-  <si>
-    <t>80001007;80001005</t>
-  </si>
-  <si>
-    <t>80001006;80002018;80001022</t>
-  </si>
-  <si>
-    <t>70101,70102,70103,70104</t>
-  </si>
-  <si>
-    <t>萝卜头</t>
-  </si>
-  <si>
-    <t>80001008;80001020</t>
-  </si>
-  <si>
-    <t>80001011;80002015;80001024</t>
-  </si>
-  <si>
-    <t>80101,80102</t>
-  </si>
-  <si>
-    <t>雷霆猪</t>
-  </si>
-  <si>
-    <t>80001009;80001002</t>
-  </si>
-  <si>
-    <t>80002001;80001014;80001028;80002022</t>
-  </si>
-  <si>
-    <t>90101,90102,90103,90104</t>
-  </si>
-  <si>
-    <t>50,30,15,5</t>
-  </si>
-  <si>
-    <t>乌贼女士</t>
-  </si>
-  <si>
-    <t>10000131,10</t>
-  </si>
-  <si>
-    <t>80001010;80001001</t>
-  </si>
-  <si>
-    <t>80001002;80002001;80001023;80002019</t>
-  </si>
-  <si>
-    <t>100101,100102,100103,100104</t>
-  </si>
-  <si>
-    <t>魔法精灵</t>
-  </si>
-  <si>
-    <t>80001011;80001003</t>
-  </si>
-  <si>
-    <t>80001015;80002002;80001027;80002021</t>
-  </si>
-  <si>
-    <t>110101,110102,110103</t>
-  </si>
-  <si>
-    <t>50,35,15</t>
-  </si>
-  <si>
-    <t>魔法娃娃</t>
-  </si>
-  <si>
-    <t>80001012;80002025</t>
-  </si>
-  <si>
-    <t>80002010;80002003;80001026;80002027</t>
-  </si>
-  <si>
-    <t>120101,120102,120103</t>
-  </si>
-  <si>
-    <t>60,30,10</t>
-  </si>
-  <si>
-    <t>淘气包</t>
-  </si>
-  <si>
-    <t>80001006;80002018</t>
-  </si>
-  <si>
-    <t>80002004;80002016;80001028;80002023</t>
-  </si>
-  <si>
-    <t>130101,130102,130103,130104</t>
-  </si>
-  <si>
-    <t>20,35,35,10</t>
-  </si>
-  <si>
-    <t>光明天使</t>
-  </si>
-  <si>
-    <t>80001014;80002021</t>
-  </si>
-  <si>
-    <t>80002009;80002013;80001025;80002003</t>
-  </si>
-  <si>
-    <t>140101,140102,140103</t>
-  </si>
-  <si>
-    <t>神兽:精灵麋鹿</t>
-  </si>
-  <si>
-    <t>80004001;80002019;80002016;80002014;80002010;80002023;80002009;80002008</t>
-  </si>
-  <si>
-    <t>神兽:幽光晴晴</t>
-  </si>
-  <si>
-    <t>80004002;80002021;80002002;80002003;80002025;80002014;80002024;80002027</t>
-  </si>
-  <si>
-    <t>神兽:仙界魔龙</t>
-  </si>
-  <si>
-    <t>80004003;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2698,9 +2703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR22" sqref="AR22"/>
+      <selection pane="bottomLeft" activeCell="AQ13" sqref="AQ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3036,240 +3041,240 @@
         <v>89</v>
       </c>
       <c r="AQ4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AS4" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AS4" s="9" t="s">
+      <c r="AT4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AT4" s="5" t="s">
+      <c r="AU4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AU4" s="5" t="s">
+      <c r="AV4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AV4" s="5" t="s">
+      <c r="AW4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AW4" s="5" t="s">
+      <c r="AX4" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AX4" s="11" t="s">
+      <c r="AY4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AY4" s="9" t="s">
+      <c r="AZ4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AZ4" s="11" t="s">
+      <c r="BA4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BA4" s="9" t="s">
+      <c r="BB4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="BB4" s="9" t="s">
+      <c r="BC4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BC4" s="5" t="s">
+      <c r="BD4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="BD4" s="9" t="s">
+      <c r="BE4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="BE4" s="9" t="s">
+      <c r="BF4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BF4" s="9" t="s">
+      <c r="BG4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="BG4" s="9" t="s">
+      <c r="BH4" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="BH4" s="9" t="s">
+      <c r="BI4" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="BI4" s="9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="N5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AS5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="BD5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="BE5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="BG5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="BI5" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AV5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA5" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BD5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BI5" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3277,7 +3282,7 @@
         <v>1000101</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="7">
         <v>1000101</v>
@@ -3289,22 +3294,22 @@
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="N6" s="7">
         <v>0</v>
@@ -3430,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="BC6" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BD6" s="8">
         <v>0</v>
@@ -3439,16 +3444,16 @@
         <v>70000011</v>
       </c>
       <c r="BF6" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG6" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="BG6" s="14" t="s">
+      <c r="BH6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="BH6" s="15" t="s">
+      <c r="BI6" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="BI6" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3456,7 +3461,7 @@
         <v>1000201</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="7">
         <v>1000201</v>
@@ -3468,22 +3473,22 @@
         <v>0</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="N7" s="7">
         <v>0</v>
@@ -3573,7 +3578,7 @@
         <v>6</v>
       </c>
       <c r="AQ7" s="8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR7" s="8">
         <v>6</v>
@@ -3609,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="BC7" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BD7" s="8">
         <v>0</v>
@@ -3618,16 +3623,16 @@
         <v>70000012</v>
       </c>
       <c r="BF7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG7" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="BG7" s="14" t="s">
+      <c r="BH7" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="BH7" s="15" t="s">
-        <v>124</v>
-      </c>
       <c r="BI7" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3635,7 +3640,7 @@
         <v>1000301</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="7">
         <v>1000301</v>
@@ -3647,22 +3652,22 @@
         <v>0</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="N8" s="7">
         <v>0</v>
@@ -3788,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="BC8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BD8" s="8">
         <v>0</v>
@@ -3797,16 +3802,16 @@
         <v>70000011</v>
       </c>
       <c r="BF8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG8" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="BG8" s="14" t="s">
+      <c r="BH8" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="BH8" s="15" t="s">
-        <v>128</v>
-      </c>
       <c r="BI8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3814,7 +3819,7 @@
         <v>1000401</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="7">
         <v>1000401</v>
@@ -3826,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I9" s="8">
         <v>0</v>
@@ -3841,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N9" s="7">
         <v>0</v>
@@ -3967,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="BC9" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BD9" s="8">
         <v>0</v>
@@ -3976,16 +3981,16 @@
         <v>70000011</v>
       </c>
       <c r="BF9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG9" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="BG9" s="14" t="s">
+      <c r="BH9" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BH9" s="15" t="s">
+      <c r="BI9" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="BI9" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3993,7 +3998,7 @@
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="7">
         <v>1000501</v>
@@ -4005,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
@@ -4020,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
@@ -4110,7 +4115,7 @@
         <v>6</v>
       </c>
       <c r="AQ10" s="8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR10" s="8">
         <v>6</v>
@@ -4146,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BD10" s="8">
         <v>0</v>
@@ -4155,16 +4160,16 @@
         <v>70000012</v>
       </c>
       <c r="BF10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG10" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="BG10" s="14" t="s">
+      <c r="BH10" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="BH10" s="15" t="s">
-        <v>138</v>
-      </c>
       <c r="BI10" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4172,7 +4177,7 @@
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="7">
         <v>1000601</v>
@@ -4184,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" s="8">
         <v>0</v>
@@ -4199,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
@@ -4325,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="BC11" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BD11" s="8">
         <v>0</v>
@@ -4337,13 +4342,13 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH11" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="BH11" s="15" t="s">
+      <c r="BI11" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="BI11" s="15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4351,7 +4356,7 @@
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="7">
         <v>1000701</v>
@@ -4363,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I12" s="8">
         <v>0</v>
@@ -4378,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
@@ -4504,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BD12" s="8">
         <v>0</v>
@@ -4513,16 +4518,16 @@
         <v>70000011</v>
       </c>
       <c r="BF12" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG12" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="BG12" s="14" t="s">
+      <c r="BH12" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="BH12" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="BI12" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4530,7 +4535,7 @@
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="7">
         <v>1000801</v>
@@ -4542,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I13" s="8">
         <v>0</v>
@@ -4557,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N13" s="7">
         <v>0</v>
@@ -4683,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="BC13" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BD13" s="8">
         <v>0</v>
@@ -4692,16 +4697,16 @@
         <v>70000011</v>
       </c>
       <c r="BF13" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG13" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="BG13" s="14" t="s">
+      <c r="BH13" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="BH13" s="15" t="s">
-        <v>150</v>
-      </c>
       <c r="BI13" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4709,7 +4714,7 @@
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="7">
         <v>1000901</v>
@@ -4721,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I14" s="8">
         <v>0</v>
@@ -4736,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
@@ -4862,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="BC14" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BD14" s="8">
         <v>0</v>
@@ -4871,16 +4876,16 @@
         <v>70000011</v>
       </c>
       <c r="BF14" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG14" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="BG14" s="14" t="s">
+      <c r="BH14" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="BH14" s="15" t="s">
+      <c r="BI14" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="BI14" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4888,7 +4893,7 @@
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" s="7">
         <v>1001001</v>
@@ -4900,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" s="8">
         <v>0</v>
@@ -4915,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N15" s="7">
         <v>0</v>
@@ -5041,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="BC15" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BD15" s="8">
         <v>0</v>
@@ -5050,16 +5055,16 @@
         <v>70000011</v>
       </c>
       <c r="BF15" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG15" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="BG15" s="14" t="s">
+      <c r="BH15" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="BH15" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="BI15" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5067,7 +5072,7 @@
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E16" s="7">
         <v>1001101</v>
@@ -5079,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I16" s="8">
         <v>0</v>
@@ -5094,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -5184,7 +5189,7 @@
         <v>6</v>
       </c>
       <c r="AQ16" s="8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR16" s="8">
         <v>6</v>
@@ -5220,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="BC16" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BD16" s="8">
         <v>0</v>
@@ -5229,16 +5234,16 @@
         <v>70000012</v>
       </c>
       <c r="BF16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG16" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="BG16" s="14" t="s">
+      <c r="BH16" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="BH16" s="15" t="s">
+      <c r="BI16" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="BI16" s="15" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5246,7 +5251,7 @@
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="7">
         <v>1001201</v>
@@ -5258,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" s="8">
         <v>0</v>
@@ -5273,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
@@ -5363,7 +5368,7 @@
         <v>6</v>
       </c>
       <c r="AQ17" s="8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR17" s="8">
         <v>6</v>
@@ -5399,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="BC17" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BD17" s="8">
         <v>0</v>
@@ -5408,16 +5413,16 @@
         <v>70000012</v>
       </c>
       <c r="BF17" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG17" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="BG17" s="14" t="s">
+      <c r="BH17" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="BH17" s="15" t="s">
+      <c r="BI17" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="BI17" s="15" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5425,7 +5430,7 @@
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="7">
         <v>1001301</v>
@@ -5437,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" s="8">
         <v>0</v>
@@ -5452,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N18" s="7">
         <v>0</v>
@@ -5578,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="BC18" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BD18" s="8">
         <v>0</v>
@@ -5587,16 +5592,16 @@
         <v>70000011</v>
       </c>
       <c r="BF18" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG18" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="BG18" s="14" t="s">
+      <c r="BH18" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="BH18" s="15" t="s">
+      <c r="BI18" s="15" t="s">
         <v>174</v>
-      </c>
-      <c r="BI18" s="15" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5604,7 +5609,7 @@
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E19" s="7">
         <v>1001401</v>
@@ -5616,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I19" s="8">
         <v>0</v>
@@ -5631,7 +5636,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N19" s="7">
         <v>0</v>
@@ -5721,7 +5726,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" s="8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR19" s="8">
         <v>6</v>
@@ -5757,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="BC19" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BD19" s="8">
         <v>0</v>
@@ -5766,16 +5771,16 @@
         <v>70000012</v>
       </c>
       <c r="BF19" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG19" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="BG19" s="14" t="s">
+      <c r="BH19" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="BH19" s="15" t="s">
-        <v>179</v>
-      </c>
       <c r="BI19" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5783,7 +5788,7 @@
         <v>2000001</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="7">
         <v>2000001</v>
@@ -5795,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20" s="8">
         <v>2</v>
@@ -5810,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N20" s="7">
         <v>0</v>
@@ -5943,7 +5948,7 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BG20" s="8">
         <v>0</v>
@@ -5960,7 +5965,7 @@
         <v>2000002</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E21" s="7">
         <v>2000002</v>
@@ -5972,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I21" s="8">
         <v>2</v>
@@ -5987,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N21" s="7">
         <v>0</v>
@@ -6077,7 +6082,7 @@
         <v>6</v>
       </c>
       <c r="AQ21" s="8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR21" s="8">
         <v>6</v>
@@ -6120,7 +6125,7 @@
         <v>70000012</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BG21" s="8">
         <v>0</v>
@@ -6137,7 +6142,7 @@
         <v>2000003</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" s="7">
         <v>2000003</v>
@@ -6149,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I22" s="8">
         <v>2</v>
@@ -6164,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N22" s="7">
         <v>0</v>
@@ -6297,7 +6302,7 @@
         <v>70000011</v>
       </c>
       <c r="BF22" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BG22" s="8">
         <v>0</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC7D464-15DE-416E-A3A4-76F684D3FDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45AF8F4-1A50-41DA-8891-73624AC3CD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29250" yWindow="705" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2703,9 +2703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ13" sqref="AQ13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3936,7 +3936,7 @@
         <v>6</v>
       </c>
       <c r="AQ9" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR9" s="8">
         <v>2</v>
@@ -4115,7 +4115,7 @@
         <v>6</v>
       </c>
       <c r="AQ10" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR10" s="8">
         <v>6</v>
@@ -4294,7 +4294,7 @@
         <v>6</v>
       </c>
       <c r="AQ11" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR11" s="8">
         <v>2</v>
@@ -4473,7 +4473,7 @@
         <v>6</v>
       </c>
       <c r="AQ12" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR12" s="8">
         <v>2</v>
@@ -4652,7 +4652,7 @@
         <v>6</v>
       </c>
       <c r="AQ13" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR13" s="8">
         <v>2</v>
@@ -4831,7 +4831,7 @@
         <v>6</v>
       </c>
       <c r="AQ14" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR14" s="8">
         <v>2</v>
@@ -5010,7 +5010,7 @@
         <v>6</v>
       </c>
       <c r="AQ15" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR15" s="8">
         <v>2</v>
@@ -5189,7 +5189,7 @@
         <v>6</v>
       </c>
       <c r="AQ16" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR16" s="8">
         <v>6</v>
@@ -5368,7 +5368,7 @@
         <v>6</v>
       </c>
       <c r="AQ17" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR17" s="8">
         <v>6</v>
@@ -5547,7 +5547,7 @@
         <v>6</v>
       </c>
       <c r="AQ18" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR18" s="8">
         <v>2</v>
@@ -5726,7 +5726,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR19" s="8">
         <v>6</v>
@@ -5905,7 +5905,7 @@
         <v>6</v>
       </c>
       <c r="AQ20" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR20" s="8">
         <v>2</v>
@@ -6082,7 +6082,7 @@
         <v>6</v>
       </c>
       <c r="AQ21" s="8">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR21" s="8">
         <v>6</v>
@@ -6259,7 +6259,7 @@
         <v>6</v>
       </c>
       <c r="AQ22" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR22" s="8">
         <v>2</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45AF8F4-1A50-41DA-8891-73624AC3CD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C2869A-2F7C-491C-9C29-C5117FC8652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29250" yWindow="705" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="188">
   <si>
     <t>Id</t>
   </si>
@@ -966,6 +966,10 @@
   </si>
   <si>
     <t>Base_ActSpeed</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁甲勇士</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2701,11 +2705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP22"/>
+  <dimension ref="C1:JP23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP18" sqref="AP18"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5785,16 +5789,16 @@
     </row>
     <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7">
-        <v>2000001</v>
+        <v>1009001</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E20" s="7">
-        <v>2000001</v>
+        <v>1001301</v>
       </c>
       <c r="F20" s="7">
-        <v>2000001</v>
+        <v>1001301</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -5803,13 +5807,13 @@
         <v>113</v>
       </c>
       <c r="I20" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
       </c>
       <c r="K20" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" s="7">
         <v>1</v>
@@ -5824,46 +5828,46 @@
         <v>1</v>
       </c>
       <c r="P20" s="8">
-        <v>3100</v>
+        <v>1500</v>
       </c>
       <c r="Q20" s="8">
-        <v>3100</v>
+        <v>2750</v>
       </c>
       <c r="R20" s="8">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="S20" s="8">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="T20" s="8">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="U20" s="8">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="V20" s="8">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="W20" s="8">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="X20" s="8">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="Y20" s="8">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="Z20" s="8">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="AA20" s="8">
         <v>3000</v>
       </c>
       <c r="AB20" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="8">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AD20" s="8">
         <v>5000</v>
@@ -5940,7 +5944,9 @@
       <c r="BB20" s="8">
         <v>1</v>
       </c>
-      <c r="BC20" s="8"/>
+      <c r="BC20" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="BD20" s="8">
         <v>0</v>
       </c>
@@ -5948,30 +5954,30 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="BG20" s="8">
-        <v>0</v>
-      </c>
-      <c r="BH20" s="15">
-        <v>200001</v>
-      </c>
-      <c r="BI20" s="16">
-        <v>100</v>
+        <v>171</v>
+      </c>
+      <c r="BG20" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH20" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI20" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="7">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E21" s="7">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="F21" s="7">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -6082,10 +6088,10 @@
         <v>6</v>
       </c>
       <c r="AQ21" s="8">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR21" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AS21" s="8">
         <v>132</v>
@@ -6122,16 +6128,16 @@
         <v>0</v>
       </c>
       <c r="BE21" s="8">
-        <v>70000012</v>
+        <v>70000011</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BG21" s="8">
         <v>0</v>
       </c>
       <c r="BH21" s="15">
-        <v>200002</v>
+        <v>200001</v>
       </c>
       <c r="BI21" s="16">
         <v>100</v>
@@ -6139,16 +6145,16 @@
     </row>
     <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="7">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E22" s="7">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="F22" s="7">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -6259,10 +6265,10 @@
         <v>6</v>
       </c>
       <c r="AQ22" s="8">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR22" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AS22" s="8">
         <v>132</v>
@@ -6299,18 +6305,195 @@
         <v>0</v>
       </c>
       <c r="BE22" s="8">
+        <v>70000012</v>
+      </c>
+      <c r="BF22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG22" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="15">
+        <v>200002</v>
+      </c>
+      <c r="BI22" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:61" ht="20.100000000000001" customHeight="1">
+      <c r="C23" s="7">
+        <v>2000003</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2000003</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2000003</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7">
+        <v>5</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>1</v>
+      </c>
+      <c r="P23" s="8">
+        <v>3100</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>3100</v>
+      </c>
+      <c r="R23" s="8">
+        <v>1550</v>
+      </c>
+      <c r="S23" s="8">
+        <v>1550</v>
+      </c>
+      <c r="T23" s="8">
+        <v>1550</v>
+      </c>
+      <c r="U23" s="8">
+        <v>1550</v>
+      </c>
+      <c r="V23" s="8">
+        <v>1550</v>
+      </c>
+      <c r="W23" s="8">
+        <v>1550</v>
+      </c>
+      <c r="X23" s="8">
+        <v>1550</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>1550</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>3000</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>3000</v>
+      </c>
+      <c r="AB23" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AC23" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AD23" s="8">
+        <v>5000</v>
+      </c>
+      <c r="AE23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AF23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>350</v>
+      </c>
+      <c r="AH23" s="8">
+        <v>350</v>
+      </c>
+      <c r="AI23" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AJ23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AM23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ23" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AR23" s="8">
+        <v>2</v>
+      </c>
+      <c r="AS23" s="8">
+        <v>132</v>
+      </c>
+      <c r="AT23" s="8">
+        <v>25</v>
+      </c>
+      <c r="AU23" s="8">
+        <v>25</v>
+      </c>
+      <c r="AV23" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="AW23" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="AX23" s="12">
+        <v>3</v>
+      </c>
+      <c r="AY23" s="8">
+        <v>15</v>
+      </c>
+      <c r="AZ23" s="12">
+        <v>10</v>
+      </c>
+      <c r="BA23" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="BB23" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF22" s="8" t="s">
+      <c r="BF23" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="BG22" s="8">
-        <v>0</v>
-      </c>
-      <c r="BH22" s="16">
+      <c r="BG23" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="16">
         <v>200003</v>
       </c>
-      <c r="BI22" s="16">
+      <c r="BI23" s="16">
         <v>100</v>
       </c>
     </row>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C2869A-2F7C-491C-9C29-C5117FC8652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5792F7E0-8167-4CBA-AF98-996EC6227D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="190">
   <si>
     <t>Id</t>
   </si>
@@ -970,6 +970,14 @@
   </si>
   <si>
     <t>铁甲勇士</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷狐之妖</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心之灵</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2705,11 +2713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:JP23"/>
+  <dimension ref="C1:JP25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5789,7 +5797,7 @@
     </row>
     <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="7">
-        <v>1009001</v>
+        <v>1009101</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>187</v>
@@ -5798,7 +5806,7 @@
         <v>1001301</v>
       </c>
       <c r="F20" s="7">
-        <v>1001301</v>
+        <v>1009101</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
@@ -5968,16 +5976,16 @@
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="7">
-        <v>2000001</v>
+        <v>1009201</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E21" s="7">
-        <v>2000001</v>
+        <v>1001301</v>
       </c>
       <c r="F21" s="7">
-        <v>2000001</v>
+        <v>1009201</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
@@ -5986,13 +5994,13 @@
         <v>113</v>
       </c>
       <c r="I21" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
       </c>
       <c r="K21" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L21" s="7">
         <v>1</v>
@@ -6007,46 +6015,46 @@
         <v>1</v>
       </c>
       <c r="P21" s="8">
-        <v>3100</v>
+        <v>1500</v>
       </c>
       <c r="Q21" s="8">
-        <v>3100</v>
+        <v>2750</v>
       </c>
       <c r="R21" s="8">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="S21" s="8">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="T21" s="8">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="U21" s="8">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="V21" s="8">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="W21" s="8">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="X21" s="8">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="Y21" s="8">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="Z21" s="8">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="AA21" s="8">
         <v>3000</v>
       </c>
       <c r="AB21" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="8">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AD21" s="8">
         <v>5000</v>
@@ -6123,7 +6131,9 @@
       <c r="BB21" s="8">
         <v>1</v>
       </c>
-      <c r="BC21" s="8"/>
+      <c r="BC21" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="BD21" s="8">
         <v>0</v>
       </c>
@@ -6131,30 +6141,30 @@
         <v>70000011</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="BG21" s="8">
-        <v>0</v>
-      </c>
-      <c r="BH21" s="15">
-        <v>200001</v>
-      </c>
-      <c r="BI21" s="16">
-        <v>100</v>
+        <v>171</v>
+      </c>
+      <c r="BG21" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH21" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI21" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C22" s="7">
-        <v>2000002</v>
+        <v>1009301</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E22" s="7">
-        <v>2000002</v>
+        <v>1001401</v>
       </c>
       <c r="F22" s="7">
-        <v>2000002</v>
+        <v>1009301</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
@@ -6163,13 +6173,13 @@
         <v>113</v>
       </c>
       <c r="I22" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" s="8">
         <v>1</v>
       </c>
       <c r="K22" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L22" s="7">
         <v>1</v>
@@ -6184,46 +6194,46 @@
         <v>1</v>
       </c>
       <c r="P22" s="8">
-        <v>3100</v>
+        <v>1500</v>
       </c>
       <c r="Q22" s="8">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="R22" s="8">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="S22" s="8">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="T22" s="8">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="U22" s="8">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="V22" s="8">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="W22" s="8">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="X22" s="8">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="Y22" s="8">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="Z22" s="8">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="AA22" s="8">
         <v>3000</v>
       </c>
       <c r="AB22" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="8">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AD22" s="8">
         <v>5000</v>
@@ -6300,7 +6310,9 @@
       <c r="BB22" s="8">
         <v>1</v>
       </c>
-      <c r="BC22" s="8"/>
+      <c r="BC22" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="BD22" s="8">
         <v>0</v>
       </c>
@@ -6308,30 +6320,30 @@
         <v>70000012</v>
       </c>
       <c r="BF22" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BG22" s="8">
-        <v>0</v>
-      </c>
-      <c r="BH22" s="15">
-        <v>200002</v>
-      </c>
-      <c r="BI22" s="16">
-        <v>100</v>
+        <v>176</v>
+      </c>
+      <c r="BG22" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="BH22" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI22" s="15" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="3:61" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="7">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E23" s="7">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="F23" s="7">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
@@ -6485,15 +6497,369 @@
         <v>70000011</v>
       </c>
       <c r="BF23" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG23" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="15">
+        <v>200001</v>
+      </c>
+      <c r="BI23" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:61" ht="20.100000000000001" customHeight="1">
+      <c r="C24" s="7">
+        <v>2000002</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2000002</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2000002</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7">
+        <v>5</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1</v>
+      </c>
+      <c r="P24" s="8">
+        <v>3100</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>3100</v>
+      </c>
+      <c r="R24" s="8">
+        <v>1550</v>
+      </c>
+      <c r="S24" s="8">
+        <v>1550</v>
+      </c>
+      <c r="T24" s="8">
+        <v>1550</v>
+      </c>
+      <c r="U24" s="8">
+        <v>1550</v>
+      </c>
+      <c r="V24" s="8">
+        <v>1550</v>
+      </c>
+      <c r="W24" s="8">
+        <v>1550</v>
+      </c>
+      <c r="X24" s="8">
+        <v>1550</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>1550</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>3000</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>3000</v>
+      </c>
+      <c r="AB24" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AD24" s="8">
+        <v>5000</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AF24" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>350</v>
+      </c>
+      <c r="AH24" s="8">
+        <v>350</v>
+      </c>
+      <c r="AI24" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AJ24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AM24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ24" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AR24" s="8">
+        <v>6</v>
+      </c>
+      <c r="AS24" s="8">
+        <v>132</v>
+      </c>
+      <c r="AT24" s="8">
+        <v>25</v>
+      </c>
+      <c r="AU24" s="8">
+        <v>25</v>
+      </c>
+      <c r="AV24" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="AW24" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="AX24" s="12">
+        <v>3</v>
+      </c>
+      <c r="AY24" s="8">
+        <v>15</v>
+      </c>
+      <c r="AZ24" s="12">
+        <v>10</v>
+      </c>
+      <c r="BA24" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="BB24" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="8">
+        <v>70000012</v>
+      </c>
+      <c r="BF24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG24" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="15">
+        <v>200002</v>
+      </c>
+      <c r="BI24" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:61" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="7">
+        <v>2000003</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2000003</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2000003</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="8">
+        <v>2</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7">
+        <v>5</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>1</v>
+      </c>
+      <c r="P25" s="8">
+        <v>3100</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>3100</v>
+      </c>
+      <c r="R25" s="8">
+        <v>1550</v>
+      </c>
+      <c r="S25" s="8">
+        <v>1550</v>
+      </c>
+      <c r="T25" s="8">
+        <v>1550</v>
+      </c>
+      <c r="U25" s="8">
+        <v>1550</v>
+      </c>
+      <c r="V25" s="8">
+        <v>1550</v>
+      </c>
+      <c r="W25" s="8">
+        <v>1550</v>
+      </c>
+      <c r="X25" s="8">
+        <v>1550</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>1550</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>3000</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>3000</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AD25" s="8">
+        <v>5000</v>
+      </c>
+      <c r="AE25" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AF25" s="8">
+        <v>1000</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>350</v>
+      </c>
+      <c r="AH25" s="8">
+        <v>350</v>
+      </c>
+      <c r="AI25" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AJ25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AM25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="8">
+        <v>6</v>
+      </c>
+      <c r="AQ25" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="AR25" s="8">
+        <v>2</v>
+      </c>
+      <c r="AS25" s="8">
+        <v>132</v>
+      </c>
+      <c r="AT25" s="8">
+        <v>25</v>
+      </c>
+      <c r="AU25" s="8">
+        <v>25</v>
+      </c>
+      <c r="AV25" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="AW25" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="AX25" s="12">
+        <v>3</v>
+      </c>
+      <c r="AY25" s="8">
+        <v>15</v>
+      </c>
+      <c r="AZ25" s="12">
+        <v>10</v>
+      </c>
+      <c r="BA25" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="BB25" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="8">
+        <v>70000011</v>
+      </c>
+      <c r="BF25" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="BG23" s="8">
-        <v>0</v>
-      </c>
-      <c r="BH23" s="16">
+      <c r="BG25" s="8">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="16">
         <v>200003</v>
       </c>
-      <c r="BI23" s="16">
+      <c r="BI25" s="16">
         <v>100</v>
       </c>
     </row>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5792F7E0-8167-4CBA-AF98-996EC6227D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF6296B-CFA4-4AC4-87B0-DEF3FD4F3174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2717,7 +2717,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5803,7 +5803,7 @@
         <v>187</v>
       </c>
       <c r="E20" s="7">
-        <v>1001301</v>
+        <v>1009101</v>
       </c>
       <c r="F20" s="7">
         <v>1009101</v>
@@ -5982,7 +5982,7 @@
         <v>188</v>
       </c>
       <c r="E21" s="7">
-        <v>1001301</v>
+        <v>1009201</v>
       </c>
       <c r="F21" s="7">
         <v>1009201</v>
@@ -6161,7 +6161,7 @@
         <v>189</v>
       </c>
       <c r="E22" s="7">
-        <v>1001401</v>
+        <v>1009301</v>
       </c>
       <c r="F22" s="7">
         <v>1009301</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF6296B-CFA4-4AC4-87B0-DEF3FD4F3174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B456C9-7BD3-48AA-8CBF-13DC53D66B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="187">
   <si>
     <t>Id</t>
   </si>
@@ -754,12 +754,6 @@
     <t>10000131,2</t>
   </si>
   <si>
-    <t>80001001</t>
-  </si>
-  <si>
-    <t>80001010;80001014;80001015</t>
-  </si>
-  <si>
     <t>10101,10102</t>
   </si>
   <si>
@@ -772,33 +766,18 @@
     <t>80001002;80001013</t>
   </si>
   <si>
-    <t>80001009;80001018</t>
-  </si>
-  <si>
     <t>20101,20102</t>
   </si>
   <si>
     <t>小灰狼</t>
   </si>
   <si>
-    <t>80001018</t>
-  </si>
-  <si>
-    <t>80001012;80001004;80001007</t>
-  </si>
-  <si>
     <t>30101,30102</t>
   </si>
   <si>
     <t>仙人掌</t>
   </si>
   <si>
-    <t>80001004;80001023</t>
-  </si>
-  <si>
-    <t>80001004;80002007;80001008</t>
-  </si>
-  <si>
     <t>40101,40102,40103,40104</t>
   </si>
   <si>
@@ -814,18 +793,12 @@
     <t>80001005;80001019</t>
   </si>
   <si>
-    <t>80001017;80001008;80001021</t>
-  </si>
-  <si>
     <t>50101,50102,50103,50104</t>
   </si>
   <si>
     <t>企鹅</t>
   </si>
   <si>
-    <t>80001015;80001010;80002006</t>
-  </si>
-  <si>
     <t>60101,60102,60103</t>
   </si>
   <si>
@@ -835,12 +808,6 @@
     <t>蛇蛇</t>
   </si>
   <si>
-    <t>80001007;80001005</t>
-  </si>
-  <si>
-    <t>80001006;80002018;80001022</t>
-  </si>
-  <si>
     <t>70101,70102,70103,70104</t>
   </si>
   <si>
@@ -850,21 +817,12 @@
     <t>80001008;80001020</t>
   </si>
   <si>
-    <t>80001011;80002015;80001024</t>
-  </si>
-  <si>
     <t>80101,80102</t>
   </si>
   <si>
     <t>雷霆猪</t>
   </si>
   <si>
-    <t>80001009;80001002</t>
-  </si>
-  <si>
-    <t>80002001;80001014;80001028;80002022</t>
-  </si>
-  <si>
     <t>90101,90102,90103,90104</t>
   </si>
   <si>
@@ -880,9 +838,6 @@
     <t>80001010;80001001</t>
   </si>
   <si>
-    <t>80001002;80002001;80001023;80002019</t>
-  </si>
-  <si>
     <t>100101,100102,100103,100104</t>
   </si>
   <si>
@@ -892,9 +847,6 @@
     <t>80001011;80001003</t>
   </si>
   <si>
-    <t>80001015;80002002;80001027;80002021</t>
-  </si>
-  <si>
     <t>110101,110102,110103</t>
   </si>
   <si>
@@ -907,9 +859,6 @@
     <t>80001012;80002025</t>
   </si>
   <si>
-    <t>80002010;80002003;80001026;80002027</t>
-  </si>
-  <si>
     <t>120101,120102,120103</t>
   </si>
   <si>
@@ -919,12 +868,6 @@
     <t>淘气包</t>
   </si>
   <si>
-    <t>80001006;80002018</t>
-  </si>
-  <si>
-    <t>80002004;80002016;80001028;80002023</t>
-  </si>
-  <si>
     <t>130101,130102,130103,130104</t>
   </si>
   <si>
@@ -932,12 +875,6 @@
   </si>
   <si>
     <t>光明天使</t>
-  </si>
-  <si>
-    <t>80001014;80002021</t>
-  </si>
-  <si>
-    <t>80002009;80002013;80001025;80002003</t>
   </si>
   <si>
     <t>140101,140102,140103</t>
@@ -979,6 +916,60 @@
   <si>
     <t>爱心之灵</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001010,0.2;80001014,0.2;80001015,0.2</t>
+  </si>
+  <si>
+    <t>80001009,0.2;80001025,0.2</t>
+  </si>
+  <si>
+    <t>80001012,0.2;80001004,0.2;80001007,0.2</t>
+  </si>
+  <si>
+    <t>80002007,0.2;80001023,0.2;80003001,0.1</t>
+  </si>
+  <si>
+    <t>80001017,0.2;80001008,0.2;80001021,0.2</t>
+  </si>
+  <si>
+    <t>80001015,0.2;80001010,0.2;80002006,0.2</t>
+  </si>
+  <si>
+    <t>80001006,0.2;80002018,0.2;80001022,0.2;80003002,0.1</t>
+  </si>
+  <si>
+    <t>80001011,0.2;80002015,0.2;80001024,0.2</t>
+  </si>
+  <si>
+    <t>80002001,0.2;80001014,0.2;80001028,0.2;80002022,0.2</t>
+  </si>
+  <si>
+    <t>80001002,0.2;80002019,0.2;80003003,0.1</t>
+  </si>
+  <si>
+    <t>80001015,0.2;80002002,0.2;80001027,0.1;80002021,0.1</t>
+  </si>
+  <si>
+    <t>80002010,0.2;80002003,0.2;80001026,0.1;80002027,0.1</t>
+  </si>
+  <si>
+    <t>80002004,0.2;80002016,0.2;80002023,0.2;80003004,0.1</t>
+  </si>
+  <si>
+    <t>80002009,0.2;80002013,0.2;80002003,0.2;80003005,0.1</t>
+  </si>
+  <si>
+    <t>80002017,0.2;80002018,0.2;80003006,0.1</t>
+  </si>
+  <si>
+    <t>80002014,0.2;80001020,0.2;80001026,0.2;80003007,0.1</t>
+  </si>
+  <si>
+    <t>80002020,0.2;80002026,0.2;80001003,0.2;80003008,0.1</t>
+  </si>
+  <si>
+    <t>80002008;80001016</t>
   </si>
 </sst>
 </file>
@@ -2715,9 +2706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="BG21" sqref="BG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3053,7 +3044,7 @@
         <v>89</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="AR4" s="9" t="s">
         <v>90</v>
@@ -3232,10 +3223,10 @@
         <v>108</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="AS5" s="5" t="s">
         <v>111</v>
@@ -3455,17 +3446,17 @@
       <c r="BE6" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF6" s="17" t="s">
+      <c r="BF6" s="17">
+        <v>80001001</v>
+      </c>
+      <c r="BG6" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH6" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="BG6" s="14" t="s">
+      <c r="BI6" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="BH6" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="BI6" s="15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3473,7 +3464,7 @@
         <v>1000201</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="7">
         <v>1000201</v>
@@ -3635,16 +3626,16 @@
         <v>70000012</v>
       </c>
       <c r="BF7" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BG7" s="14" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="BH7" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="BI7" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3652,7 +3643,7 @@
         <v>1000301</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E8" s="7">
         <v>1000301</v>
@@ -3813,17 +3804,17 @@
       <c r="BE8" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF8" s="17" t="s">
-        <v>125</v>
+      <c r="BF8" s="17">
+        <v>80001018</v>
       </c>
       <c r="BG8" s="14" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="BH8" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="BI8" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3831,7 +3822,7 @@
         <v>1000401</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E9" s="7">
         <v>1000401</v>
@@ -3992,17 +3983,17 @@
       <c r="BE9" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF9" s="8" t="s">
-        <v>129</v>
+      <c r="BF9" s="8">
+        <v>80001004</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="BH9" s="15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="BI9" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4010,7 +4001,7 @@
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E10" s="7">
         <v>1000501</v>
@@ -4163,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="BD10" s="8">
         <v>0</v>
@@ -4172,16 +4163,16 @@
         <v>70000012</v>
       </c>
       <c r="BF10" s="17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="BH10" s="15" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4189,7 +4180,7 @@
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E11" s="7">
         <v>1000601</v>
@@ -4342,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="BC11" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="BD11" s="8">
         <v>0</v>
@@ -4354,13 +4345,13 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="BH11" s="15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="BI11" s="15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4368,7 +4359,7 @@
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E12" s="7">
         <v>1000701</v>
@@ -4521,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="BD12" s="8">
         <v>0</v>
@@ -4529,17 +4520,17 @@
       <c r="BE12" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF12" s="17" t="s">
-        <v>143</v>
+      <c r="BF12" s="17">
+        <v>80001007</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="BH12" s="15" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="BI12" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4547,7 +4538,7 @@
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E13" s="7">
         <v>1000801</v>
@@ -4700,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="BC13" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="BD13" s="8">
         <v>0</v>
@@ -4709,16 +4700,16 @@
         <v>70000011</v>
       </c>
       <c r="BF13" s="8" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="BH13" s="15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="BI13" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4726,7 +4717,7 @@
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E14" s="7">
         <v>1000901</v>
@@ -4879,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="BC14" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="BD14" s="8">
         <v>0</v>
@@ -4887,17 +4878,17 @@
       <c r="BE14" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF14" s="8" t="s">
-        <v>151</v>
+      <c r="BF14" s="8">
+        <v>80001009</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="BH14" s="15" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="BI14" s="15" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4905,7 +4896,7 @@
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E15" s="7">
         <v>1001001</v>
@@ -5058,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="BC15" s="8" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="BD15" s="8">
         <v>0</v>
@@ -5067,16 +5058,16 @@
         <v>70000011</v>
       </c>
       <c r="BF15" s="8" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="BH15" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="BI15" s="15" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5084,7 +5075,7 @@
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E16" s="7">
         <v>1001101</v>
@@ -5237,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="BC16" s="8" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="BD16" s="8">
         <v>0</v>
@@ -5246,16 +5237,16 @@
         <v>70000012</v>
       </c>
       <c r="BF16" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="BH16" s="15" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="BI16" s="15" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5263,7 +5254,7 @@
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E17" s="7">
         <v>1001201</v>
@@ -5416,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="BC17" s="8" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="BD17" s="8">
         <v>0</v>
@@ -5425,16 +5416,16 @@
         <v>70000012</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="BH17" s="15" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="BI17" s="15" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5442,7 +5433,7 @@
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E18" s="7">
         <v>1001301</v>
@@ -5595,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="BC18" s="8" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="BD18" s="8">
         <v>0</v>
@@ -5603,17 +5594,17 @@
       <c r="BE18" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF18" s="8" t="s">
-        <v>171</v>
+      <c r="BF18" s="8">
+        <v>80001006</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BH18" s="15" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="BI18" s="15" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5621,7 +5612,7 @@
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E19" s="7">
         <v>1001401</v>
@@ -5774,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="BC19" s="8" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="BD19" s="8">
         <v>0</v>
@@ -5782,17 +5773,17 @@
       <c r="BE19" s="8">
         <v>70000012</v>
       </c>
-      <c r="BF19" s="8" t="s">
-        <v>176</v>
+      <c r="BF19" s="8">
+        <v>80001014</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="BH19" s="15" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="BI19" s="15" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5800,7 +5791,7 @@
         <v>1009101</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E20" s="7">
         <v>1009101</v>
@@ -5953,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="BC20" s="8" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="BD20" s="8">
         <v>0</v>
@@ -5962,16 +5953,16 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="BG20" s="14" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="BH20" s="15" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="BI20" s="15" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5979,7 +5970,7 @@
         <v>1009201</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="E21" s="7">
         <v>1009201</v>
@@ -6132,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="BC21" s="8" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="BD21" s="8">
         <v>0</v>
@@ -6140,17 +6131,17 @@
       <c r="BE21" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF21" s="8" t="s">
-        <v>171</v>
+      <c r="BF21" s="8">
+        <v>80002024</v>
       </c>
       <c r="BG21" s="14" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="BH21" s="15" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="BI21" s="15" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6158,7 +6149,7 @@
         <v>1009301</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="E22" s="7">
         <v>1009301</v>
@@ -6311,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="BC22" s="8" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="BD22" s="8">
         <v>0</v>
@@ -6319,17 +6310,17 @@
       <c r="BE22" s="8">
         <v>70000012</v>
       </c>
-      <c r="BF22" s="8" t="s">
-        <v>176</v>
+      <c r="BF22" s="8">
+        <v>80002005</v>
       </c>
       <c r="BG22" s="14" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="BH22" s="15" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="BI22" s="15" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6337,7 +6328,7 @@
         <v>2000001</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E23" s="7">
         <v>2000001</v>
@@ -6497,7 +6488,7 @@
         <v>70000011</v>
       </c>
       <c r="BF23" s="8" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="BG23" s="8">
         <v>0</v>
@@ -6514,7 +6505,7 @@
         <v>2000002</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E24" s="7">
         <v>2000002</v>
@@ -6674,7 +6665,7 @@
         <v>70000012</v>
       </c>
       <c r="BF24" s="8" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="BG24" s="8">
         <v>0</v>
@@ -6691,7 +6682,7 @@
         <v>2000003</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E25" s="7">
         <v>2000003</v>
@@ -6851,7 +6842,7 @@
         <v>70000011</v>
       </c>
       <c r="BF25" s="8" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="BG25" s="8">
         <v>0</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B456C9-7BD3-48AA-8CBF-13DC53D66B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18239E25-DC48-4C3A-86C6-6DC7C01A81B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2706,9 +2706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG21" sqref="BG21"/>
+      <selection pane="bottomLeft" activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6364,34 +6364,34 @@
         <v>1</v>
       </c>
       <c r="P23" s="8">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="Q23" s="8">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="R23" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="S23" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="T23" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="U23" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="V23" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="W23" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="X23" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="Y23" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="Z23" s="8">
         <v>3000</v>
@@ -6541,34 +6541,34 @@
         <v>1</v>
       </c>
       <c r="P24" s="8">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="Q24" s="8">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="R24" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="S24" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="T24" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="U24" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="V24" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="W24" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="X24" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="Y24" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="Z24" s="8">
         <v>3000</v>
@@ -6718,34 +6718,34 @@
         <v>1</v>
       </c>
       <c r="P25" s="8">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="Q25" s="8">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="R25" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="S25" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="T25" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="U25" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="V25" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="W25" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="X25" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="Y25" s="8">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="Z25" s="8">
         <v>3000</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18239E25-DC48-4C3A-86C6-6DC7C01A81B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D741F4-E8F4-4369-864D-C7F3A887DF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2706,9 +2706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH23" sqref="AH23"/>
+      <selection pane="bottomLeft" activeCell="BC23" sqref="BC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D741F4-E8F4-4369-864D-C7F3A887DF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE179CFB-8B84-4BC2-A763-DF95AF87E42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -883,19 +883,10 @@
     <t>神兽:精灵麋鹿</t>
   </si>
   <si>
-    <t>80004001;80002019;80002016;80002014;80002010;80002023;80002009;80002008</t>
-  </si>
-  <si>
     <t>神兽:幽光晴晴</t>
   </si>
   <si>
-    <t>80004002;80002021;80002002;80002003;80002025;80002014;80002024;80002027</t>
-  </si>
-  <si>
     <t>神兽:仙界魔龙</t>
-  </si>
-  <si>
-    <t>80004003;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
   </si>
   <si>
     <t>double</t>
@@ -970,6 +961,18 @@
   </si>
   <si>
     <t>80002008;80001016</t>
+  </si>
+  <si>
+    <t>80004005;80004006;80002019;80002016;80002014;80002010;80002023;80002009;80002008</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80004008;80004009;80002021;80002002;80002003;80002025;80002014;80002024;80002027</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80004013;80004010;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2706,9 +2709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AY1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC23" sqref="BC23"/>
+      <selection pane="bottomLeft" activeCell="BE27" sqref="BE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3044,7 +3047,7 @@
         <v>89</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AR4" s="9" t="s">
         <v>90</v>
@@ -3223,10 +3226,10 @@
         <v>108</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AS5" s="5" t="s">
         <v>111</v>
@@ -3450,7 +3453,7 @@
         <v>80001001</v>
       </c>
       <c r="BG6" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="BH6" s="15" t="s">
         <v>116</v>
@@ -3629,7 +3632,7 @@
         <v>119</v>
       </c>
       <c r="BG7" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="BH7" s="15" t="s">
         <v>120</v>
@@ -3808,7 +3811,7 @@
         <v>80001018</v>
       </c>
       <c r="BG8" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BH8" s="15" t="s">
         <v>122</v>
@@ -3987,7 +3990,7 @@
         <v>80001004</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="BH9" s="15" t="s">
         <v>124</v>
@@ -4166,7 +4169,7 @@
         <v>128</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="BH10" s="15" t="s">
         <v>129</v>
@@ -4345,7 +4348,7 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="BH11" s="15" t="s">
         <v>131</v>
@@ -4524,7 +4527,7 @@
         <v>80001007</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="BH12" s="15" t="s">
         <v>134</v>
@@ -4703,7 +4706,7 @@
         <v>136</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="BH13" s="15" t="s">
         <v>137</v>
@@ -4882,7 +4885,7 @@
         <v>80001009</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="BH14" s="15" t="s">
         <v>139</v>
@@ -5061,7 +5064,7 @@
         <v>143</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BH15" s="15" t="s">
         <v>144</v>
@@ -5240,7 +5243,7 @@
         <v>146</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BH16" s="15" t="s">
         <v>147</v>
@@ -5419,7 +5422,7 @@
         <v>150</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="BH17" s="15" t="s">
         <v>151</v>
@@ -5598,7 +5601,7 @@
         <v>80001006</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BH18" s="15" t="s">
         <v>154</v>
@@ -5777,7 +5780,7 @@
         <v>80001014</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="BH19" s="15" t="s">
         <v>157</v>
@@ -5791,7 +5794,7 @@
         <v>1009101</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E20" s="7">
         <v>1009101</v>
@@ -5953,10 +5956,10 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="BG20" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="BH20" s="15" t="s">
         <v>154</v>
@@ -5970,7 +5973,7 @@
         <v>1009201</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E21" s="7">
         <v>1009201</v>
@@ -6135,7 +6138,7 @@
         <v>80002024</v>
       </c>
       <c r="BG21" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="BH21" s="15" t="s">
         <v>154</v>
@@ -6149,7 +6152,7 @@
         <v>1009301</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E22" s="7">
         <v>1009301</v>
@@ -6314,7 +6317,7 @@
         <v>80002005</v>
       </c>
       <c r="BG22" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="BH22" s="15" t="s">
         <v>157</v>
@@ -6488,7 +6491,7 @@
         <v>70000011</v>
       </c>
       <c r="BF23" s="8" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="BG23" s="8">
         <v>0</v>
@@ -6505,7 +6508,7 @@
         <v>2000002</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="7">
         <v>2000002</v>
@@ -6665,7 +6668,7 @@
         <v>70000012</v>
       </c>
       <c r="BF24" s="8" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="BG24" s="8">
         <v>0</v>
@@ -6682,7 +6685,7 @@
         <v>2000003</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E25" s="7">
         <v>2000003</v>
@@ -6842,7 +6845,7 @@
         <v>70000011</v>
       </c>
       <c r="BF25" s="8" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="BG25" s="8">
         <v>0</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE179CFB-8B84-4BC2-A763-DF95AF87E42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A2A6E5-F461-4B7E-888F-D9F5B111975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="190">
   <si>
     <t>Id</t>
   </si>
@@ -963,15 +963,27 @@
     <t>80002008;80001016</t>
   </si>
   <si>
-    <t>80004005;80004006;80002019;80002016;80002014;80002010;80002023;80002009;80002008</t>
+    <t>80004005;80004006;80002008;80002013;80002016;80002017;80002010;80002019;80002023</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>80004008;80004009;80002021;80002002;80002003;80002025;80002014;80002024;80002027</t>
+    <t>80004008;80004009;80002002;80002003;80002020;80002021;80002024;80002025;80002027</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>80004013;80004010;80002002;80002001;80002006;80002011;80002018;80002028;80002022</t>
+    <t>80004010;80004013;80002001;80002002;80002006;80002011;80002018;80002022;80002028</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>910101,910102,910103,910104</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>920101,920102,920103,920104</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>930101,930102,930103</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1447,7 +1459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1492,6 +1504,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2709,9 +2724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BE27" sqref="BE27"/>
+      <selection pane="bottomLeft" activeCell="BH25" sqref="BH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5962,7 +5977,7 @@
         <v>180</v>
       </c>
       <c r="BH20" s="15" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="BI20" s="15" t="s">
         <v>155</v>
@@ -6141,7 +6156,7 @@
         <v>181</v>
       </c>
       <c r="BH21" s="15" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="BI21" s="15" t="s">
         <v>155</v>
@@ -6320,7 +6335,7 @@
         <v>182</v>
       </c>
       <c r="BH22" s="15" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="BI22" s="15" t="s">
         <v>152</v>
@@ -6490,7 +6505,7 @@
       <c r="BE23" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF23" s="8" t="s">
+      <c r="BF23" s="18" t="s">
         <v>184</v>
       </c>
       <c r="BG23" s="8">
@@ -6667,7 +6682,7 @@
       <c r="BE24" s="8">
         <v>70000012</v>
       </c>
-      <c r="BF24" s="8" t="s">
+      <c r="BF24" s="17" t="s">
         <v>185</v>
       </c>
       <c r="BG24" s="8">
@@ -6844,7 +6859,7 @@
       <c r="BE25" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF25" s="8" t="s">
+      <c r="BF25" s="17" t="s">
         <v>186</v>
       </c>
       <c r="BG25" s="8">

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A2A6E5-F461-4B7E-888F-D9F5B111975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2071A17-EFBD-42A7-A803-BFDD3CF4247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2724,9 +2724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH25" sqref="BH25"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2071A17-EFBD-42A7-A803-BFDD3CF4247E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE87456-C4FB-4A34-954A-7649307E43D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2724,7 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE87456-C4FB-4A34-954A-7649307E43D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EA3273-9B82-4177-8B60-65658CEC6D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -963,18 +963,6 @@
     <t>80002008;80001016</t>
   </si>
   <si>
-    <t>80004005;80004006;80002008;80002013;80002016;80002017;80002010;80002019;80002023</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80004008;80004009;80002002;80002003;80002020;80002021;80002024;80002025;80002027</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>80004010;80004013;80002001;80002002;80002006;80002011;80002018;80002022;80002028</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>910101,910102,910103,910104</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -984,6 +972,18 @@
   </si>
   <si>
     <t>930101,930102,930103</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80004005;80004006;80004004;80002008;80002013;80002016;80002017;80002010;80002019;80002023</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80004004;80004008;80004009;80002002;80002003;80002020;80002021;80002024;80002025;80002027</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80004004;80004010;80004013;80002001;80002002;80002006;80002011;80002018;80002022;80002028</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2726,7 +2726,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="BF28" sqref="BF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5977,7 +5977,7 @@
         <v>180</v>
       </c>
       <c r="BH20" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="BI20" s="15" t="s">
         <v>155</v>
@@ -6156,7 +6156,7 @@
         <v>181</v>
       </c>
       <c r="BH21" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="BI21" s="15" t="s">
         <v>155</v>
@@ -6335,7 +6335,7 @@
         <v>182</v>
       </c>
       <c r="BH22" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="BI22" s="15" t="s">
         <v>152</v>
@@ -6506,7 +6506,7 @@
         <v>70000011</v>
       </c>
       <c r="BF23" s="18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BG23" s="8">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>70000012</v>
       </c>
       <c r="BF24" s="17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BG24" s="8">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>70000011</v>
       </c>
       <c r="BF25" s="17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BG25" s="8">
         <v>0</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EA3273-9B82-4177-8B60-65658CEC6D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CB8F0A-F0A1-451A-8531-59CB093FE572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31965" yWindow="900" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -757,9 +757,6 @@
     <t>10101,10102</t>
   </si>
   <si>
-    <t>75,25</t>
-  </si>
-  <si>
     <t>小松鼠</t>
   </si>
   <si>
@@ -781,9 +778,6 @@
     <t>40101,40102,40103,40104</t>
   </si>
   <si>
-    <t>40,30,20,10</t>
-  </si>
-  <si>
     <t>团团</t>
   </si>
   <si>
@@ -802,9 +796,6 @@
     <t>60101,60102,60103</t>
   </si>
   <si>
-    <t>60,20,20</t>
-  </si>
-  <si>
     <t>蛇蛇</t>
   </si>
   <si>
@@ -826,9 +817,6 @@
     <t>90101,90102,90103,90104</t>
   </si>
   <si>
-    <t>50,30,15,5</t>
-  </si>
-  <si>
     <t>乌贼女士</t>
   </si>
   <si>
@@ -850,9 +838,6 @@
     <t>110101,110102,110103</t>
   </si>
   <si>
-    <t>50,35,15</t>
-  </si>
-  <si>
     <t>魔法娃娃</t>
   </si>
   <si>
@@ -862,16 +847,10 @@
     <t>120101,120102,120103</t>
   </si>
   <si>
-    <t>60,30,10</t>
-  </si>
-  <si>
     <t>淘气包</t>
   </si>
   <si>
     <t>130101,130102,130103,130104</t>
-  </si>
-  <si>
-    <t>20,35,35,10</t>
   </si>
   <si>
     <t>光明天使</t>
@@ -971,10 +950,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>930101,930102,930103</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>80004005;80004006;80004004;80002008;80002013;80002016;80002017;80002010;80002019;80002023</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -984,6 +959,22 @@
   </si>
   <si>
     <t>80004004;80004010;80004013;80002001;80002002;80002006;80002011;80002018;80002022;80002028</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,10</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,5,3,2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,5,5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>930101,930102,930103,920104</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2724,9 +2715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BF28" sqref="BF28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BH24" sqref="BH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3062,7 +3053,7 @@
         <v>89</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AR4" s="9" t="s">
         <v>90</v>
@@ -3241,10 +3232,10 @@
         <v>108</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AS5" s="5" t="s">
         <v>111</v>
@@ -3468,13 +3459,13 @@
         <v>80001001</v>
       </c>
       <c r="BG6" s="14" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="BH6" s="15" t="s">
         <v>116</v>
       </c>
       <c r="BI6" s="15" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3482,7 +3473,7 @@
         <v>1000201</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="7">
         <v>1000201</v>
@@ -3644,16 +3635,16 @@
         <v>70000012</v>
       </c>
       <c r="BF7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG7" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="BH7" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="BG7" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH7" s="15" t="s">
-        <v>120</v>
-      </c>
       <c r="BI7" s="15" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3661,7 +3652,7 @@
         <v>1000301</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="7">
         <v>1000301</v>
@@ -3826,13 +3817,13 @@
         <v>80001018</v>
       </c>
       <c r="BG8" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="BH8" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BI8" s="15" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3840,7 +3831,7 @@
         <v>1000401</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="7">
         <v>1000401</v>
@@ -4005,13 +3996,13 @@
         <v>80001004</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="BH9" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BI9" s="15" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4019,7 +4010,7 @@
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="7">
         <v>1000501</v>
@@ -4172,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BD10" s="8">
         <v>0</v>
@@ -4181,16 +4172,16 @@
         <v>70000012</v>
       </c>
       <c r="BF10" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="BH10" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4198,7 +4189,7 @@
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E11" s="7">
         <v>1000601</v>
@@ -4351,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="BC11" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BD11" s="8">
         <v>0</v>
@@ -4363,13 +4354,13 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="BH11" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="BI11" s="15" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4377,7 +4368,7 @@
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E12" s="7">
         <v>1000701</v>
@@ -4530,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BD12" s="8">
         <v>0</v>
@@ -4542,13 +4533,13 @@
         <v>80001007</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="BH12" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BI12" s="15" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4556,7 +4547,7 @@
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E13" s="7">
         <v>1000801</v>
@@ -4709,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="BC13" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BD13" s="8">
         <v>0</v>
@@ -4718,16 +4709,16 @@
         <v>70000011</v>
       </c>
       <c r="BF13" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="BH13" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="BI13" s="15" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4735,7 +4726,7 @@
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E14" s="7">
         <v>1000901</v>
@@ -4888,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="BC14" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BD14" s="8">
         <v>0</v>
@@ -4900,13 +4891,13 @@
         <v>80001009</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="BH14" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="BI14" s="15" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4914,7 +4905,7 @@
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E15" s="7">
         <v>1001001</v>
@@ -5067,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="BC15" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BD15" s="8">
         <v>0</v>
@@ -5076,16 +5067,16 @@
         <v>70000011</v>
       </c>
       <c r="BF15" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="BH15" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="BI15" s="15" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5093,7 +5084,7 @@
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E16" s="7">
         <v>1001101</v>
@@ -5246,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="BC16" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BD16" s="8">
         <v>0</v>
@@ -5255,16 +5246,16 @@
         <v>70000012</v>
       </c>
       <c r="BF16" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="BH16" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="BI16" s="15" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5272,7 +5263,7 @@
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E17" s="7">
         <v>1001201</v>
@@ -5425,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="BC17" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BD17" s="8">
         <v>0</v>
@@ -5434,16 +5425,16 @@
         <v>70000012</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="BH17" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="BI17" s="15" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5451,7 +5442,7 @@
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E18" s="7">
         <v>1001301</v>
@@ -5604,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="BC18" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BD18" s="8">
         <v>0</v>
@@ -5616,13 +5607,13 @@
         <v>80001006</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="BH18" s="15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="BI18" s="15" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5630,7 +5621,7 @@
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E19" s="7">
         <v>1001401</v>
@@ -5783,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="BC19" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BD19" s="8">
         <v>0</v>
@@ -5795,13 +5786,13 @@
         <v>80001014</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="BH19" s="15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="BI19" s="15" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5809,7 +5800,7 @@
         <v>1009101</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E20" s="7">
         <v>1009101</v>
@@ -5962,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="BC20" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BD20" s="8">
         <v>0</v>
@@ -5971,16 +5962,16 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="BG20" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="BH20" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI20" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="BG20" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="BH20" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI20" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5988,7 +5979,7 @@
         <v>1009201</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E21" s="7">
         <v>1009201</v>
@@ -6141,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="BC21" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BD21" s="8">
         <v>0</v>
@@ -6153,13 +6144,13 @@
         <v>80002024</v>
       </c>
       <c r="BG21" s="14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="BH21" s="15" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="BI21" s="15" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6167,7 +6158,7 @@
         <v>1009301</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E22" s="7">
         <v>1009301</v>
@@ -6320,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="BC22" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BD22" s="8">
         <v>0</v>
@@ -6332,13 +6323,13 @@
         <v>80002005</v>
       </c>
       <c r="BG22" s="14" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="BH22" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BI22" s="15" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6346,7 +6337,7 @@
         <v>2000001</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E23" s="7">
         <v>2000001</v>
@@ -6506,7 +6497,7 @@
         <v>70000011</v>
       </c>
       <c r="BF23" s="18" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="BG23" s="8">
         <v>0</v>
@@ -6523,7 +6514,7 @@
         <v>2000002</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E24" s="7">
         <v>2000002</v>
@@ -6683,7 +6674,7 @@
         <v>70000012</v>
       </c>
       <c r="BF24" s="17" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="BG24" s="8">
         <v>0</v>
@@ -6700,7 +6691,7 @@
         <v>2000003</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E25" s="7">
         <v>2000003</v>
@@ -6860,7 +6851,7 @@
         <v>70000011</v>
       </c>
       <c r="BF25" s="17" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="BG25" s="8">
         <v>0</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CB8F0A-F0A1-451A-8531-59CB093FE572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1A21C-63DE-4E84-A159-011B911CB901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31965" yWindow="900" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -880,10 +880,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>迷狐之妖</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>爱心之灵</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -975,6 +971,10 @@
   </si>
   <si>
     <t>930101,930102,930103,920104</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵狐之妖</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2715,9 +2715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH24" sqref="BH24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3459,13 +3459,13 @@
         <v>80001001</v>
       </c>
       <c r="BG6" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="BH6" s="15" t="s">
         <v>116</v>
       </c>
       <c r="BI6" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3638,13 +3638,13 @@
         <v>118</v>
       </c>
       <c r="BG7" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BH7" s="15" t="s">
         <v>119</v>
       </c>
       <c r="BI7" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3817,13 +3817,13 @@
         <v>80001018</v>
       </c>
       <c r="BG8" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BH8" s="15" t="s">
         <v>121</v>
       </c>
       <c r="BI8" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3996,13 +3996,13 @@
         <v>80001004</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BH9" s="15" t="s">
         <v>123</v>
       </c>
       <c r="BI9" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4175,13 +4175,13 @@
         <v>126</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BH10" s="15" t="s">
         <v>127</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4354,13 +4354,13 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BH11" s="15" t="s">
         <v>129</v>
       </c>
       <c r="BI11" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4533,13 +4533,13 @@
         <v>80001007</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BH12" s="15" t="s">
         <v>131</v>
       </c>
       <c r="BI12" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4712,13 +4712,13 @@
         <v>133</v>
       </c>
       <c r="BG13" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BH13" s="15" t="s">
         <v>134</v>
       </c>
       <c r="BI13" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4891,13 +4891,13 @@
         <v>80001009</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BH14" s="15" t="s">
         <v>136</v>
       </c>
       <c r="BI14" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5070,13 +5070,13 @@
         <v>139</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BH15" s="15" t="s">
         <v>140</v>
       </c>
       <c r="BI15" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5249,13 +5249,13 @@
         <v>142</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BH16" s="15" t="s">
         <v>143</v>
       </c>
       <c r="BI16" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5428,13 +5428,13 @@
         <v>145</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BH17" s="15" t="s">
         <v>146</v>
       </c>
       <c r="BI17" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5607,13 +5607,13 @@
         <v>80001006</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BH18" s="15" t="s">
         <v>148</v>
       </c>
       <c r="BI18" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5786,13 +5786,13 @@
         <v>80001014</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BH19" s="15" t="s">
         <v>150</v>
       </c>
       <c r="BI19" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5962,16 +5962,16 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG20" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH20" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="BG20" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="BH20" s="15" t="s">
-        <v>177</v>
-      </c>
       <c r="BI20" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5979,7 +5979,7 @@
         <v>1009201</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="E21" s="7">
         <v>1009201</v>
@@ -6144,13 +6144,13 @@
         <v>80002024</v>
       </c>
       <c r="BG21" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BH21" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BI21" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6158,7 +6158,7 @@
         <v>1009301</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E22" s="7">
         <v>1009301</v>
@@ -6323,13 +6323,13 @@
         <v>80002005</v>
       </c>
       <c r="BG22" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BH22" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="BI22" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6497,7 +6497,7 @@
         <v>70000011</v>
       </c>
       <c r="BF23" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BG23" s="8">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>70000012</v>
       </c>
       <c r="BF24" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BG24" s="8">
         <v>0</v>
@@ -6851,7 +6851,7 @@
         <v>70000011</v>
       </c>
       <c r="BF25" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BG25" s="8">
         <v>0</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B1A21C-63DE-4E84-A159-011B911CB901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163F50BD-5E4E-4369-B63B-E29F523161D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -970,11 +970,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>930101,930102,930103,920104</t>
+    <t>灵狐之妖</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>灵狐之妖</t>
+    <t>930101,930102,930103,930104</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2715,9 +2715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BB1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="BH22" sqref="BH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5979,7 +5979,7 @@
         <v>1009201</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E21" s="7">
         <v>1009201</v>
@@ -6326,7 +6326,7 @@
         <v>174</v>
       </c>
       <c r="BH22" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BI22" s="15" t="s">
         <v>182</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163F50BD-5E4E-4369-B63B-E29F523161D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D7AE19-E622-436D-BD9A-76B6AECB0511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PetProto" sheetId="1" r:id="rId1"/>
@@ -2715,9 +2715,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BH22" sqref="BH22"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5821,7 +5821,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" s="7">
         <v>1</v>
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" s="7">
         <v>1</v>
@@ -6179,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" s="7">
         <v>1</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D7AE19-E622-436D-BD9A-76B6AECB0511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D79BDC-C914-4322-A2E0-EB3CC6EF32B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="190">
   <si>
     <t>Id</t>
   </si>
@@ -920,19 +920,7 @@
     <t>80002010,0.2;80002003,0.2;80001026,0.1;80002027,0.1</t>
   </si>
   <si>
-    <t>80002004,0.2;80002016,0.2;80002023,0.2;80003004,0.1</t>
-  </si>
-  <si>
-    <t>80002009,0.2;80002013,0.2;80002003,0.2;80003005,0.1</t>
-  </si>
-  <si>
     <t>80002017,0.2;80002018,0.2;80003006,0.1</t>
-  </si>
-  <si>
-    <t>80002014,0.2;80001020,0.2;80001026,0.2;80003007,0.1</t>
-  </si>
-  <si>
-    <t>80002020,0.2;80002026,0.2;80001003,0.2;80003008,0.1</t>
   </si>
   <si>
     <t>80002008;80001016</t>
@@ -975,6 +963,38 @@
   </si>
   <si>
     <t>930101,930102,930103,930104</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002005;80002020</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002026,0.2;80001003,0.2;80003008,0.1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002014,0.2;80001026,0.2;80003007,0.1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002024;80001020</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001014;80002009</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002013,0.2;80002003,0.2;80003005,0.1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80001006;80002004</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>80002016,0.2;80002023,0.2;80003004,0.1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2715,9 +2735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:JP25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AY1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="BG18" sqref="BG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3465,7 +3485,7 @@
         <v>116</v>
       </c>
       <c r="BI6" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3644,7 +3664,7 @@
         <v>119</v>
       </c>
       <c r="BI7" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3823,7 +3843,7 @@
         <v>121</v>
       </c>
       <c r="BI8" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4002,7 +4022,7 @@
         <v>123</v>
       </c>
       <c r="BI9" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4181,7 +4201,7 @@
         <v>127</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4360,7 +4380,7 @@
         <v>129</v>
       </c>
       <c r="BI11" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4539,7 +4559,7 @@
         <v>131</v>
       </c>
       <c r="BI12" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4718,7 +4738,7 @@
         <v>134</v>
       </c>
       <c r="BI13" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4897,7 +4917,7 @@
         <v>136</v>
       </c>
       <c r="BI14" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5076,7 +5096,7 @@
         <v>140</v>
       </c>
       <c r="BI15" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5255,7 +5275,7 @@
         <v>143</v>
       </c>
       <c r="BI16" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5434,7 +5454,7 @@
         <v>146</v>
       </c>
       <c r="BI17" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5603,17 +5623,17 @@
       <c r="BE18" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF18" s="8">
-        <v>80001006</v>
+      <c r="BF18" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="BH18" s="15" t="s">
         <v>148</v>
       </c>
       <c r="BI18" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5782,17 +5802,17 @@
       <c r="BE19" s="8">
         <v>70000012</v>
       </c>
-      <c r="BF19" s="8">
-        <v>80001014</v>
+      <c r="BF19" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="BH19" s="15" t="s">
         <v>150</v>
       </c>
       <c r="BI19" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5962,16 +5982,16 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="BG20" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH20" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="BH20" s="15" t="s">
-        <v>176</v>
-      </c>
       <c r="BI20" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5979,7 +5999,7 @@
         <v>1009201</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E21" s="7">
         <v>1009201</v>
@@ -6140,17 +6160,17 @@
       <c r="BE21" s="8">
         <v>70000011</v>
       </c>
-      <c r="BF21" s="8">
-        <v>80002024</v>
+      <c r="BF21" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="BG21" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH21" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="BH21" s="15" t="s">
-        <v>177</v>
-      </c>
       <c r="BI21" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6319,17 +6339,17 @@
       <c r="BE22" s="8">
         <v>70000012</v>
       </c>
-      <c r="BF22" s="8">
-        <v>80002005</v>
+      <c r="BF22" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="BG22" s="14" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="BH22" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="BI22" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6497,7 +6517,7 @@
         <v>70000011</v>
       </c>
       <c r="BF23" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="BG23" s="8">
         <v>0</v>
@@ -6674,7 +6694,7 @@
         <v>70000012</v>
       </c>
       <c r="BF24" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="BG24" s="8">
         <v>0</v>
@@ -6851,7 +6871,7 @@
         <v>70000011</v>
       </c>
       <c r="BF25" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="BG25" s="8">
         <v>0</v>

--- a/Excel/PetConfig.xlsx
+++ b/Excel/PetConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D79BDC-C914-4322-A2E0-EB3CC6EF32B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBFD7D4-35CE-4101-9713-DD6CC6F91E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="188">
   <si>
     <t>Id</t>
   </si>
@@ -775,9 +775,6 @@
     <t>仙人掌</t>
   </si>
   <si>
-    <t>40101,40102,40103,40104</t>
-  </si>
-  <si>
     <t>团团</t>
   </si>
   <si>
@@ -787,21 +784,12 @@
     <t>80001005;80001019</t>
   </si>
   <si>
-    <t>50101,50102,50103,50104</t>
-  </si>
-  <si>
     <t>企鹅</t>
   </si>
   <si>
-    <t>60101,60102,60103</t>
-  </si>
-  <si>
     <t>蛇蛇</t>
   </si>
   <si>
-    <t>70101,70102,70103,70104</t>
-  </si>
-  <si>
     <t>萝卜头</t>
   </si>
   <si>
@@ -814,9 +802,6 @@
     <t>雷霆猪</t>
   </si>
   <si>
-    <t>90101,90102,90103,90104</t>
-  </si>
-  <si>
     <t>乌贼女士</t>
   </si>
   <si>
@@ -826,37 +811,22 @@
     <t>80001010;80001001</t>
   </si>
   <si>
-    <t>100101,100102,100103,100104</t>
-  </si>
-  <si>
     <t>魔法精灵</t>
   </si>
   <si>
     <t>80001011;80001003</t>
   </si>
   <si>
-    <t>110101,110102,110103</t>
-  </si>
-  <si>
     <t>魔法娃娃</t>
   </si>
   <si>
     <t>80001012;80002025</t>
   </si>
   <si>
-    <t>120101,120102,120103</t>
-  </si>
-  <si>
     <t>淘气包</t>
   </si>
   <si>
-    <t>130101,130102,130103,130104</t>
-  </si>
-  <si>
     <t>光明天使</t>
-  </si>
-  <si>
-    <t>140101,140102,140103</t>
   </si>
   <si>
     <t>神兽:精灵麋鹿</t>
@@ -926,14 +896,6 @@
     <t>80002008;80001016</t>
   </si>
   <si>
-    <t>910101,910102,910103,910104</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>920101,920102,920103,920104</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>80004005;80004006;80004004;80002008;80002013;80002016;80002017;80002010;80002019;80002023</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -950,22 +912,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>90,5,3,2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>90,5,5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>灵狐之妖</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>930101,930102,930103,930104</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>80002005;80002020</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -995,6 +945,58 @@
   </si>
   <si>
     <t>80002016,0.2;80002023,0.2;80003004,0.1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>40101,40102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>50101,50102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>60101,60102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>70101,70102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>90101,90102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101,100102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>110101,110102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>120101,120102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>130101,130102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>140101,140102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>910101,910102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>920101,920102</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>930101,930102</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2737,7 +2739,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="AY1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG18" sqref="BG18"/>
+      <selection pane="bottomLeft" activeCell="BI20" sqref="BI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3073,7 +3075,7 @@
         <v>89</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AR4" s="9" t="s">
         <v>90</v>
@@ -3252,10 +3254,10 @@
         <v>108</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AS5" s="5" t="s">
         <v>111</v>
@@ -3479,13 +3481,13 @@
         <v>80001001</v>
       </c>
       <c r="BG6" s="14" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="BH6" s="15" t="s">
         <v>116</v>
       </c>
       <c r="BI6" s="15" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3658,13 +3660,13 @@
         <v>118</v>
       </c>
       <c r="BG7" s="14" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="BH7" s="15" t="s">
         <v>119</v>
       </c>
       <c r="BI7" s="15" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -3837,13 +3839,13 @@
         <v>80001018</v>
       </c>
       <c r="BG8" s="14" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BH8" s="15" t="s">
         <v>121</v>
       </c>
       <c r="BI8" s="15" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4016,13 +4018,13 @@
         <v>80001004</v>
       </c>
       <c r="BG9" s="14" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BH9" s="15" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="BI9" s="15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4030,7 +4032,7 @@
         <v>1000501</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="7">
         <v>1000501</v>
@@ -4183,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="BC10" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BD10" s="8">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>70000012</v>
       </c>
       <c r="BF10" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BG10" s="14" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="BH10" s="15" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="BI10" s="15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4209,7 +4211,7 @@
         <v>1000601</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="7">
         <v>1000601</v>
@@ -4362,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="BC11" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BD11" s="8">
         <v>0</v>
@@ -4374,13 +4376,13 @@
         <v>80001006</v>
       </c>
       <c r="BG11" s="14" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="BH11" s="15" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="BI11" s="15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4388,7 +4390,7 @@
         <v>1000701</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E12" s="7">
         <v>1000701</v>
@@ -4541,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="BC12" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BD12" s="8">
         <v>0</v>
@@ -4553,13 +4555,13 @@
         <v>80001007</v>
       </c>
       <c r="BG12" s="14" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="BH12" s="15" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="BI12" s="15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4567,7 +4569,7 @@
         <v>1000801</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E13" s="7">
         <v>1000801</v>
@@ -4720,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="BC13" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BD13" s="8">
         <v>0</v>
@@ -4729,16 +4731,16 @@
         <v>70000011</v>
       </c>
       <c r="BF13" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="BG13" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH13" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI13" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="BH13" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="BI13" s="15" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4746,7 +4748,7 @@
         <v>1000901</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E14" s="7">
         <v>1000901</v>
@@ -4899,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="BC14" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BD14" s="8">
         <v>0</v>
@@ -4911,13 +4913,13 @@
         <v>80001009</v>
       </c>
       <c r="BG14" s="14" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="BH14" s="15" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BI14" s="15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -4925,7 +4927,7 @@
         <v>1001001</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E15" s="7">
         <v>1001001</v>
@@ -5078,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="BC15" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="BD15" s="8">
         <v>0</v>
@@ -5087,16 +5089,16 @@
         <v>70000011</v>
       </c>
       <c r="BF15" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="BG15" s="14" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="BH15" s="15" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="BI15" s="15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5104,7 +5106,7 @@
         <v>1001101</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E16" s="7">
         <v>1001101</v>
@@ -5257,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="BC16" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="BD16" s="8">
         <v>0</v>
@@ -5266,16 +5268,16 @@
         <v>70000012</v>
       </c>
       <c r="BF16" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="BG16" s="14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="BH16" s="15" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="BI16" s="15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5283,7 +5285,7 @@
         <v>1001201</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E17" s="7">
         <v>1001201</v>
@@ -5436,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="BC17" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="BD17" s="8">
         <v>0</v>
@@ -5445,16 +5447,16 @@
         <v>70000012</v>
       </c>
       <c r="BF17" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="BG17" s="14" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="BH17" s="15" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="BI17" s="15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5462,7 +5464,7 @@
         <v>1001301</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E18" s="7">
         <v>1001301</v>
@@ -5615,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="BC18" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="BD18" s="8">
         <v>0</v>
@@ -5624,16 +5626,16 @@
         <v>70000011</v>
       </c>
       <c r="BF18" s="8" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="BG18" s="14" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="BH18" s="15" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="BI18" s="15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5641,7 +5643,7 @@
         <v>1001401</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E19" s="7">
         <v>1001401</v>
@@ -5794,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="BC19" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="BD19" s="8">
         <v>0</v>
@@ -5803,16 +5805,16 @@
         <v>70000012</v>
       </c>
       <c r="BF19" s="8" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="BG19" s="14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="BH19" s="15" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="BI19" s="15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5820,7 +5822,7 @@
         <v>1009101</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E20" s="7">
         <v>1009101</v>
@@ -5973,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="BC20" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="BD20" s="8">
         <v>0</v>
@@ -5982,16 +5984,16 @@
         <v>70000011</v>
       </c>
       <c r="BF20" s="8" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="BG20" s="14" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="BH20" s="15" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="BI20" s="15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -5999,7 +6001,7 @@
         <v>1009201</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E21" s="7">
         <v>1009201</v>
@@ -6152,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="BC21" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="BD21" s="8">
         <v>0</v>
@@ -6161,16 +6163,16 @@
         <v>70000011</v>
       </c>
       <c r="BF21" s="8" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="BG21" s="14" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="BH21" s="15" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="BI21" s="15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6178,7 +6180,7 @@
         <v>1009301</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E22" s="7">
         <v>1009301</v>
@@ -6331,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="BC22" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="BD22" s="8">
         <v>0</v>
@@ -6340,16 +6342,16 @@
         <v>70000012</v>
       </c>
       <c r="BF22" s="8" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="BG22" s="14" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="BH22" s="15" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="BI22" s="15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="3:61" ht="20.100000000000001" customHeight="1">
@@ -6357,7 +6359,7 @@
         <v>2000001</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E23" s="7">
         <v>2000001</v>
@@ -6517,7 +6519,7 @@
         <v>70000011</v>
       </c>
       <c r="BF23" s="18" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="BG23" s="8">
         <v>0</v>
@@ -6534,7 +6536,7 @@
         <v>2000002</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E24" s="7">
         <v>2000002</v>
@@ -6694,7 +6696,7 @@
         <v>70000012</v>
       </c>
       <c r="BF24" s="17" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="BG24" s="8">
         <v>0</v>
@@ -6711,7 +6713,7 @@
         <v>2000003</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E25" s="7">
         <v>2000003</v>
@@ -6871,7 +6873,7 @@
         <v>70000011</v>
       </c>
       <c r="BF25" s="17" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="BG25" s="8">
         <v>0</v>
